--- a/BackTest/2019-10-31 BackTest TRV.xlsx
+++ b/BackTest/2019-10-31 BackTest TRV.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>2.699999999999996</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>48.14814814814839</v>
+      </c>
       <c r="L12" t="n">
         <v>45.76000000000001</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>3.299999999999997</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>18.75000000000007</v>
+      </c>
       <c r="L13" t="n">
         <v>45.83000000000001</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>3.899999999999999</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>21.21212121212131</v>
+      </c>
       <c r="L14" t="n">
         <v>45.95</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>4.100000000000001</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-3.448275862069016</v>
+      </c>
       <c r="L15" t="n">
         <v>46.00000000000001</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>4.200000000000003</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-6.666666666666761</v>
+      </c>
       <c r="L16" t="n">
         <v>45.98</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>4.200000000000003</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-14.28571428571421</v>
+      </c>
       <c r="L17" t="n">
         <v>45.95999999999999</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" t="n">
         <v>45.89999999999999</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>4.347826086956576</v>
+      </c>
       <c r="L19" t="n">
         <v>45.89999999999999</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>4.5</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L20" t="n">
         <v>45.89999999999999</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>4.899999999999999</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-9.090909090909207</v>
+      </c>
       <c r="L21" t="n">
         <v>45.88</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>5.199999999999996</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>5.263157894736921</v>
+      </c>
       <c r="L22" t="n">
         <v>45.83</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>5.199999999999996</v>
       </c>
       <c r="K23" t="n">
-        <v>15.38461538461548</v>
+        <v>-38.46153846153855</v>
       </c>
       <c r="L23" t="n">
         <v>45.83999999999999</v>
@@ -1466,7 +1488,7 @@
         <v>5.29999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>15.38461538461536</v>
+        <v>-16.66666666666706</v>
       </c>
       <c r="L24" t="n">
         <v>45.8</v>
@@ -1515,7 +1537,7 @@
         <v>5.29999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>6.382978723404211</v>
+        <v>-9.090909090909326</v>
       </c>
       <c r="L25" t="n">
         <v>45.77999999999999</v>
@@ -1564,7 +1586,7 @@
         <v>5.399999999999984</v>
       </c>
       <c r="K26" t="n">
-        <v>-9.523809523809531</v>
+        <v>-16.66666666666657</v>
       </c>
       <c r="L26" t="n">
         <v>45.76</v>
@@ -1613,7 +1635,7 @@
         <v>5.399999999999984</v>
       </c>
       <c r="K27" t="n">
-        <v>-9.523809523809531</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>45.73999999999999</v>
@@ -1662,7 +1684,7 @@
         <v>5.499999999999986</v>
       </c>
       <c r="K28" t="n">
-        <v>-17.07317073170726</v>
+        <v>-9.090909090909326</v>
       </c>
       <c r="L28" t="n">
         <v>45.73</v>
@@ -1711,7 +1733,7 @@
         <v>5.599999999999987</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>9.090909090909326</v>
       </c>
       <c r="L29" t="n">
         <v>45.73</v>
@@ -1760,7 +1782,7 @@
         <v>5.599999999999987</v>
       </c>
       <c r="K30" t="n">
-        <v>2.857142857142903</v>
+        <v>-42.85714285714315</v>
       </c>
       <c r="L30" t="n">
         <v>45.73999999999999</v>
@@ -1809,7 +1831,7 @@
         <v>5.79999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>-22.58064516129046</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L31" t="n">
         <v>45.69</v>
@@ -1860,7 +1882,7 @@
         <v>5.79999999999999</v>
       </c>
       <c r="K32" t="n">
-        <v>-22.58064516129046</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L32" t="n">
         <v>45.67</v>
@@ -1911,7 +1933,7 @@
         <v>5.999999999999993</v>
       </c>
       <c r="K33" t="n">
-        <v>3.703703703703762</v>
+        <v>-14.28571428571342</v>
       </c>
       <c r="L33" t="n">
         <v>45.67</v>
@@ -1962,7 +1984,7 @@
         <v>5.999999999999993</v>
       </c>
       <c r="K34" t="n">
-        <v>-23.80952380952387</v>
+        <v>-14.28571428571342</v>
       </c>
       <c r="L34" t="n">
         <v>45.66</v>
@@ -2013,7 +2035,7 @@
         <v>6.29999999999999</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>33.33333333333281</v>
       </c>
       <c r="L35" t="n">
         <v>45.67999999999999</v>
@@ -2064,7 +2086,7 @@
         <v>6.29999999999999</v>
       </c>
       <c r="K36" t="n">
-        <v>4.761904761904859</v>
+        <v>33.33333333333281</v>
       </c>
       <c r="L36" t="n">
         <v>45.70999999999999</v>
@@ -2115,7 +2137,7 @@
         <v>6.699999999999989</v>
       </c>
       <c r="K37" t="n">
-        <v>-11.99999999999996</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>45.7</v>
@@ -2166,7 +2188,7 @@
         <v>6.79999999999999</v>
       </c>
       <c r="K38" t="n">
-        <v>-8.333333333333481</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L38" t="n">
         <v>45.69</v>
@@ -2217,7 +2239,7 @@
         <v>7.199999999999989</v>
       </c>
       <c r="K39" t="n">
-        <v>7.142857142857016</v>
+        <v>12.49999999999972</v>
       </c>
       <c r="L39" t="n">
         <v>45.70999999999999</v>
@@ -2268,7 +2290,7 @@
         <v>7.199999999999989</v>
       </c>
       <c r="K40" t="n">
-        <v>11.11111111111105</v>
+        <v>28.5714285714285</v>
       </c>
       <c r="L40" t="n">
         <v>45.73</v>
@@ -2319,7 +2341,7 @@
         <v>7.199999999999989</v>
       </c>
       <c r="K41" t="n">
-        <v>-4.347826086956602</v>
+        <v>28.5714285714285</v>
       </c>
       <c r="L41" t="n">
         <v>45.77</v>
@@ -2370,7 +2392,7 @@
         <v>7.29999999999999</v>
       </c>
       <c r="K42" t="n">
-        <v>14.28571428571419</v>
+        <v>23.07692307692291</v>
       </c>
       <c r="L42" t="n">
         <v>45.81999999999999</v>
@@ -2421,7 +2443,7 @@
         <v>9.099999999999987</v>
       </c>
       <c r="K43" t="n">
-        <v>-38.46153846153855</v>
+        <v>-48.38709677419364</v>
       </c>
       <c r="L43" t="n">
         <v>45.66999999999999</v>
@@ -2472,7 +2494,7 @@
         <v>9.299999999999983</v>
       </c>
       <c r="K44" t="n">
-        <v>-35.00000000000003</v>
+        <v>-53.33333333333351</v>
       </c>
       <c r="L44" t="n">
         <v>45.53999999999999</v>
@@ -2523,7 +2545,7 @@
         <v>10.39999999999998</v>
       </c>
       <c r="K45" t="n">
-        <v>-5.882352941176421</v>
+        <v>-12.19512195121953</v>
       </c>
       <c r="L45" t="n">
         <v>45.48999999999999</v>
@@ -2574,7 +2596,7 @@
         <v>10.79999999999998</v>
       </c>
       <c r="K46" t="n">
-        <v>-11.11111111111114</v>
+        <v>-12.19512195121953</v>
       </c>
       <c r="L46" t="n">
         <v>45.39999999999999</v>
@@ -2625,7 +2647,7 @@
         <v>10.89999999999998</v>
       </c>
       <c r="K47" t="n">
-        <v>-12.72727272727278</v>
+        <v>-12.19512195121953</v>
       </c>
       <c r="L47" t="n">
         <v>45.33999999999999</v>
@@ -2676,7 +2698,7 @@
         <v>10.89999999999998</v>
       </c>
       <c r="K48" t="n">
-        <v>-11.11111111111114</v>
+        <v>-24.32432432432432</v>
       </c>
       <c r="L48" t="n">
         <v>45.28999999999999</v>
@@ -2727,7 +2749,7 @@
         <v>10.89999999999998</v>
       </c>
       <c r="K49" t="n">
-        <v>-13.20754716981138</v>
+        <v>-24.32432432432432</v>
       </c>
       <c r="L49" t="n">
         <v>45.2</v>
@@ -2778,7 +2800,7 @@
         <v>10.99999999999999</v>
       </c>
       <c r="K50" t="n">
-        <v>-14.8148148148149</v>
+        <v>-26.31578947368423</v>
       </c>
       <c r="L50" t="n">
         <v>45.09999999999999</v>
@@ -2829,7 +2851,7 @@
         <v>10.99999999999999</v>
       </c>
       <c r="K51" t="n">
-        <v>-11.53846153846158</v>
+        <v>-29.7297297297298</v>
       </c>
       <c r="L51" t="n">
         <v>44.99999999999999</v>
@@ -2880,7 +2902,7 @@
         <v>10.99999999999999</v>
       </c>
       <c r="K52" t="n">
-        <v>-11.53846153846158</v>
+        <v>36.8421052631577</v>
       </c>
       <c r="L52" t="n">
         <v>44.88999999999999</v>
@@ -2931,7 +2953,7 @@
         <v>11.49999999999999</v>
       </c>
       <c r="K53" t="n">
-        <v>-5.454545454545539</v>
+        <v>45.4545454545454</v>
       </c>
       <c r="L53" t="n">
         <v>45.00999999999999</v>
@@ -2982,7 +3004,7 @@
         <v>11.89999999999998</v>
       </c>
       <c r="K54" t="n">
-        <v>-11.86440677966108</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L54" t="n">
         <v>45.06999999999999</v>
@@ -3033,7 +3055,7 @@
         <v>12.39999999999998</v>
       </c>
       <c r="K55" t="n">
-        <v>-24.59016393442625</v>
+        <v>-37.50000000000006</v>
       </c>
       <c r="L55" t="n">
         <v>44.96999999999999</v>
@@ -3084,7 +3106,7 @@
         <v>12.49999999999999</v>
       </c>
       <c r="K56" t="n">
-        <v>-25.80645161290326</v>
+        <v>-37.50000000000006</v>
       </c>
       <c r="L56" t="n">
         <v>44.89999999999999</v>
@@ -3135,7 +3157,7 @@
         <v>12.59999999999999</v>
       </c>
       <c r="K57" t="n">
-        <v>-18.6440677966102</v>
+        <v>-29.41176470588231</v>
       </c>
       <c r="L57" t="n">
         <v>44.84999999999999</v>
@@ -3186,7 +3208,7 @@
         <v>12.69999999999999</v>
       </c>
       <c r="K58" t="n">
-        <v>-15.25423728813557</v>
+        <v>-22.22222222222209</v>
       </c>
       <c r="L58" t="n">
         <v>44.80999999999999</v>
@@ -3237,7 +3259,7 @@
         <v>12.69999999999999</v>
       </c>
       <c r="K59" t="n">
-        <v>-23.63636363636359</v>
+        <v>-17.64705882352921</v>
       </c>
       <c r="L59" t="n">
         <v>44.77</v>
@@ -3288,7 +3310,7 @@
         <v>12.99999999999999</v>
       </c>
       <c r="K60" t="n">
-        <v>-27.58620689655173</v>
+        <v>-29.99999999999996</v>
       </c>
       <c r="L60" t="n">
         <v>44.70999999999999</v>
@@ -3339,7 +3361,7 @@
         <v>13.29999999999999</v>
       </c>
       <c r="K61" t="n">
-        <v>-31.14754098360653</v>
+        <v>-39.13043478260856</v>
       </c>
       <c r="L61" t="n">
         <v>44.62</v>
@@ -3390,7 +3412,7 @@
         <v>13.29999999999999</v>
       </c>
       <c r="K62" t="n">
-        <v>-33.33333333333333</v>
+        <v>-77.77777777777752</v>
       </c>
       <c r="L62" t="n">
         <v>44.53</v>
@@ -3441,7 +3463,7 @@
         <v>13.39999999999999</v>
       </c>
       <c r="K63" t="n">
-        <v>-6.976744186046605</v>
+        <v>-73.33333333333309</v>
       </c>
       <c r="L63" t="n">
         <v>44.38</v>
@@ -3492,7 +3514,7 @@
         <v>13.99999999999999</v>
       </c>
       <c r="K64" t="n">
-        <v>2.127659574468111</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>44.33</v>
@@ -3543,7 +3565,7 @@
         <v>14.09999999999999</v>
       </c>
       <c r="K65" t="n">
-        <v>-24.32432432432422</v>
+        <v>12.50000000000011</v>
       </c>
       <c r="L65" t="n">
         <v>44.34</v>
@@ -3594,7 +3616,7 @@
         <v>14.09999999999999</v>
       </c>
       <c r="K66" t="n">
-        <v>-15.1515151515151</v>
+        <v>6.66666666666673</v>
       </c>
       <c r="L66" t="n">
         <v>44.36000000000001</v>
@@ -3696,7 +3718,7 @@
         <v>14.59999999999999</v>
       </c>
       <c r="K68" t="n">
-        <v>-18.91891891891898</v>
+        <v>-15.78947368421076</v>
       </c>
       <c r="L68" t="n">
         <v>44.3</v>
@@ -3747,7 +3769,7 @@
         <v>14.79999999999998</v>
       </c>
       <c r="K69" t="n">
-        <v>-23.07692307692305</v>
+        <v>-11.11111111111093</v>
       </c>
       <c r="L69" t="n">
         <v>44.25000000000001</v>
@@ -3798,7 +3820,7 @@
         <v>14.89999999999998</v>
       </c>
       <c r="K70" t="n">
-        <v>-17.94871794871785</v>
+        <v>12.50000000000022</v>
       </c>
       <c r="L70" t="n">
         <v>44.24</v>
@@ -3849,7 +3871,7 @@
         <v>14.89999999999998</v>
       </c>
       <c r="K71" t="n">
-        <v>-17.94871794871785</v>
+        <v>12.50000000000022</v>
       </c>
       <c r="L71" t="n">
         <v>44.26000000000001</v>
@@ -3900,7 +3922,7 @@
         <v>15.19999999999998</v>
       </c>
       <c r="K72" t="n">
-        <v>-9.523809523809499</v>
+        <v>33.3333333333336</v>
       </c>
       <c r="L72" t="n">
         <v>44.31</v>
@@ -3951,7 +3973,7 @@
         <v>15.19999999999998</v>
       </c>
       <c r="K73" t="n">
-        <v>-24.32432432432432</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>44.37</v>
@@ -4002,7 +4024,7 @@
         <v>15.19999999999998</v>
       </c>
       <c r="K74" t="n">
-        <v>-15.15151515151517</v>
+        <v>-9.090909090909326</v>
       </c>
       <c r="L74" t="n">
         <v>44.37</v>
@@ -4053,7 +4075,7 @@
         <v>15.49999999999998</v>
       </c>
       <c r="K75" t="n">
-        <v>9.677419354838635</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L75" t="n">
         <v>44.39</v>
@@ -4104,7 +4126,7 @@
         <v>15.89999999999998</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L76" t="n">
         <v>44.37</v>
@@ -4155,7 +4177,7 @@
         <v>15.89999999999998</v>
       </c>
       <c r="K77" t="n">
-        <v>-3.030303030303082</v>
+        <v>7.69230769230786</v>
       </c>
       <c r="L77" t="n">
         <v>44.39</v>
@@ -4206,7 +4228,7 @@
         <v>16.29999999999998</v>
       </c>
       <c r="K78" t="n">
-        <v>5.555555555555457</v>
+        <v>46.6666666666666</v>
       </c>
       <c r="L78" t="n">
         <v>44.44</v>
@@ -4257,7 +4279,7 @@
         <v>16.99999999999997</v>
       </c>
       <c r="K79" t="n">
-        <v>-11.62790697674423</v>
+        <v>-4.761904761904859</v>
       </c>
       <c r="L79" t="n">
         <v>44.44</v>
@@ -4308,7 +4330,7 @@
         <v>16.99999999999997</v>
       </c>
       <c r="K80" t="n">
-        <v>-4.99999999999992</v>
+        <v>-4.761904761904859</v>
       </c>
       <c r="L80" t="n">
         <v>44.43</v>
@@ -4359,7 +4381,7 @@
         <v>16.99999999999997</v>
       </c>
       <c r="K81" t="n">
-        <v>2.702702702702755</v>
+        <v>-22.22222222222226</v>
       </c>
       <c r="L81" t="n">
         <v>44.42</v>
@@ -4410,7 +4432,7 @@
         <v>17.09999999999997</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>-26.31578947368433</v>
       </c>
       <c r="L82" t="n">
         <v>44.37</v>
@@ -4461,7 +4483,7 @@
         <v>17.09999999999997</v>
       </c>
       <c r="K83" t="n">
-        <v>2.702702702702755</v>
+        <v>-26.31578947368433</v>
       </c>
       <c r="L83" t="n">
         <v>44.32000000000001</v>
@@ -4512,7 +4534,7 @@
         <v>17.69999999999997</v>
       </c>
       <c r="K84" t="n">
-        <v>2.702702702702755</v>
+        <v>-9.090909090908914</v>
       </c>
       <c r="L84" t="n">
         <v>44.33000000000001</v>
@@ -4563,7 +4585,7 @@
         <v>18.29999999999998</v>
       </c>
       <c r="K85" t="n">
-        <v>-14.28571428571438</v>
+        <v>-16.66666666666662</v>
       </c>
       <c r="L85" t="n">
         <v>44.25000000000001</v>
@@ -4614,7 +4636,7 @@
         <v>18.69999999999997</v>
       </c>
       <c r="K86" t="n">
-        <v>-4.347826086956602</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
         <v>44.25000000000001</v>
@@ -4665,7 +4687,7 @@
         <v>19.19999999999997</v>
       </c>
       <c r="K87" t="n">
-        <v>-6.382978723404372</v>
+        <v>-31.03448275862066</v>
       </c>
       <c r="L87" t="n">
         <v>44.2</v>
@@ -4716,7 +4738,7 @@
         <v>19.49999999999998</v>
       </c>
       <c r="K88" t="n">
-        <v>-2.040816326530499</v>
+        <v>4.000000000000045</v>
       </c>
       <c r="L88" t="n">
         <v>44.14</v>
@@ -4767,7 +4789,7 @@
         <v>19.79999999999998</v>
       </c>
       <c r="K89" t="n">
-        <v>-4.000000000000057</v>
+        <v>-7.142857142857216</v>
       </c>
       <c r="L89" t="n">
         <v>44.12</v>
@@ -4818,7 +4840,7 @@
         <v>19.79999999999998</v>
       </c>
       <c r="K90" t="n">
-        <v>-6.122448979591925</v>
+        <v>-7.142857142857216</v>
       </c>
       <c r="L90" t="n">
         <v>44.09999999999999</v>
@@ -4869,7 +4891,7 @@
         <v>19.89999999999998</v>
       </c>
       <c r="K91" t="n">
-        <v>-8.000000000000114</v>
+        <v>-7.142857142857216</v>
       </c>
       <c r="L91" t="n">
         <v>44.06999999999999</v>
@@ -4920,7 +4942,7 @@
         <v>19.99999999999998</v>
       </c>
       <c r="K92" t="n">
-        <v>-16.66666666666662</v>
+        <v>-10.34482758620678</v>
       </c>
       <c r="L92" t="n">
         <v>44.03999999999999</v>
@@ -4971,7 +4993,7 @@
         <v>20.09999999999998</v>
       </c>
       <c r="K93" t="n">
-        <v>-18.36734693877549</v>
+        <v>-41.66666666666657</v>
       </c>
       <c r="L93" t="n">
         <v>43.99999999999999</v>
@@ -5022,7 +5044,7 @@
         <v>20.39999999999998</v>
       </c>
       <c r="K94" t="n">
-        <v>-23.07692307692312</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L94" t="n">
         <v>43.86999999999999</v>
@@ -5073,7 +5095,7 @@
         <v>20.49999999999999</v>
       </c>
       <c r="K95" t="n">
-        <v>-27.99999999999993</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L95" t="n">
         <v>43.80999999999999</v>
@@ -5124,7 +5146,7 @@
         <v>20.69999999999998</v>
       </c>
       <c r="K96" t="n">
-        <v>-24.99999999999989</v>
+        <v>-46.66666666666616</v>
       </c>
       <c r="L96" t="n">
         <v>43.68999999999999</v>
@@ -5175,7 +5197,7 @@
         <v>20.79999999999998</v>
       </c>
       <c r="K97" t="n">
-        <v>-22.44897959183677</v>
+        <v>-69.23076923076982</v>
       </c>
       <c r="L97" t="n">
         <v>43.63</v>
@@ -5226,7 +5248,7 @@
         <v>20.99999999999997</v>
       </c>
       <c r="K98" t="n">
-        <v>-36.17021276595739</v>
+        <v>-66.66666666666707</v>
       </c>
       <c r="L98" t="n">
         <v>43.52</v>
@@ -5277,7 +5299,7 @@
         <v>20.99999999999997</v>
       </c>
       <c r="K99" t="n">
-        <v>-25</v>
+        <v>-66.66666666666707</v>
       </c>
       <c r="L99" t="n">
         <v>43.44</v>
@@ -5328,7 +5350,7 @@
         <v>21.19999999999997</v>
       </c>
       <c r="K100" t="n">
-        <v>-19.04761904761917</v>
+        <v>-38.46153846153897</v>
       </c>
       <c r="L100" t="n">
         <v>43.38000000000001</v>
@@ -5379,7 +5401,7 @@
         <v>21.69999999999997</v>
       </c>
       <c r="K101" t="n">
-        <v>-27.65957446808522</v>
+        <v>-52.94117647058892</v>
       </c>
       <c r="L101" t="n">
         <v>43.28000000000001</v>
@@ -5430,7 +5452,7 @@
         <v>22.89999999999997</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L102" t="n">
         <v>43.31000000000001</v>
@@ -5481,7 +5503,7 @@
         <v>23.09999999999997</v>
       </c>
       <c r="K103" t="n">
-        <v>-3.333333333333381</v>
+        <v>18.51851851851859</v>
       </c>
       <c r="L103" t="n">
         <v>43.33000000000001</v>
@@ -5532,7 +5554,7 @@
         <v>23.39999999999998</v>
       </c>
       <c r="K104" t="n">
-        <v>-8.771929824561399</v>
+        <v>24.13793103448293</v>
       </c>
       <c r="L104" t="n">
         <v>43.41000000000001</v>
@@ -5583,7 +5605,7 @@
         <v>23.99999999999998</v>
       </c>
       <c r="K105" t="n">
-        <v>-8.771929824561399</v>
+        <v>9.090909090909012</v>
       </c>
       <c r="L105" t="n">
         <v>43.42000000000001</v>
@@ -5634,7 +5656,7 @@
         <v>23.99999999999998</v>
       </c>
       <c r="K106" t="n">
-        <v>-16.98113207547166</v>
+        <v>6.250000000000083</v>
       </c>
       <c r="L106" t="n">
         <v>43.45000000000001</v>
@@ -5685,7 +5707,7 @@
         <v>24.49999999999998</v>
       </c>
       <c r="K107" t="n">
-        <v>-16.98113207547166</v>
+        <v>-2.857142857142892</v>
       </c>
       <c r="L107" t="n">
         <v>43.42000000000001</v>
@@ -5736,7 +5758,7 @@
         <v>24.59999999999998</v>
       </c>
       <c r="K108" t="n">
-        <v>-21.56862745098041</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>43.42000000000001</v>
@@ -5787,7 +5809,7 @@
         <v>24.89999999999998</v>
       </c>
       <c r="K109" t="n">
-        <v>-21.56862745098041</v>
+        <v>-13.51351351351345</v>
       </c>
       <c r="L109" t="n">
         <v>43.39000000000001</v>
@@ -5838,7 +5860,7 @@
         <v>25.89999999999998</v>
       </c>
       <c r="K110" t="n">
-        <v>-1.639344262295105</v>
+        <v>23.80952380952371</v>
       </c>
       <c r="L110" t="n">
         <v>43.44000000000001</v>
@@ -5889,7 +5911,7 @@
         <v>26.49999999999998</v>
       </c>
       <c r="K111" t="n">
-        <v>-9.090909090909012</v>
+        <v>-22.22222222222209</v>
       </c>
       <c r="L111" t="n">
         <v>43.48</v>
@@ -5940,7 +5962,7 @@
         <v>26.99999999999998</v>
       </c>
       <c r="K112" t="n">
-        <v>-14.28571428571428</v>
+        <v>-28.20512820512802</v>
       </c>
       <c r="L112" t="n">
         <v>43.35000000000001</v>
@@ -5991,7 +6013,7 @@
         <v>27.19999999999998</v>
       </c>
       <c r="K113" t="n">
-        <v>-15.49295774647889</v>
+        <v>-42.10526315789473</v>
       </c>
       <c r="L113" t="n">
         <v>43.22000000000001</v>
@@ -6042,7 +6064,7 @@
         <v>27.29999999999998</v>
       </c>
       <c r="K114" t="n">
-        <v>-10.14492753623182</v>
+        <v>-27.27272727272719</v>
       </c>
       <c r="L114" t="n">
         <v>43.07000000000001</v>
@@ -6093,7 +6115,7 @@
         <v>27.29999999999998</v>
       </c>
       <c r="K115" t="n">
-        <v>-11.7647058823529</v>
+        <v>-27.27272727272719</v>
       </c>
       <c r="L115" t="n">
         <v>42.98</v>
@@ -6144,7 +6166,7 @@
         <v>27.39999999999998</v>
       </c>
       <c r="K116" t="n">
-        <v>-10.44776119402989</v>
+        <v>-17.24137931034479</v>
       </c>
       <c r="L116" t="n">
         <v>42.88000000000001</v>
@@ -6195,7 +6217,7 @@
         <v>27.59999999999999</v>
       </c>
       <c r="K117" t="n">
-        <v>-8.823529411764607</v>
+        <v>-13.33333333333326</v>
       </c>
       <c r="L117" t="n">
         <v>42.85000000000001</v>
@@ -6246,7 +6268,7 @@
         <v>27.69999999999999</v>
       </c>
       <c r="K118" t="n">
-        <v>-7.462686567164161</v>
+        <v>-7.14285714285698</v>
       </c>
       <c r="L118" t="n">
         <v>42.8</v>
@@ -6297,7 +6319,7 @@
         <v>27.69999999999999</v>
       </c>
       <c r="K119" t="n">
-        <v>-7.462686567164161</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L119" t="n">
         <v>42.78000000000001</v>
@@ -6352,7 +6374,7 @@
         <v>28.09999999999999</v>
       </c>
       <c r="K120" t="n">
-        <v>-4.347826086956468</v>
+        <v>-12.50000000000011</v>
       </c>
       <c r="L120" t="n">
         <v>42.7</v>
@@ -6409,7 +6431,7 @@
         <v>29.09999999999999</v>
       </c>
       <c r="K121" t="n">
-        <v>16.21621621621621</v>
+        <v>61.90476190476152</v>
       </c>
       <c r="L121" t="n">
         <v>42.78000000000001</v>
@@ -6468,7 +6490,7 @@
         <v>29.99999999999999</v>
       </c>
       <c r="K122" t="n">
-        <v>-12.67605633802812</v>
+        <v>21.42857142857145</v>
       </c>
       <c r="L122" t="n">
         <v>42.82000000000001</v>
@@ -6525,7 +6547,7 @@
         <v>30.69999999999998</v>
       </c>
       <c r="K123" t="n">
-        <v>0</v>
+        <v>35.29411764705871</v>
       </c>
       <c r="L123" t="n">
         <v>42.95000000000001</v>
@@ -6582,7 +6604,7 @@
         <v>30.79999999999998</v>
       </c>
       <c r="K124" t="n">
-        <v>-2.702702702702739</v>
+        <v>37.14285714285706</v>
       </c>
       <c r="L124" t="n">
         <v>43.08000000000001</v>
@@ -6639,7 +6661,7 @@
         <v>31.89999999999998</v>
       </c>
       <c r="K125" t="n">
-        <v>-8.860759493670916</v>
+        <v>6.666666666666604</v>
       </c>
       <c r="L125" t="n">
         <v>43.10000000000001</v>
@@ -6696,7 +6718,7 @@
         <v>31.99999999999998</v>
       </c>
       <c r="K126" t="n">
-        <v>-9.999999999999964</v>
+        <v>0</v>
       </c>
       <c r="L126" t="n">
         <v>43.12</v>
@@ -6753,7 +6775,7 @@
         <v>32.79999999999998</v>
       </c>
       <c r="K127" t="n">
-        <v>6.024096385542171</v>
+        <v>17.64705882352943</v>
       </c>
       <c r="L127" t="n">
         <v>43.2</v>
@@ -6810,7 +6832,7 @@
         <v>33.29999999999998</v>
       </c>
       <c r="K128" t="n">
-        <v>-1.149425287356339</v>
+        <v>7.142857142857134</v>
       </c>
       <c r="L128" t="n">
         <v>43.24</v>
@@ -6867,7 +6889,7 @@
         <v>33.59999999999997</v>
       </c>
       <c r="K129" t="n">
-        <v>5.747126436781617</v>
+        <v>5.454545454545417</v>
       </c>
       <c r="L129" t="n">
         <v>43.31</v>
@@ -6918,7 +6940,7 @@
         <v>33.89999999999998</v>
       </c>
       <c r="K130" t="n">
-        <v>-2.499999999999949</v>
+        <v>-8.33333333333332</v>
       </c>
       <c r="L130" t="n">
         <v>43.37</v>
@@ -6969,7 +6991,7 @@
         <v>33.89999999999998</v>
       </c>
       <c r="K131" t="n">
-        <v>5.405405405405387</v>
+        <v>12.82051282051285</v>
       </c>
       <c r="L131" t="n">
         <v>43.33000000000001</v>
@@ -7020,7 +7042,7 @@
         <v>33.99999999999998</v>
       </c>
       <c r="K132" t="n">
-        <v>14.28571428571428</v>
+        <v>-3.030303030302861</v>
       </c>
       <c r="L132" t="n">
         <v>43.39</v>
@@ -7071,7 +7093,7 @@
         <v>34.09999999999998</v>
       </c>
       <c r="K133" t="n">
-        <v>15.94202898550727</v>
+        <v>-9.090909090909012</v>
       </c>
       <c r="L133" t="n">
         <v>43.37</v>
@@ -7122,7 +7144,7 @@
         <v>34.59999999999998</v>
       </c>
       <c r="K134" t="n">
-        <v>6.849315068493153</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L134" t="n">
         <v>43.29000000000001</v>
@@ -7173,7 +7195,7 @@
         <v>34.69999999999998</v>
       </c>
       <c r="K135" t="n">
-        <v>5.405405405405387</v>
+        <v>11.11111111111099</v>
       </c>
       <c r="L135" t="n">
         <v>43.31000000000001</v>
@@ -7224,7 +7246,7 @@
         <v>34.69999999999998</v>
       </c>
       <c r="K136" t="n">
-        <v>6.849315068493153</v>
+        <v>-26.31578947368413</v>
       </c>
       <c r="L136" t="n">
         <v>43.34000000000001</v>
@@ -7275,7 +7297,7 @@
         <v>35.19999999999998</v>
       </c>
       <c r="K137" t="n">
-        <v>10.52631578947365</v>
+        <v>26.31578947368413</v>
       </c>
       <c r="L137" t="n">
         <v>43.34000000000001</v>
@@ -7326,7 +7348,7 @@
         <v>35.29999999999998</v>
       </c>
       <c r="K138" t="n">
-        <v>13.15789473684212</v>
+        <v>17.64705882352956</v>
       </c>
       <c r="L138" t="n">
         <v>43.40000000000001</v>
@@ -7377,7 +7399,7 @@
         <v>35.59999999999999</v>
       </c>
       <c r="K139" t="n">
-        <v>8.860759493670834</v>
+        <v>-17.64705882352956</v>
       </c>
       <c r="L139" t="n">
         <v>43.40000000000001</v>
@@ -7428,7 +7450,7 @@
         <v>35.59999999999999</v>
       </c>
       <c r="K140" t="n">
-        <v>3.999999999999962</v>
+        <v>-17.64705882352956</v>
       </c>
       <c r="L140" t="n">
         <v>43.37000000000001</v>
@@ -7479,7 +7501,7 @@
         <v>35.59999999999999</v>
       </c>
       <c r="K141" t="n">
-        <v>-10.76923076923081</v>
+        <v>-25.00000000000022</v>
       </c>
       <c r="L141" t="n">
         <v>43.34000000000001</v>
@@ -7530,7 +7552,7 @@
         <v>35.59999999999999</v>
       </c>
       <c r="K142" t="n">
-        <v>3.571428571428494</v>
+        <v>-20.00000000000019</v>
       </c>
       <c r="L142" t="n">
         <v>43.30000000000001</v>
@@ -7581,7 +7603,7 @@
         <v>35.59999999999999</v>
       </c>
       <c r="K143" t="n">
-        <v>-10.20408163265305</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L143" t="n">
         <v>43.27000000000001</v>
@@ -7632,7 +7654,7 @@
         <v>35.69999999999999</v>
       </c>
       <c r="K144" t="n">
-        <v>-10.20408163265305</v>
+        <v>39.99999999999957</v>
       </c>
       <c r="L144" t="n">
         <v>43.3</v>
@@ -7683,7 +7705,7 @@
         <v>35.89999999999998</v>
       </c>
       <c r="K145" t="n">
-        <v>10.00000000000014</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L145" t="n">
         <v>43.32000000000001</v>
@@ -7734,7 +7756,7 @@
         <v>36.59999999999999</v>
       </c>
       <c r="K146" t="n">
-        <v>-4.347826086956576</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L146" t="n">
         <v>43.27</v>
@@ -7785,7 +7807,7 @@
         <v>36.69999999999999</v>
       </c>
       <c r="K147" t="n">
-        <v>-28.20512820512815</v>
+        <v>-85.71428571428557</v>
       </c>
       <c r="L147" t="n">
         <v>43.16</v>
@@ -7836,7 +7858,7 @@
         <v>37.09999999999999</v>
       </c>
       <c r="K148" t="n">
-        <v>-26.31578947368413</v>
+        <v>-86.66666666666649</v>
       </c>
       <c r="L148" t="n">
         <v>43</v>
@@ -7887,7 +7909,7 @@
         <v>37.89999999999998</v>
       </c>
       <c r="K149" t="n">
-        <v>-11.62790697674416</v>
+        <v>-21.73913043478263</v>
       </c>
       <c r="L149" t="n">
         <v>42.95</v>
@@ -7938,7 +7960,7 @@
         <v>38.79999999999998</v>
       </c>
       <c r="K150" t="n">
-        <v>-34.69387755102042</v>
+        <v>-43.75000000000001</v>
       </c>
       <c r="L150" t="n">
         <v>42.81</v>
@@ -7989,7 +8011,7 @@
         <v>39.69999999999998</v>
       </c>
       <c r="K151" t="n">
-        <v>-44.82758620689654</v>
+        <v>-56.09756097560976</v>
       </c>
       <c r="L151" t="n">
         <v>42.58</v>
@@ -8040,7 +8062,7 @@
         <v>39.89999999999998</v>
       </c>
       <c r="K152" t="n">
-        <v>-42.37288135593217</v>
+        <v>-48.83720930232548</v>
       </c>
       <c r="L152" t="n">
         <v>42.36999999999999</v>
@@ -8091,7 +8113,7 @@
         <v>40.79999999999998</v>
       </c>
       <c r="K153" t="n">
-        <v>-22.38805970149253</v>
+        <v>-25.49019607843134</v>
       </c>
       <c r="L153" t="n">
         <v>42.24999999999999</v>
@@ -8142,7 +8164,7 @@
         <v>41.19999999999998</v>
       </c>
       <c r="K154" t="n">
-        <v>-9.090909090909111</v>
+        <v>-13.20754716981138</v>
       </c>
       <c r="L154" t="n">
         <v>42.16</v>
@@ -8193,7 +8215,7 @@
         <v>41.19999999999998</v>
       </c>
       <c r="K155" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L155" t="n">
         <v>42.09</v>
@@ -8244,7 +8266,7 @@
         <v>42.29999999999998</v>
       </c>
       <c r="K156" t="n">
-        <v>-21.05263157894738</v>
+        <v>-17.85714285714288</v>
       </c>
       <c r="L156" t="n">
         <v>41.98</v>
@@ -8295,7 +8317,7 @@
         <v>42.29999999999998</v>
       </c>
       <c r="K157" t="n">
-        <v>-29.57746478873241</v>
+        <v>-11.53846153846158</v>
       </c>
       <c r="L157" t="n">
         <v>41.88</v>
@@ -8346,7 +8368,7 @@
         <v>42.39999999999998</v>
       </c>
       <c r="K158" t="n">
-        <v>-32.39436619718315</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L158" t="n">
         <v>41.81</v>
@@ -8397,7 +8419,7 @@
         <v>42.99999999999999</v>
       </c>
       <c r="K159" t="n">
-        <v>-18.91891891891891</v>
+        <v>0</v>
       </c>
       <c r="L159" t="n">
         <v>41.71999999999999</v>
@@ -8448,7 +8470,7 @@
         <v>42.99999999999999</v>
       </c>
       <c r="K160" t="n">
-        <v>-18.91891891891891</v>
+        <v>27.27272727272719</v>
       </c>
       <c r="L160" t="n">
         <v>41.71999999999999</v>
@@ -8499,7 +8521,7 @@
         <v>43.39999999999998</v>
       </c>
       <c r="K161" t="n">
-        <v>-12.82051282051282</v>
+        <v>31.42857142857127</v>
       </c>
       <c r="L161" t="n">
         <v>41.84999999999999</v>
@@ -8550,7 +8572,7 @@
         <v>43.39999999999998</v>
       </c>
       <c r="K162" t="n">
-        <v>-12.82051282051282</v>
+        <v>7.692307692307525</v>
       </c>
       <c r="L162" t="n">
         <v>41.95999999999999</v>
@@ -8601,7 +8623,7 @@
         <v>43.39999999999998</v>
       </c>
       <c r="K163" t="n">
-        <v>-12.82051282051282</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L163" t="n">
         <v>41.98</v>
@@ -8652,7 +8674,7 @@
         <v>43.99999999999999</v>
       </c>
       <c r="K164" t="n">
-        <v>-6.024096385542171</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L164" t="n">
         <v>42.02</v>
@@ -8703,7 +8725,7 @@
         <v>44.09999999999999</v>
       </c>
       <c r="K165" t="n">
-        <v>-4.878048780487872</v>
+        <v>77.77777777777752</v>
       </c>
       <c r="L165" t="n">
         <v>42.05</v>
@@ -8754,7 +8776,7 @@
         <v>44.29999999999999</v>
       </c>
       <c r="K166" t="n">
-        <v>6.493506493506492</v>
+        <v>79.99999999999979</v>
       </c>
       <c r="L166" t="n">
         <v>42.20999999999999</v>
@@ -8805,7 +8827,7 @@
         <v>45.29999999999999</v>
       </c>
       <c r="K167" t="n">
-        <v>18.60465116279071</v>
+        <v>93.10344827586199</v>
       </c>
       <c r="L167" t="n">
         <v>42.47</v>
@@ -8856,7 +8878,7 @@
         <v>47.09999999999999</v>
       </c>
       <c r="K168" t="n">
-        <v>37.99999999999997</v>
+        <v>95.12195121951213</v>
       </c>
       <c r="L168" t="n">
         <v>42.92</v>
@@ -8907,7 +8929,7 @@
         <v>47.29999999999998</v>
       </c>
       <c r="K169" t="n">
-        <v>29.78723404255324</v>
+        <v>86.04651162790709</v>
       </c>
       <c r="L169" t="n">
         <v>43.29000000000001</v>
@@ -8958,7 +8980,7 @@
         <v>47.79999999999998</v>
       </c>
       <c r="K170" t="n">
-        <v>35.55555555555559</v>
+        <v>63.63636363636375</v>
       </c>
       <c r="L170" t="n">
         <v>43.61000000000001</v>
@@ -9009,7 +9031,7 @@
         <v>47.89999999999998</v>
       </c>
       <c r="K171" t="n">
-        <v>51.21951219512196</v>
+        <v>64.44444444444457</v>
       </c>
       <c r="L171" t="n">
         <v>43.90000000000001</v>
@@ -9060,7 +9082,7 @@
         <v>48.69999999999999</v>
       </c>
       <c r="K172" t="n">
-        <v>36.3636363636363</v>
+        <v>39.62264150943396</v>
       </c>
       <c r="L172" t="n">
         <v>44.11</v>
@@ -9111,7 +9133,7 @@
         <v>48.69999999999999</v>
       </c>
       <c r="K173" t="n">
-        <v>29.11392405063286</v>
+        <v>31.91489361702126</v>
       </c>
       <c r="L173" t="n">
         <v>44.32</v>
@@ -9162,7 +9184,7 @@
         <v>49.59999999999999</v>
       </c>
       <c r="K174" t="n">
-        <v>33.33333333333328</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L174" t="n">
         <v>44.56</v>
@@ -9213,7 +9235,7 @@
         <v>49.89999999999999</v>
       </c>
       <c r="K175" t="n">
-        <v>35.63218390804595</v>
+        <v>46.42857142857144</v>
       </c>
       <c r="L175" t="n">
         <v>44.84</v>
@@ -9264,7 +9286,7 @@
         <v>50.19999999999999</v>
       </c>
       <c r="K176" t="n">
-        <v>56.96202531645566</v>
+        <v>38.77551020408161</v>
       </c>
       <c r="L176" t="n">
         <v>45.13</v>
@@ -9315,7 +9337,7 @@
         <v>50.29999999999999</v>
       </c>
       <c r="K177" t="n">
-        <v>54.99999999999994</v>
+        <v>0</v>
       </c>
       <c r="L177" t="n">
         <v>45.31</v>
@@ -9366,7 +9388,7 @@
         <v>50.29999999999999</v>
       </c>
       <c r="K178" t="n">
-        <v>56.96202531645566</v>
+        <v>6.666666666666508</v>
       </c>
       <c r="L178" t="n">
         <v>45.31</v>
@@ -9417,7 +9439,7 @@
         <v>50.89999999999999</v>
       </c>
       <c r="K179" t="n">
-        <v>56.96202531645566</v>
+        <v>41.93548387096753</v>
       </c>
       <c r="L179" t="n">
         <v>45.39</v>
@@ -9468,7 +9490,7 @@
         <v>53.29999999999999</v>
       </c>
       <c r="K180" t="n">
-        <v>66.99029126213588</v>
+        <v>66.6666666666665</v>
       </c>
       <c r="L180" t="n">
         <v>45.76</v>
@@ -9519,7 +9541,7 @@
         <v>53.49999999999999</v>
       </c>
       <c r="K181" t="n">
-        <v>66.33663366336631</v>
+        <v>95.83333333333329</v>
       </c>
       <c r="L181" t="n">
         <v>46.14</v>
@@ -9570,7 +9592,7 @@
         <v>55.09999999999999</v>
       </c>
       <c r="K182" t="n">
-        <v>70.94017094017092</v>
+        <v>96.87499999999996</v>
       </c>
       <c r="L182" t="n">
         <v>46.76000000000001</v>
@@ -9621,7 +9643,7 @@
         <v>55.89999999999999</v>
       </c>
       <c r="K183" t="n">
-        <v>72.79999999999997</v>
+        <v>96.82539682539678</v>
       </c>
       <c r="L183" t="n">
         <v>47.46</v>
@@ -9672,7 +9694,7 @@
         <v>56.69999999999999</v>
       </c>
       <c r="K184" t="n">
-        <v>60.62992125984253</v>
+        <v>73.52941176470591</v>
       </c>
       <c r="L184" t="n">
         <v>47.99</v>
@@ -9723,7 +9745,7 @@
         <v>60.09999999999999</v>
       </c>
       <c r="K185" t="n">
-        <v>27.50000000000004</v>
+        <v>13.13131313131318</v>
       </c>
       <c r="L185" t="n">
         <v>48.15</v>
@@ -9774,7 +9796,7 @@
         <v>61.29999999999998</v>
       </c>
       <c r="K186" t="n">
-        <v>31.76470588235295</v>
+        <v>23.63636363636367</v>
       </c>
       <c r="L186" t="n">
         <v>48.4</v>
@@ -9825,7 +9847,7 @@
         <v>61.29999999999998</v>
       </c>
       <c r="K187" t="n">
-        <v>27.5</v>
+        <v>23.63636363636367</v>
       </c>
       <c r="L187" t="n">
         <v>48.66</v>
@@ -9876,7 +9898,7 @@
         <v>62.09999999999999</v>
       </c>
       <c r="K188" t="n">
-        <v>22.6666666666667</v>
+        <v>25.00000000000005</v>
       </c>
       <c r="L188" t="n">
         <v>48.99999999999999</v>
@@ -9927,7 +9949,7 @@
         <v>63.79999999999998</v>
       </c>
       <c r="K189" t="n">
-        <v>32.1212121212121</v>
+        <v>20.00000000000002</v>
       </c>
       <c r="L189" t="n">
         <v>49.45</v>
@@ -9978,7 +10000,7 @@
         <v>64.69999999999999</v>
       </c>
       <c r="K190" t="n">
-        <v>28.99408284023667</v>
+        <v>8.928571428571432</v>
       </c>
       <c r="L190" t="n">
         <v>49.57</v>
@@ -10029,7 +10051,7 @@
         <v>65.09999999999999</v>
       </c>
       <c r="K191" t="n">
-        <v>25.58139534883719</v>
+        <v>-10</v>
       </c>
       <c r="L191" t="n">
         <v>49.63</v>
@@ -10080,7 +10102,7 @@
         <v>65.40000000000001</v>
       </c>
       <c r="K192" t="n">
-        <v>29.34131736526942</v>
+        <v>-22.10526315789472</v>
       </c>
       <c r="L192" t="n">
         <v>49.49999999999999</v>
@@ -10131,7 +10153,7 @@
         <v>66.70000000000002</v>
       </c>
       <c r="K193" t="n">
-        <v>34.44444444444441</v>
+        <v>0</v>
       </c>
       <c r="L193" t="n">
         <v>49.41999999999999</v>
@@ -10182,7 +10204,7 @@
         <v>68.20000000000002</v>
       </c>
       <c r="K194" t="n">
-        <v>36.5591397849462</v>
+        <v>60.49382716049359</v>
       </c>
       <c r="L194" t="n">
         <v>49.56999999999999</v>
@@ -10233,7 +10255,7 @@
         <v>69.50000000000003</v>
       </c>
       <c r="K195" t="n">
-        <v>26.53061224489789</v>
+        <v>29.26829268292665</v>
       </c>
       <c r="L195" t="n">
         <v>49.92999999999999</v>
@@ -10284,7 +10306,7 @@
         <v>69.80000000000004</v>
       </c>
       <c r="K196" t="n">
-        <v>26.53061224489791</v>
+        <v>31.76470588235276</v>
       </c>
       <c r="L196" t="n">
         <v>50.19999999999999</v>
@@ -10335,7 +10357,7 @@
         <v>69.90000000000003</v>
       </c>
       <c r="K197" t="n">
-        <v>27.55102040816324</v>
+        <v>25.64102564102549</v>
       </c>
       <c r="L197" t="n">
         <v>50.48</v>
@@ -10386,7 +10408,7 @@
         <v>70.50000000000003</v>
       </c>
       <c r="K198" t="n">
-        <v>29.70297029702965</v>
+        <v>13.43283582089541</v>
       </c>
       <c r="L198" t="n">
         <v>50.73999999999999</v>
@@ -10437,7 +10459,7 @@
         <v>70.60000000000002</v>
       </c>
       <c r="K199" t="n">
-        <v>26.90355329949237</v>
+        <v>28.81355932203378</v>
       </c>
       <c r="L199" t="n">
         <v>50.81999999999999</v>
@@ -10488,7 +10510,7 @@
         <v>70.70000000000002</v>
       </c>
       <c r="K200" t="n">
-        <v>16.09195402298851</v>
+        <v>35.71428571428557</v>
       </c>
       <c r="L200" t="n">
         <v>50.98</v>
@@ -10539,7 +10561,7 @@
         <v>71.50000000000003</v>
       </c>
       <c r="K201" t="n">
-        <v>9.999999999999964</v>
+        <v>24.59016393442614</v>
       </c>
       <c r="L201" t="n">
         <v>51.09999999999999</v>
@@ -10590,7 +10612,7 @@
         <v>71.60000000000002</v>
       </c>
       <c r="K202" t="n">
-        <v>1.818181818181798</v>
+        <v>6.122448979591772</v>
       </c>
       <c r="L202" t="n">
         <v>51.25999999999999</v>
@@ -10641,7 +10663,7 @@
         <v>71.70000000000002</v>
       </c>
       <c r="K203" t="n">
-        <v>-3.797468354430383</v>
+        <v>-37.14285714285727</v>
       </c>
       <c r="L203" t="n">
         <v>51.27999999999999</v>
@@ -10692,7 +10714,7 @@
         <v>73.40000000000002</v>
       </c>
       <c r="K204" t="n">
-        <v>11.37724550898201</v>
+        <v>43.58974358974375</v>
       </c>
       <c r="L204" t="n">
         <v>51.31999999999998</v>
@@ -10743,7 +10765,7 @@
         <v>73.90000000000002</v>
       </c>
       <c r="K205" t="n">
-        <v>42.02898550724626</v>
+        <v>46.34146341463434</v>
       </c>
       <c r="L205" t="n">
         <v>51.53999999999998</v>
@@ -10794,7 +10816,7 @@
         <v>74.90000000000002</v>
       </c>
       <c r="K206" t="n">
-        <v>41.17647058823519</v>
+        <v>56.00000000000011</v>
       </c>
       <c r="L206" t="n">
         <v>51.82999999999998</v>
@@ -10845,7 +10867,7 @@
         <v>75.80000000000001</v>
       </c>
       <c r="K207" t="n">
-        <v>32.41379310344823</v>
+        <v>24.52830188679261</v>
       </c>
       <c r="L207" t="n">
         <v>52.01999999999998</v>
@@ -10896,7 +10918,7 @@
         <v>76.70000000000002</v>
       </c>
       <c r="K208" t="n">
-        <v>32.87671232876704</v>
+        <v>37.70491803278687</v>
       </c>
       <c r="L208" t="n">
         <v>52.23999999999999</v>
@@ -10947,7 +10969,7 @@
         <v>76.70000000000002</v>
       </c>
       <c r="K209" t="n">
-        <v>24.03100775193793</v>
+        <v>39.99999999999997</v>
       </c>
       <c r="L209" t="n">
         <v>52.46999999999998</v>
@@ -10998,7 +11020,7 @@
         <v>76.70000000000002</v>
       </c>
       <c r="K210" t="n">
-        <v>33.33333333333325</v>
+        <v>61.53846153846173</v>
       </c>
       <c r="L210" t="n">
         <v>52.70999999999998</v>
@@ -11049,7 +11071,7 @@
         <v>78.40000000000002</v>
       </c>
       <c r="K211" t="n">
-        <v>20.30075187969918</v>
+        <v>20.58823529411763</v>
       </c>
       <c r="L211" t="n">
         <v>52.85999999999998</v>
@@ -11100,7 +11122,7 @@
         <v>79.60000000000002</v>
       </c>
       <c r="K212" t="n">
-        <v>12.67605633802818</v>
+        <v>3.797468354430431</v>
       </c>
       <c r="L212" t="n">
         <v>52.87999999999998</v>
@@ -11151,7 +11173,7 @@
         <v>79.80000000000001</v>
       </c>
       <c r="K213" t="n">
-        <v>5.34351145038165</v>
+        <v>-18.75000000000007</v>
       </c>
       <c r="L213" t="n">
         <v>52.92999999999999</v>
@@ -11202,7 +11224,7 @@
         <v>81.10000000000001</v>
       </c>
       <c r="K214" t="n">
-        <v>-16.27906976744188</v>
+        <v>-41.66666666666674</v>
       </c>
       <c r="L214" t="n">
         <v>52.67999999999999</v>
@@ -11253,7 +11275,7 @@
         <v>81.5</v>
       </c>
       <c r="K215" t="n">
-        <v>-3.333333333333329</v>
+        <v>-54.54545454545473</v>
       </c>
       <c r="L215" t="n">
         <v>52.41999999999998</v>
@@ -11304,7 +11326,7 @@
         <v>82.3</v>
       </c>
       <c r="K216" t="n">
-        <v>-12.00000000000004</v>
+        <v>-53.84615384615397</v>
       </c>
       <c r="L216" t="n">
         <v>51.97999999999998</v>
@@ -11355,7 +11377,7 @@
         <v>83.19999999999999</v>
       </c>
       <c r="K217" t="n">
-        <v>-18.79699248120307</v>
+        <v>-81.53846153846185</v>
       </c>
       <c r="L217" t="n">
         <v>51.53999999999998</v>
@@ -11406,7 +11428,7 @@
         <v>83.49999999999999</v>
       </c>
       <c r="K218" t="n">
-        <v>-21.53846153846159</v>
+        <v>-73.52941176470623</v>
       </c>
       <c r="L218" t="n">
         <v>51.03999999999998</v>
@@ -11457,7 +11479,7 @@
         <v>83.49999999999999</v>
       </c>
       <c r="K219" t="n">
-        <v>-20.93023255813961</v>
+        <v>-73.52941176470623</v>
       </c>
       <c r="L219" t="n">
         <v>50.53999999999998</v>
@@ -11508,7 +11530,7 @@
         <v>85.79999999999998</v>
       </c>
       <c r="K220" t="n">
-        <v>-1.98675496688745</v>
+        <v>-13.51351351351358</v>
       </c>
       <c r="L220" t="n">
         <v>50.26999999999998</v>
@@ -11559,7 +11581,7 @@
         <v>86.89999999999998</v>
       </c>
       <c r="K221" t="n">
-        <v>-3.896103896103873</v>
+        <v>-12.32876712328773</v>
       </c>
       <c r="L221" t="n">
         <v>50.05999999999999</v>
@@ -11610,7 +11632,7 @@
         <v>87.19999999999999</v>
       </c>
       <c r="K222" t="n">
-        <v>-6.410256410256425</v>
+        <v>-18.91891891891896</v>
       </c>
       <c r="L222" t="n">
         <v>49.93999999999998</v>
@@ -11661,7 +11683,7 @@
         <v>87.89999999999999</v>
       </c>
       <c r="K223" t="n">
-        <v>-1.234567901234544</v>
+        <v>8.823529411764749</v>
       </c>
       <c r="L223" t="n">
         <v>49.86999999999999</v>
@@ -11712,7 +11734,7 @@
         <v>88</v>
       </c>
       <c r="K224" t="n">
-        <v>-12.32876712328767</v>
+        <v>4.615384615384681</v>
       </c>
       <c r="L224" t="n">
         <v>49.93999999999998</v>
@@ -11763,7 +11785,7 @@
         <v>88.2</v>
       </c>
       <c r="K225" t="n">
-        <v>-17.4825174825175</v>
+        <v>15.25423728813556</v>
       </c>
       <c r="L225" t="n">
         <v>49.94999999999999</v>
@@ -11814,7 +11836,7 @@
         <v>88.30000000000001</v>
       </c>
       <c r="K226" t="n">
-        <v>-25.37313432835822</v>
+        <v>37.25490196078412</v>
       </c>
       <c r="L226" t="n">
         <v>50.04999999999999</v>
@@ -11865,7 +11887,7 @@
         <v>89.10000000000001</v>
       </c>
       <c r="K227" t="n">
-        <v>-12.78195488721807</v>
+        <v>42.85714285714266</v>
       </c>
       <c r="L227" t="n">
         <v>50.31999999999999</v>
@@ -11916,7 +11938,7 @@
         <v>89.40000000000001</v>
       </c>
       <c r="K228" t="n">
-        <v>-18.11023622047243</v>
+        <v>45.76271186440668</v>
       </c>
       <c r="L228" t="n">
         <v>50.58999999999999</v>
@@ -11967,7 +11989,7 @@
         <v>89.40000000000001</v>
       </c>
       <c r="K229" t="n">
-        <v>-18.11023622047243</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L229" t="n">
         <v>50.85999999999999</v>
@@ -12018,7 +12040,7 @@
         <v>89.5</v>
       </c>
       <c r="K230" t="n">
-        <v>-17.18750000000004</v>
+        <v>61.53846153846079</v>
       </c>
       <c r="L230" t="n">
         <v>50.90999999999998</v>
@@ -12069,7 +12091,7 @@
         <v>89.5</v>
       </c>
       <c r="K231" t="n">
-        <v>-4.504504504504513</v>
+        <v>82.60869565217345</v>
       </c>
       <c r="L231" t="n">
         <v>51.06999999999999</v>
@@ -12120,7 +12142,7 @@
         <v>89.59999999999999</v>
       </c>
       <c r="K232" t="n">
-        <v>7.999999999999995</v>
+        <v>76.47058823529382</v>
       </c>
       <c r="L232" t="n">
         <v>51.27</v>
@@ -12171,7 +12193,7 @@
         <v>89.59999999999999</v>
       </c>
       <c r="K233" t="n">
-        <v>6.122448979591861</v>
+        <v>75</v>
       </c>
       <c r="L233" t="n">
         <v>51.39999999999999</v>
@@ -12222,7 +12244,7 @@
         <v>91.09999999999999</v>
       </c>
       <c r="K234" t="n">
-        <v>3.999999999999992</v>
+        <v>-3.448275862069024</v>
       </c>
       <c r="L234" t="n">
         <v>51.36999999999998</v>
@@ -12273,7 +12295,7 @@
         <v>91.19999999999999</v>
       </c>
       <c r="K235" t="n">
-        <v>1.030927835051562</v>
+        <v>-3.448275862069042</v>
       </c>
       <c r="L235" t="n">
         <v>51.36999999999998</v>
@@ -12324,7 +12346,7 @@
         <v>91.29999999999998</v>
       </c>
       <c r="K236" t="n">
-        <v>8.888888888888872</v>
+        <v>-45.45454545454598</v>
       </c>
       <c r="L236" t="n">
         <v>51.34999999999998</v>
@@ -12375,7 +12397,7 @@
         <v>91.29999999999998</v>
       </c>
       <c r="K237" t="n">
-        <v>20.98765432098762</v>
+        <v>-68.42105263158</v>
       </c>
       <c r="L237" t="n">
         <v>51.24999999999998</v>
@@ -12426,7 +12448,7 @@
         <v>91.79999999999998</v>
       </c>
       <c r="K238" t="n">
-        <v>10.84337349397589</v>
+        <v>-75.00000000000088</v>
       </c>
       <c r="L238" t="n">
         <v>51.06999999999998</v>
@@ -12477,7 +12499,7 @@
         <v>91.89999999999998</v>
       </c>
       <c r="K239" t="n">
-        <v>11.90476190476192</v>
+        <v>-75.00000000000058</v>
       </c>
       <c r="L239" t="n">
         <v>50.89999999999998</v>
@@ -12528,7 +12550,7 @@
         <v>92.19999999999997</v>
       </c>
       <c r="K240" t="n">
-        <v>-15.62500000000002</v>
+        <v>-55.55555555555608</v>
       </c>
       <c r="L240" t="n">
         <v>50.74999999999999</v>
@@ -12579,7 +12601,7 @@
         <v>92.69999999999997</v>
       </c>
       <c r="K241" t="n">
-        <v>-6.896551724138032</v>
+        <v>-67.74193548387146</v>
       </c>
       <c r="L241" t="n">
         <v>50.54999999999998</v>
@@ -12630,7 +12652,7 @@
         <v>92.79999999999997</v>
       </c>
       <c r="K242" t="n">
-        <v>-3.571428571428508</v>
+        <v>-68.75000000000043</v>
       </c>
       <c r="L242" t="n">
         <v>50.32999999999998</v>
@@ -12681,7 +12703,7 @@
         <v>92.99999999999997</v>
       </c>
       <c r="K243" t="n">
-        <v>-13.72549019607854</v>
+        <v>-26.31578947368453</v>
       </c>
       <c r="L243" t="n">
         <v>50.12999999999998</v>
@@ -12732,7 +12754,7 @@
         <v>92.99999999999997</v>
       </c>
       <c r="K244" t="n">
-        <v>-16.00000000000017</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L244" t="n">
         <v>50.07999999999998</v>
@@ -12783,7 +12805,7 @@
         <v>92.99999999999997</v>
       </c>
       <c r="K245" t="n">
-        <v>-12.50000000000011</v>
+        <v>-29.41176470588255</v>
       </c>
       <c r="L245" t="n">
         <v>50.01999999999998</v>
@@ -12834,7 +12856,7 @@
         <v>93.29999999999997</v>
       </c>
       <c r="K246" t="n">
-        <v>-20.00000000000017</v>
+        <v>-40.00000000000014</v>
       </c>
       <c r="L246" t="n">
         <v>49.93999999999998</v>
@@ -12885,7 +12907,7 @@
         <v>93.89999999999998</v>
       </c>
       <c r="K247" t="n">
-        <v>-50.0000000000003</v>
+        <v>-42.8571428571429</v>
       </c>
       <c r="L247" t="n">
         <v>49.79999999999999</v>
@@ -12936,7 +12958,7 @@
         <v>94.09999999999998</v>
       </c>
       <c r="K248" t="n">
-        <v>-61.70212765957493</v>
+        <v>-54.54545454545461</v>
       </c>
       <c r="L248" t="n">
         <v>49.68999999999998</v>
@@ -12987,7 +13009,7 @@
         <v>94.39999999999998</v>
       </c>
       <c r="K249" t="n">
-        <v>-64.00000000000043</v>
+        <v>-81.81818181818159</v>
       </c>
       <c r="L249" t="n">
         <v>49.53999999999998</v>
@@ -13038,7 +13060,7 @@
         <v>94.79999999999998</v>
       </c>
       <c r="K250" t="n">
-        <v>-54.71698113207562</v>
+        <v>-42.85714285714262</v>
       </c>
       <c r="L250" t="n">
         <v>49.39999999999998</v>
@@ -13089,7 +13111,7 @@
         <v>95.19999999999999</v>
       </c>
       <c r="K251" t="n">
-        <v>-43.85964912280711</v>
+        <v>-16.66666666666677</v>
       </c>
       <c r="L251" t="n">
         <v>49.34999999999998</v>
@@ -13140,7 +13162,7 @@
         <v>95.89999999999998</v>
       </c>
       <c r="K252" t="n">
-        <v>-52.38095238095247</v>
+        <v>-44.82758620689636</v>
       </c>
       <c r="L252" t="n">
         <v>49.23999999999998</v>
@@ -13191,7 +13213,7 @@
         <v>96.29999999999998</v>
       </c>
       <c r="K253" t="n">
-        <v>-55.22388059701495</v>
+        <v>-51.5151515151512</v>
       </c>
       <c r="L253" t="n">
         <v>49.06999999999998</v>
@@ -13242,7 +13264,7 @@
         <v>96.39999999999998</v>
       </c>
       <c r="K254" t="n">
-        <v>-43.39622641509443</v>
+        <v>-52.94117647058806</v>
       </c>
       <c r="L254" t="n">
         <v>48.88999999999999</v>
@@ -13293,7 +13315,7 @@
         <v>96.59999999999998</v>
       </c>
       <c r="K255" t="n">
-        <v>-48.14814814814825</v>
+        <v>-51.51515151515142</v>
       </c>
       <c r="L255" t="n">
         <v>48.68999999999998</v>
@@ -13344,7 +13366,7 @@
         <v>97.19999999999999</v>
       </c>
       <c r="K256" t="n">
-        <v>-32.20338983050842</v>
+        <v>-15.1515151515151</v>
       </c>
       <c r="L256" t="n">
         <v>48.57999999999998</v>
@@ -13395,7 +13417,7 @@
         <v>97.69999999999999</v>
       </c>
       <c r="K257" t="n">
-        <v>-37.49999999999994</v>
+        <v>-22.22222222222209</v>
       </c>
       <c r="L257" t="n">
         <v>48.47999999999998</v>
@@ -13446,7 +13468,7 @@
         <v>98.09999999999999</v>
       </c>
       <c r="K258" t="n">
-        <v>-23.80952380952377</v>
+        <v>-2.702702702702728</v>
       </c>
       <c r="L258" t="n">
         <v>48.43999999999998</v>
@@ -13497,7 +13519,7 @@
         <v>98.69999999999999</v>
       </c>
       <c r="K259" t="n">
-        <v>-32.35294117647057</v>
+        <v>-28.2051282051282</v>
       </c>
       <c r="L259" t="n">
         <v>48.36999999999998</v>
@@ -13548,7 +13570,7 @@
         <v>99.29999999999998</v>
       </c>
       <c r="K260" t="n">
-        <v>-26.76056338028164</v>
+        <v>-21.95121951219512</v>
       </c>
       <c r="L260" t="n">
         <v>48.31999999999998</v>
@@ -13599,7 +13621,7 @@
         <v>99.29999999999998</v>
       </c>
       <c r="K261" t="n">
-        <v>-21.21212121212116</v>
+        <v>-5.882352941176544</v>
       </c>
       <c r="L261" t="n">
         <v>48.22999999999998</v>
@@ -13650,7 +13672,7 @@
         <v>99.39999999999998</v>
       </c>
       <c r="K262" t="n">
-        <v>-21.21212121212127</v>
+        <v>3.225806451612725</v>
       </c>
       <c r="L262" t="n">
         <v>48.19999999999997</v>
@@ -13701,7 +13723,7 @@
         <v>99.49999999999997</v>
       </c>
       <c r="K263" t="n">
-        <v>-23.07692307692308</v>
+        <v>9.677419354838635</v>
       </c>
       <c r="L263" t="n">
         <v>48.21999999999998</v>
@@ -13752,7 +13774,7 @@
         <v>99.79999999999998</v>
       </c>
       <c r="K264" t="n">
-        <v>-17.64705882352932</v>
+        <v>25.00000000000011</v>
       </c>
       <c r="L264" t="n">
         <v>48.27999999999997</v>
@@ -13803,7 +13825,7 @@
         <v>99.99999999999999</v>
       </c>
       <c r="K265" t="n">
-        <v>-19.99999999999994</v>
+        <v>0</v>
       </c>
       <c r="L265" t="n">
         <v>48.33999999999997</v>
@@ -13854,7 +13876,7 @@
         <v>100.1</v>
       </c>
       <c r="K266" t="n">
-        <v>-17.64705882352939</v>
+        <v>16.66666666666657</v>
       </c>
       <c r="L266" t="n">
         <v>48.32999999999997</v>
@@ -13905,7 +13927,7 @@
         <v>101.1</v>
       </c>
       <c r="K267" t="n">
-        <v>5.555555555555522</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L267" t="n">
         <v>48.46999999999997</v>
@@ -13956,7 +13978,7 @@
         <v>101.2</v>
       </c>
       <c r="K268" t="n">
-        <v>9.859154929577493</v>
+        <v>68.00000000000011</v>
       </c>
       <c r="L268" t="n">
         <v>48.57999999999997</v>
@@ -14007,7 +14029,7 @@
         <v>102</v>
       </c>
       <c r="K269" t="n">
-        <v>23.68421052631572</v>
+        <v>70.37037037037024</v>
       </c>
       <c r="L269" t="n">
         <v>48.82999999999997</v>
@@ -14058,7 +14080,7 @@
         <v>102.3</v>
       </c>
       <c r="K270" t="n">
-        <v>14.66666666666669</v>
+        <v>53.33333333333338</v>
       </c>
       <c r="L270" t="n">
         <v>48.98999999999997</v>
@@ -14109,7 +14131,7 @@
         <v>102.5</v>
       </c>
       <c r="K271" t="n">
-        <v>12.32876712328775</v>
+        <v>61.29032258064517</v>
       </c>
       <c r="L271" t="n">
         <v>49.16999999999998</v>
@@ -14160,7 +14182,7 @@
         <v>102.6</v>
       </c>
       <c r="K272" t="n">
-        <v>25.37313432835813</v>
+        <v>61.29032258064495</v>
       </c>
       <c r="L272" t="n">
         <v>49.36999999999998</v>
@@ -14211,7 +14233,7 @@
         <v>103.1</v>
       </c>
       <c r="K273" t="n">
-        <v>23.52941176470581</v>
+        <v>33.33333333333319</v>
       </c>
       <c r="L273" t="n">
         <v>49.50999999999998</v>
@@ -14262,7 +14284,7 @@
         <v>103.2</v>
       </c>
       <c r="K274" t="n">
-        <v>23.52941176470591</v>
+        <v>37.50000000000022</v>
       </c>
       <c r="L274" t="n">
         <v>49.60999999999999</v>
@@ -14313,7 +14335,7 @@
         <v>103.7</v>
       </c>
       <c r="K275" t="n">
-        <v>18.30985915492965</v>
+        <v>22.22222222222246</v>
       </c>
       <c r="L275" t="n">
         <v>49.67999999999999</v>
@@ -14364,7 +14386,7 @@
         <v>103.7</v>
       </c>
       <c r="K276" t="n">
-        <v>10.76923076923084</v>
+        <v>-7.692307692307587</v>
       </c>
       <c r="L276" t="n">
         <v>49.75999999999999</v>
@@ -14415,7 +14437,7 @@
         <v>104.4</v>
       </c>
       <c r="K277" t="n">
-        <v>7.462686567164193</v>
+        <v>-31.25000000000011</v>
       </c>
       <c r="L277" t="n">
         <v>49.66999999999999</v>
@@ -14466,7 +14488,7 @@
         <v>104.7</v>
       </c>
       <c r="K278" t="n">
-        <v>6.060606060606057</v>
+        <v>-55.55555555555579</v>
       </c>
       <c r="L278" t="n">
         <v>49.59999999999999</v>
@@ -14517,7 +14539,7 @@
         <v>105.5</v>
       </c>
       <c r="K279" t="n">
-        <v>2.941176470588284</v>
+        <v>-62.50000000000022</v>
       </c>
       <c r="L279" t="n">
         <v>49.36999999999999</v>
@@ -14568,7 +14590,7 @@
         <v>105.5</v>
       </c>
       <c r="K280" t="n">
-        <v>-6.451612903225795</v>
+        <v>-73.33333333333377</v>
       </c>
       <c r="L280" t="n">
         <v>49.16999999999998</v>
@@ -14619,7 +14641,7 @@
         <v>105.6</v>
       </c>
       <c r="K281" t="n">
-        <v>-7.936507936507958</v>
+        <v>-80.00000000000033</v>
       </c>
       <c r="L281" t="n">
         <v>48.93999999999998</v>
@@ -14670,7 +14692,7 @@
         <v>105.7</v>
       </c>
       <c r="K282" t="n">
-        <v>-4.76190476190473</v>
+        <v>-69.23076923076965</v>
       </c>
       <c r="L282" t="n">
         <v>48.70999999999999</v>
@@ -14721,7 +14743,7 @@
         <v>105.9</v>
       </c>
       <c r="K283" t="n">
-        <v>-9.375000000000036</v>
+        <v>-70.37037037037088</v>
       </c>
       <c r="L283" t="n">
         <v>48.50999999999998</v>
@@ -14772,7 +14794,7 @@
         <v>106.1</v>
       </c>
       <c r="K284" t="n">
-        <v>-17.46031746031753</v>
+        <v>-66.66666666666697</v>
       </c>
       <c r="L284" t="n">
         <v>48.29999999999998</v>
@@ -14823,7 +14845,7 @@
         <v>106.2</v>
       </c>
       <c r="K285" t="n">
-        <v>-16.12903225806458</v>
+        <v>-68.00000000000051</v>
       </c>
       <c r="L285" t="n">
         <v>48.12999999999998</v>
@@ -14874,7 +14896,7 @@
         <v>106.2</v>
       </c>
       <c r="K286" t="n">
-        <v>-14.7540983606558</v>
+        <v>-55.55555555555608</v>
       </c>
       <c r="L286" t="n">
         <v>47.95999999999997</v>
@@ -14925,7 +14947,7 @@
         <v>106.3</v>
       </c>
       <c r="K287" t="n">
-        <v>-34.61538461538483</v>
+        <v>-75.00000000000067</v>
       </c>
       <c r="L287" t="n">
         <v>47.86999999999997</v>
@@ -14976,7 +14998,7 @@
         <v>106.3999999999999</v>
       </c>
       <c r="K288" t="n">
-        <v>-38.46153846153876</v>
+        <v>-55.55555555555696</v>
       </c>
       <c r="L288" t="n">
         <v>47.73999999999997</v>
@@ -15027,7 +15049,7 @@
         <v>106.4999999999999</v>
       </c>
       <c r="K289" t="n">
-        <v>-60.00000000000048</v>
+        <v>-40.00000000000099</v>
       </c>
       <c r="L289" t="n">
         <v>47.69999999999997</v>
@@ -15078,7 +15100,7 @@
         <v>106.8999999999999</v>
       </c>
       <c r="K290" t="n">
-        <v>-43.47826086956554</v>
+        <v>7.692307692307902</v>
       </c>
       <c r="L290" t="n">
         <v>47.69999999999997</v>
@@ -15129,7 +15151,7 @@
         <v>106.9999999999999</v>
       </c>
       <c r="K291" t="n">
-        <v>-51.1111111111117</v>
+        <v>-7.692307692307902</v>
       </c>
       <c r="L291" t="n">
         <v>47.69999999999997</v>
@@ -15180,7 +15202,7 @@
         <v>106.9999999999999</v>
       </c>
       <c r="K292" t="n">
-        <v>-54.54545454545497</v>
+        <v>9.090909090909385</v>
       </c>
       <c r="L292" t="n">
         <v>47.68999999999996</v>
@@ -15231,7 +15253,7 @@
         <v>106.9999999999999</v>
       </c>
       <c r="K293" t="n">
-        <v>-48.71794871794914</v>
+        <v>33.33333333333386</v>
       </c>
       <c r="L293" t="n">
         <v>47.69999999999996</v>
@@ -15282,7 +15304,7 @@
         <v>107.1999999999999</v>
       </c>
       <c r="K294" t="n">
-        <v>-50.00000000000053</v>
+        <v>20.00000000000085</v>
       </c>
       <c r="L294" t="n">
         <v>47.70999999999996</v>
@@ -15333,7 +15355,7 @@
         <v>107.7999999999999</v>
       </c>
       <c r="K295" t="n">
-        <v>-51.21951219512258</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L295" t="n">
         <v>47.66999999999996</v>
@@ -15384,7 +15406,7 @@
         <v>108.1999999999999</v>
       </c>
       <c r="K296" t="n">
-        <v>-37.7777777777782</v>
+        <v>-5.26315789473698</v>
       </c>
       <c r="L296" t="n">
         <v>47.66999999999996</v>
@@ -15435,7 +15457,7 @@
         <v>108.5999999999999</v>
       </c>
       <c r="K297" t="n">
-        <v>-33.33333333333361</v>
+        <v>-18.18181818181821</v>
       </c>
       <c r="L297" t="n">
         <v>47.61999999999996</v>
@@ -15486,7 +15508,7 @@
         <v>108.6999999999999</v>
       </c>
       <c r="K298" t="n">
-        <v>-40.00000000000028</v>
+        <v>-18.18181818181821</v>
       </c>
       <c r="L298" t="n">
         <v>47.58999999999996</v>
@@ -15537,7 +15559,7 @@
         <v>108.9999999999999</v>
       </c>
       <c r="K299" t="n">
-        <v>-31.42857142857172</v>
+        <v>-52.38095238095259</v>
       </c>
       <c r="L299" t="n">
         <v>47.51999999999996</v>
@@ -15588,7 +15610,7 @@
         <v>109.2999999999999</v>
       </c>
       <c r="K300" t="n">
-        <v>-36.84210526315816</v>
+        <v>-56.52173913043473</v>
       </c>
       <c r="L300" t="n">
         <v>47.37999999999996</v>
@@ -15639,7 +15661,7 @@
         <v>109.5999999999999</v>
       </c>
       <c r="K301" t="n">
-        <v>-25.00000000000018</v>
+        <v>-38.46153846153855</v>
       </c>
       <c r="L301" t="n">
         <v>47.27999999999996</v>
@@ -15690,7 +15712,7 @@
         <v>110.3999999999999</v>
       </c>
       <c r="K302" t="n">
-        <v>-6.382978723404211</v>
+        <v>-5.882352941176335</v>
       </c>
       <c r="L302" t="n">
         <v>47.25999999999997</v>
@@ -15741,7 +15763,7 @@
         <v>111.3</v>
       </c>
       <c r="K303" t="n">
-        <v>-18.51851851851855</v>
+        <v>-21.95121951219514</v>
       </c>
       <c r="L303" t="n">
         <v>47.14999999999996</v>
@@ -15792,7 +15814,7 @@
         <v>111.8</v>
       </c>
       <c r="K304" t="n">
-        <v>-5.263157894736927</v>
+        <v>4.999999999999858</v>
       </c>
       <c r="L304" t="n">
         <v>47.10999999999996</v>
@@ -15843,7 +15865,7 @@
         <v>111.8999999999999</v>
       </c>
       <c r="K305" t="n">
-        <v>-1.754385964912309</v>
+        <v>-2.702702702702728</v>
       </c>
       <c r="L305" t="n">
         <v>47.13999999999997</v>
@@ -15894,7 +15916,7 @@
         <v>111.9999999999999</v>
       </c>
       <c r="K306" t="n">
-        <v>0</v>
+        <v>11.76470588235288</v>
       </c>
       <c r="L306" t="n">
         <v>47.13999999999997</v>
@@ -15945,7 +15967,7 @@
         <v>111.9999999999999</v>
       </c>
       <c r="K307" t="n">
-        <v>-1.754385964912309</v>
+        <v>9.090909090908973</v>
       </c>
       <c r="L307" t="n">
         <v>47.17999999999996</v>
@@ -15996,7 +16018,7 @@
         <v>112.2999999999999</v>
       </c>
       <c r="K308" t="n">
-        <v>-5.084745762711824</v>
+        <v>9.090909090909228</v>
       </c>
       <c r="L308" t="n">
         <v>47.17999999999996</v>
@@ -16047,7 +16069,7 @@
         <v>112.4999999999999</v>
       </c>
       <c r="K309" t="n">
-        <v>-10.00000000000002</v>
+        <v>12.49999999999994</v>
       </c>
       <c r="L309" t="n">
         <v>47.18999999999998</v>
@@ -16098,7 +16120,7 @@
         <v>112.6999999999999</v>
       </c>
       <c r="K310" t="n">
-        <v>-13.79310344827582</v>
+        <v>9.67741935483882</v>
       </c>
       <c r="L310" t="n">
         <v>47.24999999999998</v>
@@ -16149,7 +16171,7 @@
         <v>113.1999999999999</v>
       </c>
       <c r="K311" t="n">
-        <v>-3.225806451612833</v>
+        <v>0</v>
       </c>
       <c r="L311" t="n">
         <v>47.32999999999998</v>
@@ -16200,7 +16222,7 @@
         <v>113.2999999999999</v>
       </c>
       <c r="K312" t="n">
-        <v>-1.587301587301611</v>
+        <v>50.00000000000036</v>
       </c>
       <c r="L312" t="n">
         <v>47.33999999999998</v>
@@ -16251,7 +16273,7 @@
         <v>113.4999999999999</v>
       </c>
       <c r="K313" t="n">
-        <v>-4.615384615384572</v>
+        <v>17.64705882352978</v>
       </c>
       <c r="L313" t="n">
         <v>47.41999999999997</v>
@@ -16302,7 +16324,7 @@
         <v>113.6999999999999</v>
       </c>
       <c r="K314" t="n">
-        <v>-4.615384615384671</v>
+        <v>0</v>
       </c>
       <c r="L314" t="n">
         <v>47.42999999999998</v>
@@ -16353,7 +16375,7 @@
         <v>114.0999999999999</v>
       </c>
       <c r="K315" t="n">
-        <v>-1.587301587301607</v>
+        <v>-23.80952380952387</v>
       </c>
       <c r="L315" t="n">
         <v>47.38999999999997</v>
@@ -16455,7 +16477,7 @@
         <v>114.5999999999999</v>
       </c>
       <c r="K317" t="n">
-        <v>6.666666666666643</v>
+        <v>13.04347826086946</v>
       </c>
       <c r="L317" t="n">
         <v>47.38999999999997</v>
@@ -16506,7 +16528,7 @@
         <v>114.5999999999999</v>
       </c>
       <c r="K318" t="n">
-        <v>5.084745762711811</v>
+        <v>23.80952380952387</v>
       </c>
       <c r="L318" t="n">
         <v>47.41999999999997</v>
@@ -16557,7 +16579,7 @@
         <v>114.8999999999999</v>
       </c>
       <c r="K319" t="n">
-        <v>5.084745762711944</v>
+        <v>0</v>
       </c>
       <c r="L319" t="n">
         <v>47.43999999999998</v>
@@ -16608,7 +16630,7 @@
         <v>115.1999999999999</v>
       </c>
       <c r="K320" t="n">
-        <v>15.25423728813559</v>
+        <v>-10.00000000000021</v>
       </c>
       <c r="L320" t="n">
         <v>47.46999999999998</v>
@@ -16659,7 +16681,7 @@
         <v>115.6999999999999</v>
       </c>
       <c r="K321" t="n">
-        <v>18.03278688524594</v>
+        <v>8.333333333333481</v>
       </c>
       <c r="L321" t="n">
         <v>47.49999999999999</v>
@@ -16710,7 +16732,7 @@
         <v>115.7999999999999</v>
       </c>
       <c r="K322" t="n">
-        <v>7.407407407407413</v>
+        <v>21.73913043478277</v>
       </c>
       <c r="L322" t="n">
         <v>47.52999999999998</v>
@@ -16761,7 +16783,7 @@
         <v>115.7999999999999</v>
       </c>
       <c r="K323" t="n">
-        <v>28.88888888888916</v>
+        <v>33.33333333333378</v>
       </c>
       <c r="L323" t="n">
         <v>47.57999999999997</v>
@@ -16812,7 +16834,7 @@
         <v>115.7999999999999</v>
       </c>
       <c r="K324" t="n">
-        <v>20.00000000000025</v>
+        <v>64.70588235294169</v>
       </c>
       <c r="L324" t="n">
         <v>47.64999999999998</v>
@@ -16863,7 +16885,7 @@
         <v>115.8999999999999</v>
       </c>
       <c r="K325" t="n">
-        <v>20.00000000000025</v>
+        <v>53.84615384615478</v>
       </c>
       <c r="L325" t="n">
         <v>47.76999999999998</v>
@@ -16914,7 +16936,7 @@
         <v>116.1999999999999</v>
       </c>
       <c r="K326" t="n">
-        <v>23.80952380952396</v>
+        <v>62.50000000000077</v>
       </c>
       <c r="L326" t="n">
         <v>47.86999999999998</v>
@@ -16965,7 +16987,7 @@
         <v>116.4999999999999</v>
       </c>
       <c r="K327" t="n">
-        <v>28.88888888888901</v>
+        <v>68.42105263157961</v>
       </c>
       <c r="L327" t="n">
         <v>47.99999999999998</v>
@@ -17016,7 +17038,7 @@
         <v>117.0999999999999</v>
       </c>
       <c r="K328" t="n">
-        <v>20.83333333333347</v>
+        <v>45.45454545454598</v>
       </c>
       <c r="L328" t="n">
         <v>48.06999999999998</v>
@@ -17067,7 +17089,7 @@
         <v>117.0999999999999</v>
       </c>
       <c r="K329" t="n">
-        <v>26.08695652173938</v>
+        <v>36.84210526315849</v>
       </c>
       <c r="L329" t="n">
         <v>48.16999999999999</v>
@@ -17118,7 +17140,7 @@
         <v>117.2999999999999</v>
       </c>
       <c r="K330" t="n">
-        <v>17.39130434782615</v>
+        <v>0</v>
       </c>
       <c r="L330" t="n">
         <v>48.21999999999998</v>
@@ -17169,7 +17191,7 @@
         <v>117.5999999999999</v>
       </c>
       <c r="K331" t="n">
-        <v>13.63636363636362</v>
+        <v>11.11111111111098</v>
       </c>
       <c r="L331" t="n">
         <v>48.24999999999998</v>
@@ -17220,7 +17242,7 @@
         <v>117.9999999999999</v>
       </c>
       <c r="K332" t="n">
-        <v>19.14893617021299</v>
+        <v>27.27272727272748</v>
       </c>
       <c r="L332" t="n">
         <v>48.30999999999998</v>
@@ -17271,7 +17293,7 @@
         <v>118.0999999999999</v>
       </c>
       <c r="K333" t="n">
-        <v>26.08695652173923</v>
+        <v>30.43478260869569</v>
       </c>
       <c r="L333" t="n">
         <v>48.37999999999997</v>
@@ -17322,7 +17344,7 @@
         <v>118.8999999999999</v>
       </c>
       <c r="K334" t="n">
-        <v>42.30769230769257</v>
+        <v>46.66666666666661</v>
       </c>
       <c r="L334" t="n">
         <v>48.52999999999997</v>
@@ -17373,7 +17395,7 @@
         <v>118.9999999999999</v>
       </c>
       <c r="K335" t="n">
-        <v>55.10204081632685</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L335" t="n">
         <v>48.67999999999998</v>
@@ -17424,7 +17446,7 @@
         <v>119.8999999999999</v>
       </c>
       <c r="K336" t="n">
-        <v>24.52830188679248</v>
+        <v>0</v>
       </c>
       <c r="L336" t="n">
         <v>48.70999999999998</v>
@@ -17475,7 +17497,7 @@
         <v>120.1999999999999</v>
       </c>
       <c r="K337" t="n">
-        <v>28.57142857142863</v>
+        <v>29.03225806451587</v>
       </c>
       <c r="L337" t="n">
         <v>48.73999999999998</v>
@@ -17526,7 +17548,7 @@
         <v>120.6999999999999</v>
       </c>
       <c r="K338" t="n">
-        <v>34.42622950819678</v>
+        <v>38.88888888888861</v>
       </c>
       <c r="L338" t="n">
         <v>48.87999999999998</v>
@@ -17577,7 +17599,7 @@
         <v>121.8999999999999</v>
       </c>
       <c r="K339" t="n">
-        <v>17.14285714285708</v>
+        <v>8.69565217391297</v>
       </c>
       <c r="L339" t="n">
         <v>48.89999999999998</v>
@@ -17628,7 +17650,7 @@
         <v>122.0999999999999</v>
       </c>
       <c r="K340" t="n">
-        <v>15.94202898550725</v>
+        <v>6.666666666666719</v>
       </c>
       <c r="L340" t="n">
         <v>48.95999999999998</v>
@@ -17679,7 +17701,7 @@
         <v>122.8999999999999</v>
       </c>
       <c r="K341" t="n">
-        <v>19.44444444444442</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L341" t="n">
         <v>49.06999999999998</v>
@@ -17730,7 +17752,7 @@
         <v>122.9999999999999</v>
       </c>
       <c r="K342" t="n">
-        <v>19.44444444444438</v>
+        <v>14.28571428571424</v>
       </c>
       <c r="L342" t="n">
         <v>49.14999999999998</v>
@@ -17781,7 +17803,7 @@
         <v>123.3999999999999</v>
       </c>
       <c r="K343" t="n">
-        <v>13.15789473684207</v>
+        <v>-11.11111111111104</v>
       </c>
       <c r="L343" t="n">
         <v>49.17999999999998</v>
@@ -17832,7 +17854,7 @@
         <v>123.8</v>
       </c>
       <c r="K344" t="n">
-        <v>7.499999999999991</v>
+        <v>-20.83333333333316</v>
       </c>
       <c r="L344" t="n">
         <v>49.08999999999997</v>
@@ -17883,7 +17905,7 @@
         <v>123.8999999999999</v>
       </c>
       <c r="K345" t="n">
-        <v>7.499999999999902</v>
+        <v>0</v>
       </c>
       <c r="L345" t="n">
         <v>48.99999999999997</v>
@@ -17934,7 +17956,7 @@
         <v>124.1999999999999</v>
       </c>
       <c r="K346" t="n">
-        <v>0</v>
+        <v>-14.99999999999998</v>
       </c>
       <c r="L346" t="n">
         <v>48.96999999999998</v>
@@ -17985,7 +18007,7 @@
         <v>124.4999999999999</v>
       </c>
       <c r="K347" t="n">
-        <v>0</v>
+        <v>-21.05263157894742</v>
       </c>
       <c r="L347" t="n">
         <v>48.93999999999998</v>
@@ -18036,7 +18058,7 @@
         <v>124.5999999999999</v>
       </c>
       <c r="K348" t="n">
-        <v>9.333333333333242</v>
+        <v>18.5185185185185</v>
       </c>
       <c r="L348" t="n">
         <v>48.86999999999997</v>
@@ -18087,7 +18109,7 @@
         <v>124.6999999999999</v>
       </c>
       <c r="K349" t="n">
-        <v>7.894736842105164</v>
+        <v>7.692307692307546</v>
       </c>
       <c r="L349" t="n">
         <v>48.90999999999997</v>
@@ -18138,7 +18160,7 @@
         <v>125.0999999999999</v>
       </c>
       <c r="K350" t="n">
-        <v>5.128205128205093</v>
+        <v>-45.4545454545454</v>
       </c>
       <c r="L350" t="n">
         <v>48.88999999999997</v>
@@ -18189,7 +18211,7 @@
         <v>125.1999999999999</v>
       </c>
       <c r="K351" t="n">
-        <v>0</v>
+        <v>-54.54545454545495</v>
       </c>
       <c r="L351" t="n">
         <v>48.77999999999996</v>
@@ -18240,7 +18262,7 @@
         <v>125.1999999999999</v>
       </c>
       <c r="K352" t="n">
-        <v>-5.555555555555621</v>
+        <v>-44.4444444444451</v>
       </c>
       <c r="L352" t="n">
         <v>48.65999999999995</v>
@@ -18291,7 +18313,7 @@
         <v>125.1999999999999</v>
       </c>
       <c r="K353" t="n">
-        <v>-7.042253521126739</v>
+        <v>-28.57142857142944</v>
       </c>
       <c r="L353" t="n">
         <v>48.57999999999995</v>
@@ -18342,7 +18364,7 @@
         <v>125.2999999999999</v>
       </c>
       <c r="K354" t="n">
-        <v>-18.75000000000003</v>
+        <v>-28.57142857142894</v>
       </c>
       <c r="L354" t="n">
         <v>48.54999999999995</v>
@@ -18393,7 +18415,7 @@
         <v>125.3999999999999</v>
       </c>
       <c r="K355" t="n">
-        <v>-18.75000000000003</v>
+        <v>0</v>
       </c>
       <c r="L355" t="n">
         <v>48.51999999999995</v>
@@ -18444,7 +18466,7 @@
         <v>125.5999999999999</v>
       </c>
       <c r="K356" t="n">
-        <v>-8.771929824561399</v>
+        <v>-45.45454545454628</v>
       </c>
       <c r="L356" t="n">
         <v>48.49999999999996</v>
@@ -18495,7 +18517,7 @@
         <v>125.8999999999999</v>
       </c>
       <c r="K357" t="n">
-        <v>-19.29824561403515</v>
+        <v>-69.23076923077002</v>
       </c>
       <c r="L357" t="n">
         <v>48.41999999999995</v>
@@ -18546,7 +18568,7 @@
         <v>126.1999999999999</v>
       </c>
       <c r="K358" t="n">
-        <v>-34.5454545454546</v>
+        <v>-73.33333333333366</v>
       </c>
       <c r="L358" t="n">
         <v>48.29999999999995</v>
@@ -18597,7 +18619,7 @@
         <v>126.1999999999999</v>
       </c>
       <c r="K359" t="n">
-        <v>-16.27906976744183</v>
+        <v>-63.6363636363644</v>
       </c>
       <c r="L359" t="n">
         <v>48.18999999999996</v>
@@ -18648,7 +18670,7 @@
         <v>126.3999999999999</v>
       </c>
       <c r="K360" t="n">
-        <v>-25.58139534883734</v>
+        <v>-66.66666666666707</v>
       </c>
       <c r="L360" t="n">
         <v>48.09999999999997</v>
@@ -18699,7 +18721,7 @@
         <v>126.5999999999999</v>
       </c>
       <c r="K361" t="n">
-        <v>-56.75675675675696</v>
+        <v>-71.42857142857186</v>
       </c>
       <c r="L361" t="n">
         <v>47.99999999999996</v>
@@ -18750,7 +18772,7 @@
         <v>127.0999999999999</v>
       </c>
       <c r="K362" t="n">
-        <v>-41.46341463414661</v>
+        <v>-26.31578947368433</v>
       </c>
       <c r="L362" t="n">
         <v>47.94999999999996</v>
@@ -18801,7 +18823,7 @@
         <v>127.0999999999999</v>
       </c>
       <c r="K363" t="n">
-        <v>-35.13513513513549</v>
+        <v>-33.33333333333346</v>
       </c>
       <c r="L363" t="n">
         <v>47.89999999999996</v>
@@ -18852,7 +18874,7 @@
         <v>127.1999999999999</v>
       </c>
       <c r="K364" t="n">
-        <v>-29.41176470588267</v>
+        <v>-44.44444444444436</v>
       </c>
       <c r="L364" t="n">
         <v>47.82999999999996</v>
@@ -18903,7 +18925,7 @@
         <v>127.1999999999999</v>
       </c>
       <c r="K365" t="n">
-        <v>-33.33333333333348</v>
+        <v>-37.49999999999978</v>
       </c>
       <c r="L365" t="n">
         <v>47.74999999999996</v>
@@ -18954,7 +18976,7 @@
         <v>127.2999999999999</v>
       </c>
       <c r="K366" t="n">
-        <v>-29.03225806451627</v>
+        <v>-28.57142857142835</v>
       </c>
       <c r="L366" t="n">
         <v>47.67999999999996</v>
@@ -19005,7 +19027,7 @@
         <v>127.3999999999999</v>
       </c>
       <c r="K367" t="n">
-        <v>-37.93103448275873</v>
+        <v>0</v>
       </c>
       <c r="L367" t="n">
         <v>47.64999999999996</v>
@@ -19056,7 +19078,7 @@
         <v>127.7999999999999</v>
       </c>
       <c r="K368" t="n">
-        <v>-50.00000000000022</v>
+        <v>-25.00000000000022</v>
       </c>
       <c r="L368" t="n">
         <v>47.60999999999996</v>
@@ -19107,7 +19129,7 @@
         <v>127.7999999999999</v>
       </c>
       <c r="K369" t="n">
-        <v>-48.38709677419364</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L369" t="n">
         <v>47.56999999999996</v>
@@ -19158,7 +19180,7 @@
         <v>127.7999999999999</v>
       </c>
       <c r="K370" t="n">
-        <v>-40.74074074074097</v>
+        <v>0</v>
       </c>
       <c r="L370" t="n">
         <v>47.54999999999997</v>
@@ -19209,7 +19231,7 @@
         <v>128.1999999999999</v>
       </c>
       <c r="K371" t="n">
-        <v>-19.99999999999981</v>
+        <v>-9.090909090908504</v>
       </c>
       <c r="L371" t="n">
         <v>47.58999999999997</v>
@@ -19260,7 +19282,7 @@
         <v>128.4999999999999</v>
       </c>
       <c r="K372" t="n">
-        <v>-27.27272727272714</v>
+        <v>-28.57142857142806</v>
       </c>
       <c r="L372" t="n">
         <v>47.54999999999997</v>
@@ -19311,7 +19333,7 @@
         <v>128.4999999999999</v>
       </c>
       <c r="K373" t="n">
-        <v>-27.27272727272714</v>
+        <v>-23.07692307692295</v>
       </c>
       <c r="L373" t="n">
         <v>47.50999999999998</v>
@@ -19362,7 +19384,7 @@
         <v>128.8</v>
       </c>
       <c r="K374" t="n">
-        <v>-19.99999999999972</v>
+        <v>0</v>
       </c>
       <c r="L374" t="n">
         <v>47.50999999999998</v>
@@ -19413,7 +19435,7 @@
         <v>129.6</v>
       </c>
       <c r="K375" t="n">
-        <v>0</v>
+        <v>39.13043478260796</v>
       </c>
       <c r="L375" t="n">
         <v>47.58999999999997</v>
@@ -19464,7 +19486,7 @@
         <v>129.6</v>
       </c>
       <c r="K376" t="n">
-        <v>5.000000000000018</v>
+        <v>36.36363636363548</v>
       </c>
       <c r="L376" t="n">
         <v>47.67999999999996</v>
@@ -19515,7 +19537,7 @@
         <v>130.1</v>
       </c>
       <c r="K377" t="n">
-        <v>0</v>
+        <v>30.43478260869525</v>
       </c>
       <c r="L377" t="n">
         <v>47.70999999999997</v>
@@ -19566,7 +19588,7 @@
         <v>130.2</v>
       </c>
       <c r="K378" t="n">
-        <v>9.999999999999858</v>
+        <v>33.33333333333304</v>
       </c>
       <c r="L378" t="n">
         <v>47.78999999999996</v>
@@ -19617,7 +19639,7 @@
         <v>130.3</v>
       </c>
       <c r="K379" t="n">
-        <v>7.317073170731573</v>
+        <v>27.9999999999998</v>
       </c>
       <c r="L379" t="n">
         <v>47.85999999999996</v>
@@ -19668,7 +19690,7 @@
         <v>130.3999999999999</v>
       </c>
       <c r="K380" t="n">
-        <v>9.999999999999893</v>
+        <v>9.090909090908825</v>
       </c>
       <c r="L380" t="n">
         <v>47.91999999999997</v>
@@ -19719,7 +19741,7 @@
         <v>130.8999999999999</v>
       </c>
       <c r="K381" t="n">
-        <v>2.325581395348856</v>
+        <v>0</v>
       </c>
       <c r="L381" t="n">
         <v>47.88999999999997</v>
@@ -19770,7 +19792,7 @@
         <v>131.3</v>
       </c>
       <c r="K382" t="n">
-        <v>0</v>
+        <v>14.28571428571418</v>
       </c>
       <c r="L382" t="n">
         <v>47.92999999999997</v>
@@ -19821,7 +19843,7 @@
         <v>131.7</v>
       </c>
       <c r="K383" t="n">
-        <v>-8.695652173912944</v>
+        <v>-10.34482758620702</v>
       </c>
       <c r="L383" t="n">
         <v>47.92999999999997</v>
@@ -19872,7 +19894,7 @@
         <v>131.7</v>
       </c>
       <c r="K384" t="n">
-        <v>-6.666666666666698</v>
+        <v>-52.38095238095259</v>
       </c>
       <c r="L384" t="n">
         <v>47.89999999999997</v>
@@ -19923,7 +19945,7 @@
         <v>131.8999999999999</v>
       </c>
       <c r="K385" t="n">
-        <v>-10.63829787234035</v>
+        <v>-56.52173913043508</v>
       </c>
       <c r="L385" t="n">
         <v>47.76999999999997</v>
@@ -19974,7 +19996,7 @@
         <v>131.9999999999999</v>
       </c>
       <c r="K386" t="n">
-        <v>-10.63829787234039</v>
+        <v>-47.36842105263207</v>
       </c>
       <c r="L386" t="n">
         <v>47.62999999999997</v>
@@ -20025,7 +20047,7 @@
         <v>132.0999999999999</v>
       </c>
       <c r="K387" t="n">
-        <v>-14.8936170212766</v>
+        <v>-57.89473684210603</v>
       </c>
       <c r="L387" t="n">
         <v>47.52999999999997</v>
@@ -20076,7 +20098,7 @@
         <v>132.0999999999999</v>
       </c>
       <c r="K388" t="n">
-        <v>-6.976744186046427</v>
+        <v>-55.55555555555608</v>
       </c>
       <c r="L388" t="n">
         <v>47.41999999999997</v>
@@ -20127,7 +20149,7 @@
         <v>132.5999999999999</v>
       </c>
       <c r="K389" t="n">
-        <v>-16.66666666666657</v>
+        <v>-63.6363636363639</v>
       </c>
       <c r="L389" t="n">
         <v>47.26999999999997</v>
@@ -20178,7 +20200,7 @@
         <v>132.5999999999999</v>
       </c>
       <c r="K390" t="n">
-        <v>-16.66666666666657</v>
+        <v>-52.9411764705885</v>
       </c>
       <c r="L390" t="n">
         <v>47.12999999999997</v>
@@ -20229,7 +20251,7 @@
         <v>133.0999999999999</v>
       </c>
       <c r="K391" t="n">
-        <v>-14.28571428571433</v>
+        <v>-44.44444444444471</v>
       </c>
       <c r="L391" t="n">
         <v>47.08999999999997</v>
@@ -20280,7 +20302,7 @@
         <v>133.1999999999999</v>
       </c>
       <c r="K392" t="n">
-        <v>-10.63829787234045</v>
+        <v>-33.33333333333396</v>
       </c>
       <c r="L392" t="n">
         <v>46.99999999999997</v>
@@ -20331,7 +20353,7 @@
         <v>133.1999999999999</v>
       </c>
       <c r="K393" t="n">
-        <v>-10.63829787234045</v>
+        <v>-33.33333333333396</v>
       </c>
       <c r="L393" t="n">
         <v>46.94999999999997</v>
@@ -20382,7 +20404,7 @@
         <v>133.3999999999999</v>
       </c>
       <c r="K394" t="n">
-        <v>-13.04347826086969</v>
+        <v>-6.666666666666887</v>
       </c>
       <c r="L394" t="n">
         <v>46.91999999999998</v>
@@ -20433,7 +20455,7 @@
         <v>133.5999999999999</v>
       </c>
       <c r="K395" t="n">
-        <v>-40.0000000000006</v>
+        <v>-12.50000000000044</v>
       </c>
       <c r="L395" t="n">
         <v>46.88999999999998</v>
@@ -20484,7 +20506,7 @@
         <v>133.5999999999999</v>
       </c>
       <c r="K396" t="n">
-        <v>-40.0000000000006</v>
+        <v>-6.666666666666887</v>
       </c>
       <c r="L396" t="n">
         <v>46.86999999999998</v>
@@ -20535,7 +20557,7 @@
         <v>133.5999999999999</v>
       </c>
       <c r="K397" t="n">
-        <v>-31.42857142857198</v>
+        <v>-6.666666666666887</v>
       </c>
       <c r="L397" t="n">
         <v>46.85999999999998</v>
@@ -20586,7 +20608,7 @@
         <v>133.9999999999999</v>
       </c>
       <c r="K398" t="n">
-        <v>-21.05263157894773</v>
+        <v>57.14285714285787</v>
       </c>
       <c r="L398" t="n">
         <v>46.88999999999997</v>
@@ -20637,7 +20659,7 @@
         <v>134.3999999999999</v>
       </c>
       <c r="K399" t="n">
-        <v>-26.82926829268319</v>
+        <v>22.22222222222235</v>
       </c>
       <c r="L399" t="n">
         <v>46.92999999999997</v>
@@ -20688,7 +20710,7 @@
         <v>134.4999999999999</v>
       </c>
       <c r="K400" t="n">
-        <v>-26.82926829268319</v>
+        <v>-14.28571428571472</v>
       </c>
       <c r="L400" t="n">
         <v>46.95999999999997</v>
@@ -20739,7 +20761,7 @@
         <v>134.4999999999999</v>
       </c>
       <c r="K401" t="n">
-        <v>-16.66666666666686</v>
+        <v>-7.692307692307902</v>
       </c>
       <c r="L401" t="n">
         <v>46.93999999999996</v>
@@ -20790,7 +20812,7 @@
         <v>134.6999999999999</v>
       </c>
       <c r="K402" t="n">
-        <v>-35.29411764705923</v>
+        <v>-20.00000000000019</v>
       </c>
       <c r="L402" t="n">
         <v>46.90999999999997</v>
@@ -20841,7 +20863,7 @@
         <v>134.8999999999999</v>
       </c>
       <c r="K403" t="n">
-        <v>-31.25000000000039</v>
+        <v>-46.66666666666686</v>
       </c>
       <c r="L403" t="n">
         <v>46.85999999999997</v>
@@ -20892,7 +20914,7 @@
         <v>134.8999999999999</v>
       </c>
       <c r="K404" t="n">
-        <v>-31.25000000000039</v>
+        <v>-38.46153846153813</v>
       </c>
       <c r="L404" t="n">
         <v>46.78999999999996</v>
@@ -20943,7 +20965,7 @@
         <v>135.3999999999999</v>
       </c>
       <c r="K405" t="n">
-        <v>-8.571428571428763</v>
+        <v>0</v>
       </c>
       <c r="L405" t="n">
         <v>46.78999999999996</v>
@@ -20994,7 +21016,7 @@
         <v>135.9999999999999</v>
       </c>
       <c r="K406" t="n">
-        <v>-20.00000000000025</v>
+        <v>-25</v>
       </c>
       <c r="L406" t="n">
         <v>46.72999999999996</v>
@@ -21045,7 +21067,7 @@
         <v>136.0999999999999</v>
       </c>
       <c r="K407" t="n">
-        <v>-15.00000000000014</v>
+        <v>-42.8571428571429</v>
       </c>
       <c r="L407" t="n">
         <v>46.67999999999996</v>
@@ -21096,7 +21118,7 @@
         <v>136.1999999999999</v>
       </c>
       <c r="K408" t="n">
-        <v>-17.07317073170753</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L408" t="n">
         <v>46.57999999999996</v>
@@ -21147,7 +21169,7 @@
         <v>136.2999999999999</v>
       </c>
       <c r="K409" t="n">
-        <v>-2.70270270270277</v>
+        <v>-22.22222222222235</v>
       </c>
       <c r="L409" t="n">
         <v>46.52999999999996</v>
@@ -21198,7 +21220,7 @@
         <v>136.4999999999999</v>
       </c>
       <c r="K410" t="n">
-        <v>2.564102564102634</v>
+        <v>-9.999999999999929</v>
       </c>
       <c r="L410" t="n">
         <v>46.50999999999996</v>
@@ -21249,7 +21271,7 @@
         <v>136.5999999999999</v>
       </c>
       <c r="K411" t="n">
-        <v>-14.28571428571452</v>
+        <v>-5.26315789473698</v>
       </c>
       <c r="L411" t="n">
         <v>46.47999999999996</v>
@@ -21300,7 +21322,7 @@
         <v>136.5999999999999</v>
       </c>
       <c r="K412" t="n">
-        <v>-11.76470588235308</v>
+        <v>5.882352941176692</v>
       </c>
       <c r="L412" t="n">
         <v>46.46999999999996</v>
@@ -21351,7 +21373,7 @@
         <v>136.5999999999999</v>
       </c>
       <c r="K413" t="n">
-        <v>-11.76470588235308</v>
+        <v>5.882352941176692</v>
       </c>
       <c r="L413" t="n">
         <v>46.47999999999996</v>
@@ -21402,7 +21424,7 @@
         <v>136.6999999999999</v>
       </c>
       <c r="K414" t="n">
-        <v>-15.15151515151536</v>
+        <v>-23.07692307692367</v>
       </c>
       <c r="L414" t="n">
         <v>46.49999999999996</v>
@@ -21453,7 +21475,7 @@
         <v>136.7999999999999</v>
       </c>
       <c r="K415" t="n">
-        <v>-6.249999999999945</v>
+        <v>50.00000000000355</v>
       </c>
       <c r="L415" t="n">
         <v>46.47999999999997</v>
@@ -21504,7 +21526,7 @@
         <v>137.0999999999999</v>
       </c>
       <c r="K416" t="n">
-        <v>-14.2857142857144</v>
+        <v>0</v>
       </c>
       <c r="L416" t="n">
         <v>46.48999999999997</v>
@@ -21555,7 +21577,7 @@
         <v>137.1999999999999</v>
       </c>
       <c r="K417" t="n">
-        <v>-11.11111111111118</v>
+        <v>20.00000000000085</v>
       </c>
       <c r="L417" t="n">
         <v>46.49999999999996</v>
@@ -21606,7 +21628,7 @@
         <v>137.1999999999999</v>
       </c>
       <c r="K418" t="n">
-        <v>-25.00000000000022</v>
+        <v>11.11111111111155</v>
       </c>
       <c r="L418" t="n">
         <v>46.51999999999997</v>
@@ -21657,7 +21679,7 @@
         <v>137.3999999999999</v>
       </c>
       <c r="K419" t="n">
-        <v>-20.00000000000043</v>
+        <v>-33.33333333333465</v>
       </c>
       <c r="L419" t="n">
         <v>46.50999999999997</v>
@@ -21708,7 +21730,7 @@
         <v>137.3999999999999</v>
       </c>
       <c r="K420" t="n">
-        <v>-17.24137931034513</v>
+        <v>-25.00000000000089</v>
       </c>
       <c r="L420" t="n">
         <v>46.47999999999997</v>
@@ -21759,7 +21781,7 @@
         <v>137.5999999999999</v>
       </c>
       <c r="K421" t="n">
-        <v>-22.58064516129064</v>
+        <v>-40.00000000000099</v>
       </c>
       <c r="L421" t="n">
         <v>46.43999999999997</v>
@@ -21810,7 +21832,7 @@
         <v>137.7999999999998</v>
       </c>
       <c r="K422" t="n">
-        <v>-22.58064516129087</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L422" t="n">
         <v>46.37999999999997</v>
@@ -21861,7 +21883,7 @@
         <v>137.7999999999998</v>
       </c>
       <c r="K423" t="n">
-        <v>-17.2413793103453</v>
+        <v>-63.63636363636586</v>
       </c>
       <c r="L423" t="n">
         <v>46.31999999999996</v>
@@ -21912,7 +21934,7 @@
         <v>138.1999999999998</v>
       </c>
       <c r="K424" t="n">
-        <v>-3.030303030303141</v>
+        <v>-28.57142857142944</v>
       </c>
       <c r="L424" t="n">
         <v>46.28999999999996</v>
@@ -21963,7 +21985,7 @@
         <v>138.4999999999999</v>
       </c>
       <c r="K425" t="n">
-        <v>-9.677419354838813</v>
+        <v>14.28571428571472</v>
       </c>
       <c r="L425" t="n">
         <v>46.27999999999997</v>
@@ -22014,7 +22036,7 @@
         <v>138.9999999999999</v>
       </c>
       <c r="K426" t="n">
-        <v>-6.666666666666651</v>
+        <v>-22.22222222222235</v>
       </c>
       <c r="L426" t="n">
         <v>46.24999999999997</v>
@@ -22065,7 +22087,7 @@
         <v>138.9999999999999</v>
       </c>
       <c r="K427" t="n">
-        <v>-10.34482758620698</v>
+        <v>-22.22222222222235</v>
       </c>
       <c r="L427" t="n">
         <v>46.20999999999997</v>
@@ -22116,7 +22138,7 @@
         <v>139.1999999999999</v>
       </c>
       <c r="K428" t="n">
-        <v>-13.33333333333341</v>
+        <v>-22.222222222222</v>
       </c>
       <c r="L428" t="n">
         <v>46.14999999999997</v>
@@ -22167,7 +22189,7 @@
         <v>139.2999999999999</v>
       </c>
       <c r="K429" t="n">
-        <v>-13.33333333333341</v>
+        <v>-15.78947368421033</v>
       </c>
       <c r="L429" t="n">
         <v>46.11999999999997</v>
@@ -22218,7 +22240,7 @@
         <v>139.2999999999999</v>
       </c>
       <c r="K430" t="n">
-        <v>-21.42857142857161</v>
+        <v>-5.882352941176496</v>
       </c>
       <c r="L430" t="n">
         <v>46.08999999999997</v>
@@ -22269,7 +22291,7 @@
         <v>139.2999999999999</v>
       </c>
       <c r="K431" t="n">
-        <v>-18.51851851851859</v>
+        <v>6.666666666666635</v>
       </c>
       <c r="L431" t="n">
         <v>46.07999999999997</v>
@@ -22320,7 +22342,7 @@
         <v>139.2999999999999</v>
       </c>
       <c r="K432" t="n">
-        <v>-18.51851851851859</v>
+        <v>6.666666666666635</v>
       </c>
       <c r="L432" t="n">
         <v>46.08999999999997</v>
@@ -22371,7 +22393,7 @@
         <v>139.2999999999999</v>
       </c>
       <c r="K433" t="n">
-        <v>-18.51851851851859</v>
+        <v>-27.27272727272645</v>
       </c>
       <c r="L433" t="n">
         <v>46.09999999999997</v>
@@ -22422,7 +22444,7 @@
         <v>139.2999999999999</v>
       </c>
       <c r="K434" t="n">
-        <v>-23.07692307692318</v>
+        <v>-74.99999999999912</v>
       </c>
       <c r="L434" t="n">
         <v>46.06999999999997</v>
@@ -22473,7 +22495,7 @@
         <v>139.2999999999999</v>
       </c>
       <c r="K435" t="n">
-        <v>-28.00000000000011</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L435" t="n">
         <v>46.00999999999997</v>
@@ -22524,7 +22546,7 @@
         <v>139.3999999999999</v>
       </c>
       <c r="K436" t="n">
-        <v>-13.04347826086954</v>
+        <v>0</v>
       </c>
       <c r="L436" t="n">
         <v>46.00999999999997</v>
@@ -22575,7 +22597,7 @@
         <v>139.3999999999999</v>
       </c>
       <c r="K437" t="n">
-        <v>-18.18181818181821</v>
+        <v>100.0000000000071</v>
       </c>
       <c r="L437" t="n">
         <v>46.00999999999997</v>
@@ -22626,7 +22648,7 @@
         <v>139.5999999999999</v>
       </c>
       <c r="K438" t="n">
-        <v>-25.00000000000029</v>
+        <v>-33.3333333333357</v>
       </c>
       <c r="L438" t="n">
         <v>46.00999999999997</v>
@@ -22677,7 +22699,7 @@
         <v>139.5999999999999</v>
       </c>
       <c r="K439" t="n">
-        <v>-18.18181818181821</v>
+        <v>-33.3333333333357</v>
       </c>
       <c r="L439" t="n">
         <v>45.99999999999996</v>
@@ -22728,7 +22750,7 @@
         <v>139.6999999999998</v>
       </c>
       <c r="K440" t="n">
-        <v>-13.04347826086954</v>
+        <v>0</v>
       </c>
       <c r="L440" t="n">
         <v>45.99999999999996</v>
@@ -22779,7 +22801,7 @@
         <v>139.9999999999998</v>
       </c>
       <c r="K441" t="n">
-        <v>8.333333333333234</v>
+        <v>42.85714285714489</v>
       </c>
       <c r="L441" t="n">
         <v>46.02999999999997</v>
@@ -22830,7 +22852,7 @@
         <v>140.2999999999998</v>
       </c>
       <c r="K442" t="n">
-        <v>28.00000000000011</v>
+        <v>60.00000000000185</v>
       </c>
       <c r="L442" t="n">
         <v>46.08999999999997</v>
@@ -22881,7 +22903,7 @@
         <v>140.3999999999998</v>
       </c>
       <c r="K443" t="n">
-        <v>30.769230769231</v>
+        <v>63.63636363636586</v>
       </c>
       <c r="L443" t="n">
         <v>46.15999999999997</v>
@@ -22932,7 +22954,7 @@
         <v>140.4999999999998</v>
       </c>
       <c r="K444" t="n">
-        <v>13.04347826086985</v>
+        <v>50.00000000000178</v>
       </c>
       <c r="L444" t="n">
         <v>46.21999999999997</v>
@@ -22983,7 +23005,7 @@
         <v>140.5999999999998</v>
       </c>
       <c r="K445" t="n">
-        <v>4.761904761904907</v>
+        <v>50.00000000000178</v>
       </c>
       <c r="L445" t="n">
         <v>46.28999999999997</v>
@@ -23034,7 +23056,7 @@
         <v>140.8999999999998</v>
       </c>
       <c r="K446" t="n">
-        <v>15.78947368421056</v>
+        <v>20.00000000000019</v>
       </c>
       <c r="L446" t="n">
         <v>46.31999999999996</v>
@@ -23085,7 +23107,7 @@
         <v>141.1999999999998</v>
       </c>
       <c r="K447" t="n">
-        <v>0</v>
+        <v>12.50000000000044</v>
       </c>
       <c r="L447" t="n">
         <v>46.31999999999996</v>
@@ -23136,7 +23158,7 @@
         <v>141.1999999999998</v>
       </c>
       <c r="K448" t="n">
-        <v>10.00000000000043</v>
+        <v>12.50000000000044</v>
       </c>
       <c r="L448" t="n">
         <v>46.33999999999997</v>
@@ -23187,7 +23209,7 @@
         <v>141.4999999999998</v>
       </c>
       <c r="K449" t="n">
-        <v>18.18181818181845</v>
+        <v>22.22222222222235</v>
       </c>
       <c r="L449" t="n">
         <v>46.38999999999997</v>
@@ -23238,7 +23260,7 @@
         <v>141.4999999999998</v>
       </c>
       <c r="K450" t="n">
-        <v>18.18181818181845</v>
+        <v>6.666666666666761</v>
       </c>
       <c r="L450" t="n">
         <v>46.42999999999996</v>
@@ -23289,7 +23311,7 @@
         <v>141.6999999999998</v>
       </c>
       <c r="K451" t="n">
-        <v>25.00000000000059</v>
+        <v>0</v>
       </c>
       <c r="L451" t="n">
         <v>46.45999999999997</v>
@@ -23340,7 +23362,7 @@
         <v>141.8999999999998</v>
       </c>
       <c r="K452" t="n">
-        <v>30.7692307692314</v>
+        <v>6.666666666666414</v>
       </c>
       <c r="L452" t="n">
         <v>46.47999999999997</v>
@@ -23391,7 +23413,7 @@
         <v>142.2999999999998</v>
       </c>
       <c r="K453" t="n">
-        <v>13.33333333333354</v>
+        <v>-11.11111111111137</v>
       </c>
       <c r="L453" t="n">
         <v>46.44999999999997</v>
@@ -23442,7 +23464,7 @@
         <v>142.9999999999998</v>
       </c>
       <c r="K454" t="n">
-        <v>29.72972972973009</v>
+        <v>16.66666666666657</v>
       </c>
       <c r="L454" t="n">
         <v>46.49999999999996</v>
@@ -23493,7 +23515,7 @@
         <v>143.4999999999998</v>
       </c>
       <c r="K455" t="n">
-        <v>38.09523809523849</v>
+        <v>46.15384615384636</v>
       </c>
       <c r="L455" t="n">
         <v>46.58999999999997</v>
@@ -23544,7 +23566,7 @@
         <v>143.6999999999998</v>
       </c>
       <c r="K456" t="n">
-        <v>30.23255813953514</v>
+        <v>51.99999999999989</v>
       </c>
       <c r="L456" t="n">
         <v>46.68999999999998</v>
@@ -23595,7 +23617,7 @@
         <v>143.7999999999998</v>
       </c>
       <c r="K457" t="n">
-        <v>27.27272727272749</v>
+        <v>46.15384615384609</v>
       </c>
       <c r="L457" t="n">
         <v>46.80999999999997</v>
@@ -23646,7 +23668,7 @@
         <v>144.0999999999998</v>
       </c>
       <c r="K458" t="n">
-        <v>37.77777777777808</v>
+        <v>46.15384615384636</v>
       </c>
       <c r="L458" t="n">
         <v>46.95999999999997</v>
@@ -23697,7 +23719,7 @@
         <v>144.2999999999998</v>
       </c>
       <c r="K459" t="n">
-        <v>31.91489361702136</v>
+        <v>35.71428571428557</v>
       </c>
       <c r="L459" t="n">
         <v>47.05999999999997</v>
@@ -23748,7 +23770,7 @@
         <v>144.4999999999998</v>
       </c>
       <c r="K460" t="n">
-        <v>33.33333333333348</v>
+        <v>35.71428571428557</v>
       </c>
       <c r="L460" t="n">
         <v>47.17999999999997</v>
@@ -23799,7 +23821,7 @@
         <v>144.4999999999998</v>
       </c>
       <c r="K461" t="n">
-        <v>28.88888888888899</v>
+        <v>30.76923076923067</v>
       </c>
       <c r="L461" t="n">
         <v>47.27999999999997</v>
@@ -23850,7 +23872,7 @@
         <v>144.7999999999998</v>
       </c>
       <c r="K462" t="n">
-        <v>15.55555555555546</v>
+        <v>35.99999999999953</v>
       </c>
       <c r="L462" t="n">
         <v>47.32999999999997</v>
@@ -23901,7 +23923,7 @@
         <v>144.9999999999998</v>
       </c>
       <c r="K463" t="n">
-        <v>17.39130434782605</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L463" t="n">
         <v>47.43999999999998</v>
@@ -23952,7 +23974,7 @@
         <v>145.0999999999998</v>
       </c>
       <c r="K464" t="n">
-        <v>17.39130434782605</v>
+        <v>-12.50000000000022</v>
       </c>
       <c r="L464" t="n">
         <v>47.46999999999997</v>
@@ -24003,7 +24025,7 @@
         <v>145.1999999999998</v>
       </c>
       <c r="K465" t="n">
-        <v>13.04347826086946</v>
+        <v>-6.666666666666761</v>
       </c>
       <c r="L465" t="n">
         <v>47.43999999999996</v>
@@ -24054,7 +24076,7 @@
         <v>145.1999999999998</v>
       </c>
       <c r="K466" t="n">
-        <v>20.93023255813959</v>
+        <v>0</v>
       </c>
       <c r="L466" t="n">
         <v>47.42999999999996</v>
@@ -24105,7 +24127,7 @@
         <v>145.4999999999998</v>
       </c>
       <c r="K467" t="n">
-        <v>20.93023255813945</v>
+        <v>-42.85714285714278</v>
       </c>
       <c r="L467" t="n">
         <v>47.39999999999996</v>
@@ -24156,7 +24178,7 @@
         <v>145.6999999999998</v>
       </c>
       <c r="K468" t="n">
-        <v>24.44444444444448</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L468" t="n">
         <v>47.35999999999996</v>
@@ -24207,7 +24229,7 @@
         <v>145.6999999999998</v>
       </c>
       <c r="K469" t="n">
-        <v>19.0476190476192</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L469" t="n">
         <v>47.33999999999996</v>
@@ -24258,7 +24280,7 @@
         <v>146.4999999999998</v>
       </c>
       <c r="K470" t="n">
-        <v>0</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L470" t="n">
         <v>47.21999999999996</v>
@@ -24309,7 +24331,7 @@
         <v>146.5999999999998</v>
       </c>
       <c r="K471" t="n">
-        <v>-2.040816326530639</v>
+        <v>-44.44444444444471</v>
       </c>
       <c r="L471" t="n">
         <v>47.10999999999996</v>
@@ -24360,7 +24382,7 @@
         <v>146.9999999999998</v>
       </c>
       <c r="K472" t="n">
-        <v>1.960784313725509</v>
+        <v>-30.00000000000007</v>
       </c>
       <c r="L472" t="n">
         <v>47.06999999999995</v>
@@ -24411,7 +24433,7 @@
         <v>147.2999999999998</v>
       </c>
       <c r="K473" t="n">
-        <v>4.000000000000034</v>
+        <v>-36.36363636363595</v>
       </c>
       <c r="L473" t="n">
         <v>46.97999999999995</v>
@@ -24462,7 +24484,7 @@
         <v>147.2999999999998</v>
       </c>
       <c r="K474" t="n">
-        <v>-11.62790697674416</v>
+        <v>-33.33333333333277</v>
       </c>
       <c r="L474" t="n">
         <v>46.89999999999996</v>
@@ -24513,7 +24535,7 @@
         <v>147.4999999999998</v>
       </c>
       <c r="K475" t="n">
-        <v>-20.00000000000011</v>
+        <v>-21.7391304347825</v>
       </c>
       <c r="L475" t="n">
         <v>46.84999999999995</v>
@@ -24564,7 +24586,7 @@
         <v>147.6999999999998</v>
       </c>
       <c r="K476" t="n">
-        <v>-19.99999999999993</v>
+        <v>-18.18181818181821</v>
       </c>
       <c r="L476" t="n">
         <v>46.77999999999994</v>
@@ -24615,7 +24637,7 @@
         <v>147.7999999999998</v>
       </c>
       <c r="K477" t="n">
-        <v>-19.99999999999993</v>
+        <v>-33.33333333333356</v>
       </c>
       <c r="L477" t="n">
         <v>46.72999999999995</v>
@@ -24666,7 +24688,7 @@
         <v>147.7999999999998</v>
       </c>
       <c r="K478" t="n">
-        <v>-29.72972972972986</v>
+        <v>-33.33333333333356</v>
       </c>
       <c r="L478" t="n">
         <v>46.65999999999995</v>
@@ -24717,7 +24739,7 @@
         <v>147.8999999999998</v>
       </c>
       <c r="K479" t="n">
-        <v>-22.22222222222235</v>
+        <v>14.28571428571472</v>
       </c>
       <c r="L479" t="n">
         <v>46.59999999999995</v>
@@ -24768,7 +24790,7 @@
         <v>147.9999999999998</v>
       </c>
       <c r="K480" t="n">
-        <v>-31.42857142857172</v>
+        <v>0</v>
       </c>
       <c r="L480" t="n">
         <v>46.60999999999996</v>
@@ -24819,7 +24841,7 @@
         <v>148.0999999999998</v>
       </c>
       <c r="K481" t="n">
-        <v>-33.33333333333373</v>
+        <v>-45.45454545454686</v>
       </c>
       <c r="L481" t="n">
         <v>46.59999999999995</v>
@@ -24870,7 +24892,7 @@
         <v>148.1999999999998</v>
       </c>
       <c r="K482" t="n">
-        <v>-23.52941176470615</v>
+        <v>-11.1111111111119</v>
       </c>
       <c r="L482" t="n">
         <v>46.55999999999996</v>
@@ -24921,7 +24943,7 @@
         <v>148.2999999999998</v>
       </c>
       <c r="K483" t="n">
-        <v>-33.33333333333384</v>
+        <v>-20.00000000000142</v>
       </c>
       <c r="L483" t="n">
         <v>46.53999999999995</v>
@@ -24972,7 +24994,7 @@
         <v>148.3999999999998</v>
       </c>
       <c r="K484" t="n">
-        <v>-33.33333333333384</v>
+        <v>-55.55555555555871</v>
       </c>
       <c r="L484" t="n">
         <v>46.50999999999995</v>
@@ -25023,7 +25045,7 @@
         <v>148.3999999999998</v>
       </c>
       <c r="K485" t="n">
-        <v>-31.25000000000039</v>
+        <v>-42.8571428571459</v>
       </c>
       <c r="L485" t="n">
         <v>46.45999999999995</v>
@@ -25074,7 +25096,7 @@
         <v>148.6999999999998</v>
       </c>
       <c r="K486" t="n">
-        <v>-20.00000000000004</v>
+        <v>11.11111111111155</v>
       </c>
       <c r="L486" t="n">
         <v>46.45999999999995</v>
@@ -25125,7 +25147,7 @@
         <v>148.7999999999998</v>
       </c>
       <c r="K487" t="n">
-        <v>-15.15151515151536</v>
+        <v>0</v>
       </c>
       <c r="L487" t="n">
         <v>46.45999999999995</v>
@@ -25176,7 +25198,7 @@
         <v>148.8999999999998</v>
       </c>
       <c r="K488" t="n">
-        <v>-18.75000000000028</v>
+        <v>0</v>
       </c>
       <c r="L488" t="n">
         <v>46.46999999999996</v>
@@ -25227,7 +25249,7 @@
         <v>148.8999999999998</v>
       </c>
       <c r="K489" t="n">
-        <v>-18.75000000000028</v>
+        <v>11.11111111111155</v>
       </c>
       <c r="L489" t="n">
         <v>46.46999999999996</v>
@@ -25278,7 +25300,7 @@
         <v>148.9999999999998</v>
       </c>
       <c r="K490" t="n">
-        <v>12.00000000000044</v>
+        <v>33.33333333333465</v>
       </c>
       <c r="L490" t="n">
         <v>46.48999999999995</v>
@@ -25329,7 +25351,7 @@
         <v>149.0999999999998</v>
       </c>
       <c r="K491" t="n">
-        <v>4.000000000000147</v>
+        <v>11.11111111111155</v>
       </c>
       <c r="L491" t="n">
         <v>46.50999999999996</v>
@@ -25380,7 +25402,7 @@
         <v>149.0999999999998</v>
       </c>
       <c r="K492" t="n">
-        <v>-14.28571428571458</v>
+        <v>25.00000000000089</v>
       </c>
       <c r="L492" t="n">
         <v>46.51999999999996</v>
@@ -25431,7 +25453,7 @@
         <v>149.0999999999998</v>
       </c>
       <c r="K493" t="n">
-        <v>0</v>
+        <v>42.85714285714416</v>
       </c>
       <c r="L493" t="n">
         <v>46.53999999999996</v>
@@ -25482,7 +25504,7 @@
         <v>149.2999999999998</v>
       </c>
       <c r="K494" t="n">
-        <v>10.00000000000021</v>
+        <v>55.55555555555696</v>
       </c>
       <c r="L494" t="n">
         <v>46.58999999999996</v>
@@ -25533,7 +25555,7 @@
         <v>149.2999999999998</v>
       </c>
       <c r="K495" t="n">
-        <v>0</v>
+        <v>33.33333333333452</v>
       </c>
       <c r="L495" t="n">
         <v>46.63999999999996</v>
@@ -25584,7 +25606,7 @@
         <v>149.2999999999998</v>
       </c>
       <c r="K496" t="n">
-        <v>12.50000000000022</v>
+        <v>60.00000000000284</v>
       </c>
       <c r="L496" t="n">
         <v>46.65999999999995</v>
@@ -25635,7 +25657,7 @@
         <v>149.8999999999997</v>
       </c>
       <c r="K497" t="n">
-        <v>-14.28571428571458</v>
+        <v>-40.00000000000099</v>
       </c>
       <c r="L497" t="n">
         <v>46.62999999999996</v>
@@ -25686,7 +25708,7 @@
         <v>149.8999999999997</v>
       </c>
       <c r="K498" t="n">
-        <v>-14.28571428571458</v>
+        <v>-40.00000000000099</v>
       </c>
       <c r="L498" t="n">
         <v>46.58999999999996</v>
@@ -25737,7 +25759,7 @@
         <v>149.8999999999997</v>
       </c>
       <c r="K499" t="n">
-        <v>-20.0000000000005</v>
+        <v>-55.55555555555696</v>
       </c>
       <c r="L499" t="n">
         <v>46.54999999999997</v>
@@ -25788,7 +25810,7 @@
         <v>149.9999999999997</v>
       </c>
       <c r="K500" t="n">
-        <v>-20.0000000000005</v>
+        <v>-55.55555555555696</v>
       </c>
       <c r="L500" t="n">
         <v>46.48999999999997</v>
@@ -25839,7 +25861,7 @@
         <v>149.9999999999997</v>
       </c>
       <c r="K501" t="n">
-        <v>-15.7894736842108</v>
+        <v>-55.55555555555696</v>
       </c>
       <c r="L501" t="n">
         <v>46.43999999999997</v>
@@ -25890,7 +25912,7 @@
         <v>150.0999999999997</v>
       </c>
       <c r="K502" t="n">
-        <v>-26.31578947368492</v>
+        <v>-60.00000000000185</v>
       </c>
       <c r="L502" t="n">
         <v>46.37999999999997</v>
@@ -25941,7 +25963,7 @@
         <v>150.5999999999997</v>
       </c>
       <c r="K503" t="n">
-        <v>4.34782608695667</v>
+        <v>-23.07692307692316</v>
       </c>
       <c r="L503" t="n">
         <v>46.36999999999996</v>
@@ -25992,7 +26014,7 @@
         <v>150.5999999999997</v>
       </c>
       <c r="K504" t="n">
-        <v>9.090909090909385</v>
+        <v>-23.07692307692316</v>
       </c>
       <c r="L504" t="n">
         <v>46.33999999999996</v>
@@ -26043,7 +26065,7 @@
         <v>150.5999999999997</v>
       </c>
       <c r="K505" t="n">
-        <v>9.090909090909385</v>
+        <v>-23.07692307692316</v>
       </c>
       <c r="L505" t="n">
         <v>46.30999999999996</v>
@@ -26094,7 +26116,7 @@
         <v>150.5999999999997</v>
       </c>
       <c r="K506" t="n">
-        <v>-5.263157894737058</v>
+        <v>42.85714285714315</v>
       </c>
       <c r="L506" t="n">
         <v>46.27999999999996</v>
@@ -26145,7 +26167,7 @@
         <v>150.5999999999997</v>
       </c>
       <c r="K507" t="n">
-        <v>0</v>
+        <v>42.85714285714315</v>
       </c>
       <c r="L507" t="n">
         <v>46.30999999999996</v>
@@ -26196,7 +26218,7 @@
         <v>150.8999999999997</v>
       </c>
       <c r="K508" t="n">
-        <v>9.999999999999929</v>
+        <v>59.99999999999943</v>
       </c>
       <c r="L508" t="n">
         <v>46.36999999999996</v>
@@ -26247,7 +26269,7 @@
         <v>150.8999999999997</v>
       </c>
       <c r="K509" t="n">
-        <v>9.999999999999929</v>
+        <v>77.77777777777682</v>
       </c>
       <c r="L509" t="n">
         <v>46.42999999999996</v>
@@ -26298,7 +26320,7 @@
         <v>150.8999999999997</v>
       </c>
       <c r="K510" t="n">
-        <v>5.263157894736606</v>
+        <v>77.77777777777682</v>
       </c>
       <c r="L510" t="n">
         <v>46.49999999999996</v>
@@ -26349,7 +26371,7 @@
         <v>150.8999999999997</v>
       </c>
       <c r="K511" t="n">
-        <v>11.11111111111098</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L511" t="n">
         <v>46.56999999999996</v>
@@ -26400,7 +26422,7 @@
         <v>151.2999999999998</v>
       </c>
       <c r="K512" t="n">
-        <v>-9.090909090909268</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L512" t="n">
         <v>46.60999999999997</v>
@@ -26451,7 +26473,7 @@
         <v>151.5999999999998</v>
       </c>
       <c r="K513" t="n">
-        <v>4.000000000000057</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L513" t="n">
         <v>46.62999999999997</v>
@@ -26502,7 +26524,7 @@
         <v>151.7999999999998</v>
       </c>
       <c r="K514" t="n">
-        <v>4.000000000000057</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L514" t="n">
         <v>46.66999999999997</v>
@@ -26553,7 +26575,7 @@
         <v>151.8999999999997</v>
       </c>
       <c r="K515" t="n">
-        <v>0</v>
+        <v>23.07692307692266</v>
       </c>
       <c r="L515" t="n">
         <v>46.69999999999997</v>
@@ -26604,7 +26626,7 @@
         <v>152.0999999999997</v>
       </c>
       <c r="K516" t="n">
-        <v>7.142857142857288</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L516" t="n">
         <v>46.74999999999996</v>
@@ -26655,7 +26677,7 @@
         <v>152.3999999999997</v>
       </c>
       <c r="K517" t="n">
-        <v>43.99999999999977</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L517" t="n">
         <v>46.82999999999996</v>
@@ -26706,7 +26728,7 @@
         <v>152.6999999999998</v>
       </c>
       <c r="K518" t="n">
-        <v>49.99999999999974</v>
+        <v>44.4444444444444</v>
       </c>
       <c r="L518" t="n">
         <v>46.90999999999996</v>
@@ -26757,7 +26779,7 @@
         <v>152.7999999999998</v>
       </c>
       <c r="K519" t="n">
-        <v>51.72413793103438</v>
+        <v>47.36842105263174</v>
       </c>
       <c r="L519" t="n">
         <v>46.99999999999996</v>
@@ -26808,7 +26830,7 @@
         <v>152.7999999999998</v>
       </c>
       <c r="K520" t="n">
-        <v>57.14285714285696</v>
+        <v>47.36842105263174</v>
       </c>
       <c r="L520" t="n">
         <v>47.08999999999996</v>
@@ -26859,7 +26881,7 @@
         <v>152.8999999999997</v>
       </c>
       <c r="K521" t="n">
-        <v>51.72413793103438</v>
+        <v>75.00000000000044</v>
       </c>
       <c r="L521" t="n">
         <v>47.16999999999995</v>
@@ -26910,7 +26932,7 @@
         <v>152.8999999999997</v>
       </c>
       <c r="K522" t="n">
-        <v>57.14285714285696</v>
+        <v>69.23076923077002</v>
       </c>
       <c r="L522" t="n">
         <v>47.28999999999995</v>
@@ -26961,7 +26983,7 @@
         <v>153.3999999999997</v>
       </c>
       <c r="K523" t="n">
-        <v>21.42857142857139</v>
+        <v>12.50000000000022</v>
       </c>
       <c r="L523" t="n">
         <v>47.32999999999996</v>
@@ -27012,7 +27034,7 @@
         <v>153.4999999999997</v>
       </c>
       <c r="K524" t="n">
-        <v>24.13793103448281</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L524" t="n">
         <v>47.35999999999996</v>
@@ -27063,7 +27085,7 @@
         <v>153.5999999999997</v>
       </c>
       <c r="K525" t="n">
-        <v>20.00000000000005</v>
+        <v>6.666666666666761</v>
       </c>
       <c r="L525" t="n">
         <v>47.38999999999996</v>
@@ -27114,7 +27136,7 @@
         <v>153.8999999999997</v>
       </c>
       <c r="K526" t="n">
-        <v>27.27272727272714</v>
+        <v>6.666666666666761</v>
       </c>
       <c r="L526" t="n">
         <v>47.42999999999996</v>
@@ -27165,7 +27187,7 @@
         <v>153.9999999999997</v>
       </c>
       <c r="K527" t="n">
-        <v>23.52941176470576</v>
+        <v>-23.07692307692371</v>
       </c>
       <c r="L527" t="n">
         <v>47.42999999999996</v>
@@ -27216,7 +27238,7 @@
         <v>154.0999999999997</v>
       </c>
       <c r="K528" t="n">
-        <v>12.50000000000022</v>
+        <v>-38.46153846153897</v>
       </c>
       <c r="L528" t="n">
         <v>47.38999999999995</v>
@@ -27267,7 +27289,7 @@
         <v>154.6999999999997</v>
       </c>
       <c r="K529" t="n">
-        <v>26.31578947368433</v>
+        <v>5.263157894736606</v>
       </c>
       <c r="L529" t="n">
         <v>47.39999999999995</v>
@@ -27318,7 +27340,7 @@
         <v>154.7999999999997</v>
       </c>
       <c r="K530" t="n">
-        <v>28.2051282051284</v>
+        <v>15.78947368421056</v>
       </c>
       <c r="L530" t="n">
         <v>47.41999999999995</v>
@@ -27369,7 +27391,7 @@
         <v>155.2999999999997</v>
       </c>
       <c r="K531" t="n">
-        <v>36.36363636363658</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L531" t="n">
         <v>47.49999999999996</v>
@@ -27420,7 +27442,7 @@
         <v>155.5999999999997</v>
       </c>
       <c r="K532" t="n">
-        <v>39.53488372093046</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L532" t="n">
         <v>47.54999999999995</v>
@@ -27471,7 +27493,7 @@
         <v>156.1999999999997</v>
       </c>
       <c r="K533" t="n">
-        <v>17.39130434782615</v>
+        <v>11.11111111111105</v>
       </c>
       <c r="L533" t="n">
         <v>47.58999999999995</v>
@@ -27522,7 +27544,7 @@
         <v>156.1999999999997</v>
       </c>
       <c r="K534" t="n">
-        <v>13.63636363636374</v>
+        <v>15.38461538461536</v>
       </c>
       <c r="L534" t="n">
         <v>47.61999999999995</v>
@@ -27573,7 +27595,7 @@
         <v>156.1999999999997</v>
       </c>
       <c r="K535" t="n">
-        <v>16.27906976744199</v>
+        <v>4.347826086956616</v>
       </c>
       <c r="L535" t="n">
         <v>47.65999999999995</v>
@@ -27624,7 +27646,7 @@
         <v>156.4999999999997</v>
       </c>
       <c r="K536" t="n">
-        <v>4.545454545454634</v>
+        <v>-3.999999999999818</v>
       </c>
       <c r="L536" t="n">
         <v>47.63999999999997</v>
@@ -27675,7 +27697,7 @@
         <v>156.5999999999997</v>
       </c>
       <c r="K537" t="n">
-        <v>-4.761904761904705</v>
+        <v>-4.000000000000102</v>
       </c>
       <c r="L537" t="n">
         <v>47.61999999999996</v>
@@ -27726,7 +27748,7 @@
         <v>156.8999999999997</v>
       </c>
       <c r="K538" t="n">
-        <v>-4.761904761904907</v>
+        <v>-18.18181818181845</v>
       </c>
       <c r="L538" t="n">
         <v>47.63999999999997</v>
@@ -27777,7 +27799,7 @@
         <v>157.3999999999997</v>
       </c>
       <c r="K539" t="n">
-        <v>4.347826086956489</v>
+        <v>0</v>
       </c>
       <c r="L539" t="n">
         <v>47.64999999999997</v>
@@ -27828,7 +27850,7 @@
         <v>157.8999999999997</v>
       </c>
       <c r="K540" t="n">
-        <v>-5.882352941176626</v>
+        <v>-38.46153846153897</v>
       </c>
       <c r="L540" t="n">
         <v>47.59999999999998</v>
@@ -27879,7 +27901,7 @@
         <v>158.0999999999997</v>
       </c>
       <c r="K541" t="n">
-        <v>0</v>
+        <v>-20.00000000000045</v>
       </c>
       <c r="L541" t="n">
         <v>47.51999999999998</v>
@@ -27930,7 +27952,7 @@
         <v>158.0999999999997</v>
       </c>
       <c r="K542" t="n">
-        <v>0</v>
+        <v>5.263157894737058</v>
       </c>
       <c r="L542" t="n">
         <v>47.46999999999998</v>
@@ -27981,7 +28003,7 @@
         <v>158.0999999999997</v>
       </c>
       <c r="K543" t="n">
-        <v>10.63829787234058</v>
+        <v>5.263157894737058</v>
       </c>
       <c r="L543" t="n">
         <v>47.47999999999998</v>
@@ -28032,7 +28054,7 @@
         <v>158.6999999999997</v>
       </c>
       <c r="K544" t="n">
-        <v>-3.846153846153951</v>
+        <v>-20.00000000000045</v>
       </c>
       <c r="L544" t="n">
         <v>47.42999999999999</v>
@@ -28083,7 +28105,7 @@
         <v>158.7999999999997</v>
       </c>
       <c r="K545" t="n">
-        <v>-3.846153846153951</v>
+        <v>-13.04347826087001</v>
       </c>
       <c r="L545" t="n">
         <v>47.36999999999998</v>
@@ -28134,7 +28156,7 @@
         <v>158.8999999999997</v>
       </c>
       <c r="K546" t="n">
-        <v>-8.000000000000108</v>
+        <v>-4.34782608695667</v>
       </c>
       <c r="L546" t="n">
         <v>47.34999999999998</v>
@@ -28185,7 +28207,7 @@
         <v>159.3999999999997</v>
       </c>
       <c r="K547" t="n">
-        <v>3.703703703703811</v>
+        <v>4.000000000000102</v>
       </c>
       <c r="L547" t="n">
         <v>47.38999999999997</v>
@@ -28236,7 +28258,7 @@
         <v>159.8999999999997</v>
       </c>
       <c r="K548" t="n">
-        <v>-3.448275862069059</v>
+        <v>-36.00000000000036</v>
       </c>
       <c r="L548" t="n">
         <v>47.34999999999998</v>
@@ -28287,7 +28309,7 @@
         <v>159.8999999999997</v>
       </c>
       <c r="K549" t="n">
-        <v>-15.38461538461553</v>
+        <v>-20.00000000000021</v>
       </c>
       <c r="L549" t="n">
         <v>47.25999999999998</v>
@@ -28338,7 +28360,7 @@
         <v>160.0999999999997</v>
       </c>
       <c r="K550" t="n">
-        <v>-13.20754716981135</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L550" t="n">
         <v>47.23999999999999</v>
@@ -28389,7 +28411,7 @@
         <v>160.0999999999997</v>
       </c>
       <c r="K551" t="n">
-        <v>-25.00000000000015</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L551" t="n">
         <v>47.19999999999999</v>
@@ -28440,7 +28462,7 @@
         <v>160.0999999999997</v>
       </c>
       <c r="K552" t="n">
-        <v>-20.00000000000022</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L552" t="n">
         <v>47.15999999999999</v>
@@ -28491,7 +28513,7 @@
         <v>160.5999999999997</v>
       </c>
       <c r="K553" t="n">
-        <v>-18.18181818181833</v>
+        <v>-15.78947368421033</v>
       </c>
       <c r="L553" t="n">
         <v>47.06999999999999</v>
@@ -28542,7 +28564,7 @@
         <v>160.7999999999997</v>
       </c>
       <c r="K554" t="n">
-        <v>-13.04347826086977</v>
+        <v>0</v>
       </c>
       <c r="L554" t="n">
         <v>47.05999999999999</v>
@@ -28593,7 +28615,7 @@
         <v>160.8999999999997</v>
       </c>
       <c r="K555" t="n">
-        <v>-10.63829787234058</v>
+        <v>0</v>
       </c>
       <c r="L555" t="n">
         <v>47.06999999999999</v>
@@ -28644,7 +28666,7 @@
         <v>161.2999999999997</v>
       </c>
       <c r="K556" t="n">
-        <v>4.166666666666617</v>
+        <v>-5.263157894736901</v>
       </c>
       <c r="L556" t="n">
         <v>47.10999999999999</v>
@@ -28695,7 +28717,7 @@
         <v>161.5999999999997</v>
       </c>
       <c r="K557" t="n">
-        <v>0</v>
+        <v>5.882352941176496</v>
       </c>
       <c r="L557" t="n">
         <v>47.06999999999999</v>
@@ -28746,7 +28768,7 @@
         <v>161.7999999999997</v>
       </c>
       <c r="K558" t="n">
-        <v>-2.04081632653065</v>
+        <v>15.78947368421033</v>
       </c>
       <c r="L558" t="n">
         <v>47.09999999999999</v>
@@ -28797,7 +28819,7 @@
         <v>161.7999999999997</v>
       </c>
       <c r="K559" t="n">
-        <v>-13.63636363636374</v>
+        <v>5.882352941176175</v>
       </c>
       <c r="L559" t="n">
         <v>47.12999999999998</v>
@@ -28848,7 +28870,7 @@
         <v>161.7999999999997</v>
       </c>
       <c r="K560" t="n">
-        <v>-2.564102564102615</v>
+        <v>5.882352941176175</v>
       </c>
       <c r="L560" t="n">
         <v>47.13999999999998</v>
@@ -28899,7 +28921,7 @@
         <v>161.7999999999997</v>
       </c>
       <c r="K561" t="n">
-        <v>-8.108108108108249</v>
+        <v>5.882352941176175</v>
       </c>
       <c r="L561" t="n">
         <v>47.14999999999998</v>
@@ -28950,7 +28972,7 @@
         <v>162.0999999999997</v>
       </c>
       <c r="K562" t="n">
-        <v>-15.00000000000004</v>
+        <v>19.99999999999981</v>
       </c>
       <c r="L562" t="n">
         <v>47.12999999999998</v>
@@ -29001,7 +29023,7 @@
         <v>162.2999999999997</v>
       </c>
       <c r="K563" t="n">
-        <v>-19.0476190476192</v>
+        <v>-6.666666666666761</v>
       </c>
       <c r="L563" t="n">
         <v>47.13999999999998</v>
@@ -29052,7 +29074,7 @@
         <v>162.3999999999997</v>
       </c>
       <c r="K564" t="n">
-        <v>-2.702702702702749</v>
+        <v>-6.666666666666761</v>
       </c>
       <c r="L564" t="n">
         <v>47.13999999999999</v>
@@ -29103,7 +29125,7 @@
         <v>162.5999999999997</v>
       </c>
       <c r="K565" t="n">
-        <v>-5.263157894736754</v>
+        <v>-53.84615384615422</v>
       </c>
       <c r="L565" t="n">
         <v>47.10999999999999</v>
@@ -29154,7 +29176,7 @@
         <v>162.8999999999996</v>
       </c>
       <c r="K566" t="n">
-        <v>0</v>
+        <v>-7.69230769230807</v>
       </c>
       <c r="L566" t="n">
         <v>47.06999999999999</v>
@@ -29205,7 +29227,7 @@
         <v>162.8999999999996</v>
       </c>
       <c r="K567" t="n">
-        <v>-14.2857142857144</v>
+        <v>-27.27272727272786</v>
       </c>
       <c r="L567" t="n">
         <v>47.05999999999999</v>
@@ -29256,7 +29278,7 @@
         <v>163.0999999999996</v>
       </c>
       <c r="K568" t="n">
-        <v>6.250000000000167</v>
+        <v>-7.692307692307525</v>
       </c>
       <c r="L568" t="n">
         <v>47.05</v>
@@ -29307,7 +29329,7 @@
         <v>163.0999999999996</v>
       </c>
       <c r="K569" t="n">
-        <v>6.250000000000167</v>
+        <v>-7.692307692307525</v>
       </c>
       <c r="L569" t="n">
         <v>47.03999999999999</v>
@@ -29358,7 +29380,7 @@
         <v>163.0999999999996</v>
       </c>
       <c r="K570" t="n">
-        <v>0</v>
+        <v>-7.692307692307525</v>
       </c>
       <c r="L570" t="n">
         <v>47.02999999999999</v>
@@ -29409,7 +29431,7 @@
         <v>163.1999999999996</v>
       </c>
       <c r="K571" t="n">
-        <v>3.225806451612785</v>
+        <v>27.27272727272856</v>
       </c>
       <c r="L571" t="n">
         <v>47.02999999999999</v>
@@ -29460,7 +29482,7 @@
         <v>163.4999999999996</v>
       </c>
       <c r="K572" t="n">
-        <v>-5.882352941176692</v>
+        <v>16.66666666666785</v>
       </c>
       <c r="L572" t="n">
         <v>47.02999999999999</v>
@@ -29511,7 +29533,7 @@
         <v>163.6999999999996</v>
       </c>
       <c r="K573" t="n">
-        <v>16.12903225806499</v>
+        <v>23.07692307692471</v>
       </c>
       <c r="L573" t="n">
         <v>47.07</v>
@@ -29562,7 +29584,7 @@
         <v>163.6999999999996</v>
       </c>
       <c r="K574" t="n">
-        <v>10.34482758620733</v>
+        <v>45.45454545454804</v>
       </c>
       <c r="L574" t="n">
         <v>47.1</v>
@@ -29664,7 +29686,7 @@
         <v>163.9999999999996</v>
       </c>
       <c r="K576" t="n">
-        <v>-18.51851851851918</v>
+        <v>-9.090909090909737</v>
       </c>
       <c r="L576" t="n">
         <v>47.12</v>
@@ -29715,7 +29737,7 @@
         <v>163.9999999999996</v>
       </c>
       <c r="K577" t="n">
-        <v>-8.333333333333828</v>
+        <v>-33.3333333333357</v>
       </c>
       <c r="L577" t="n">
         <v>47.11</v>
@@ -29766,7 +29788,7 @@
         <v>163.9999999999996</v>
       </c>
       <c r="K578" t="n">
-        <v>-18.18181818181892</v>
+        <v>-33.3333333333357</v>
       </c>
       <c r="L578" t="n">
         <v>47.08</v>
@@ -29817,7 +29839,7 @@
         <v>164.0999999999996</v>
       </c>
       <c r="K579" t="n">
-        <v>-21.73913043478358</v>
+        <v>-40.00000000000284</v>
       </c>
       <c r="L579" t="n">
         <v>47.04000000000001</v>
@@ -29868,7 +29890,7 @@
         <v>164.0999999999996</v>
       </c>
       <c r="K580" t="n">
-        <v>-21.73913043478358</v>
+        <v>-55.55555555555871</v>
       </c>
       <c r="L580" t="n">
         <v>47.00000000000001</v>
@@ -29919,7 +29941,7 @@
         <v>164.2999999999996</v>
       </c>
       <c r="K581" t="n">
-        <v>-12.00000000000043</v>
+        <v>0</v>
       </c>
       <c r="L581" t="n">
         <v>46.97</v>
@@ -29970,7 +29992,7 @@
         <v>164.4999999999995</v>
       </c>
       <c r="K582" t="n">
-        <v>-8.333333333333925</v>
+        <v>-50.00000000000355</v>
       </c>
       <c r="L582" t="n">
         <v>46.95</v>
@@ -30021,7 +30043,7 @@
         <v>164.6999999999995</v>
       </c>
       <c r="K583" t="n">
-        <v>8.333333333333925</v>
+        <v>-20.00000000000142</v>
       </c>
       <c r="L583" t="n">
         <v>46.93</v>
@@ -30072,7 +30094,7 @@
         <v>164.7999999999995</v>
       </c>
       <c r="K584" t="n">
-        <v>0</v>
+        <v>-11.1111111111119</v>
       </c>
       <c r="L584" t="n">
         <v>46.90000000000001</v>
@@ -30123,7 +30145,7 @@
         <v>164.8999999999995</v>
       </c>
       <c r="K585" t="n">
-        <v>13.04347826087018</v>
+        <v>11.1111111111119</v>
       </c>
       <c r="L585" t="n">
         <v>46.9</v>
@@ -30174,7 +30196,7 @@
         <v>164.9999999999995</v>
       </c>
       <c r="K586" t="n">
-        <v>-4.7619047619051</v>
+        <v>0</v>
       </c>
       <c r="L586" t="n">
         <v>46.9</v>
@@ -30276,7 +30298,7 @@
         <v>165.0999999999995</v>
       </c>
       <c r="K588" t="n">
-        <v>-20.00000000000142</v>
+        <v>0</v>
       </c>
       <c r="L588" t="n">
         <v>46.88</v>
@@ -30327,7 +30349,7 @@
         <v>165.1999999999995</v>
       </c>
       <c r="K589" t="n">
-        <v>-23.80952380952516</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L589" t="n">
         <v>46.87</v>
@@ -30378,7 +30400,7 @@
         <v>165.3999999999995</v>
       </c>
       <c r="K590" t="n">
-        <v>-30.43478260869713</v>
+        <v>-45.45454545454686</v>
       </c>
       <c r="L590" t="n">
         <v>46.84</v>
@@ -30429,7 +30451,7 @@
         <v>165.8999999999995</v>
       </c>
       <c r="K591" t="n">
-        <v>-11.1111111111114</v>
+        <v>14.28571428571472</v>
       </c>
       <c r="L591" t="n">
         <v>46.84000000000001</v>
@@ -30480,7 +30502,7 @@
         <v>166.0999999999995</v>
       </c>
       <c r="K592" t="n">
-        <v>-7.69230769230807</v>
+        <v>-14.28571428571472</v>
       </c>
       <c r="L592" t="n">
         <v>46.84</v>
@@ -30531,7 +30553,7 @@
         <v>166.2999999999995</v>
       </c>
       <c r="K593" t="n">
-        <v>-23.07692307692394</v>
+        <v>-20.00000000000019</v>
       </c>
       <c r="L593" t="n">
         <v>46.8</v>
@@ -30582,7 +30604,7 @@
         <v>166.3999999999995</v>
       </c>
       <c r="K594" t="n">
-        <v>-18.51851851851918</v>
+        <v>-20.00000000000019</v>
       </c>
       <c r="L594" t="n">
         <v>46.78000000000001</v>
@@ -30633,7 +30655,7 @@
         <v>166.3999999999995</v>
       </c>
       <c r="K595" t="n">
-        <v>-12.00000000000029</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L595" t="n">
         <v>46.75000000000001</v>
@@ -30684,7 +30706,7 @@
         <v>166.6999999999995</v>
       </c>
       <c r="K596" t="n">
-        <v>3.703703703703889</v>
+        <v>12.50000000000044</v>
       </c>
       <c r="L596" t="n">
         <v>46.76000000000001</v>
@@ -30735,7 +30757,7 @@
         <v>166.6999999999995</v>
       </c>
       <c r="K597" t="n">
-        <v>3.703703703703889</v>
+        <v>12.50000000000044</v>
       </c>
       <c r="L597" t="n">
         <v>46.78000000000002</v>
@@ -30786,7 +30808,7 @@
         <v>166.7999999999995</v>
       </c>
       <c r="K598" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="L598" t="n">
         <v>46.79000000000001</v>
@@ -30837,7 +30859,7 @@
         <v>166.7999999999995</v>
       </c>
       <c r="K599" t="n">
-        <v>3.703703703703889</v>
+        <v>28.57142857142951</v>
       </c>
       <c r="L599" t="n">
         <v>46.81000000000002</v>
@@ -30888,7 +30910,7 @@
         <v>166.8999999999995</v>
       </c>
       <c r="K600" t="n">
-        <v>0</v>
+        <v>-20.00000000000142</v>
       </c>
       <c r="L600" t="n">
         <v>46.84000000000002</v>
@@ -30939,7 +30961,7 @@
         <v>166.9999999999995</v>
       </c>
       <c r="K601" t="n">
-        <v>-11.1111111111114</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L601" t="n">
         <v>46.81000000000002</v>
@@ -30990,7 +31012,7 @@
         <v>167.0999999999995</v>
       </c>
       <c r="K602" t="n">
-        <v>-7.692307692307796</v>
+        <v>0</v>
       </c>
       <c r="L602" t="n">
         <v>46.79000000000003</v>
@@ -31041,7 +31063,7 @@
         <v>167.2999999999994</v>
       </c>
       <c r="K603" t="n">
-        <v>-23.07692307692394</v>
+        <v>-33.3333333333357</v>
       </c>
       <c r="L603" t="n">
         <v>46.77000000000002</v>
@@ -31092,7 +31114,7 @@
         <v>167.2999999999994</v>
       </c>
       <c r="K604" t="n">
-        <v>-20.00000000000068</v>
+        <v>-33.3333333333357</v>
       </c>
       <c r="L604" t="n">
         <v>46.74000000000002</v>
@@ -31143,7 +31165,7 @@
         <v>167.2999999999994</v>
       </c>
       <c r="K605" t="n">
-        <v>-25.00000000000089</v>
+        <v>-100.0000000000059</v>
       </c>
       <c r="L605" t="n">
         <v>46.71000000000003</v>
@@ -31194,7 +31216,7 @@
         <v>167.4999999999994</v>
       </c>
       <c r="K606" t="n">
-        <v>-28.00000000000079</v>
+        <v>-100.0000000000053</v>
       </c>
       <c r="L606" t="n">
         <v>46.63000000000003</v>
@@ -31245,7 +31267,7 @@
         <v>167.9999999999994</v>
       </c>
       <c r="K607" t="n">
-        <v>-37.93103448275946</v>
+        <v>-100.000000000003</v>
       </c>
       <c r="L607" t="n">
         <v>46.50000000000004</v>
@@ -31296,7 +31318,7 @@
         <v>168.1999999999994</v>
       </c>
       <c r="K608" t="n">
-        <v>-41.93548387096888</v>
+        <v>-100.0000000000036</v>
       </c>
       <c r="L608" t="n">
         <v>46.36000000000003</v>
@@ -31347,7 +31369,7 @@
         <v>168.9999999999994</v>
       </c>
       <c r="K609" t="n">
-        <v>-10.52631578947404</v>
+        <v>-23.8095238095242</v>
       </c>
       <c r="L609" t="n">
         <v>46.30000000000004</v>
@@ -31398,7 +31420,7 @@
         <v>169.0999999999994</v>
       </c>
       <c r="K610" t="n">
-        <v>-8.108108108108244</v>
+        <v>-23.8095238095242</v>
       </c>
       <c r="L610" t="n">
         <v>46.24000000000004</v>
@@ -31449,7 +31471,7 @@
         <v>169.2999999999994</v>
       </c>
       <c r="K611" t="n">
-        <v>-17.64705882353002</v>
+        <v>-9.090909090909385</v>
       </c>
       <c r="L611" t="n">
         <v>46.21000000000004</v>
@@ -31500,7 +31522,7 @@
         <v>169.3999999999994</v>
       </c>
       <c r="K612" t="n">
-        <v>-9.090909090909287</v>
+        <v>4.761904761904907</v>
       </c>
       <c r="L612" t="n">
         <v>46.20000000000003</v>
@@ -31551,7 +31573,7 @@
         <v>169.5999999999994</v>
       </c>
       <c r="K613" t="n">
-        <v>-9.090909090909502</v>
+        <v>-4.34782608695667</v>
       </c>
       <c r="L613" t="n">
         <v>46.19000000000004</v>
@@ -31602,7 +31624,7 @@
         <v>169.5999999999994</v>
       </c>
       <c r="K614" t="n">
-        <v>-12.50000000000055</v>
+        <v>-4.34782608695667</v>
       </c>
       <c r="L614" t="n">
         <v>46.18000000000004</v>
@@ -31653,7 +31675,7 @@
         <v>169.5999999999994</v>
       </c>
       <c r="K615" t="n">
-        <v>-12.50000000000055</v>
+        <v>4.761904761904569</v>
       </c>
       <c r="L615" t="n">
         <v>46.17000000000004</v>
@@ -31704,7 +31726,7 @@
         <v>169.6999999999994</v>
       </c>
       <c r="K616" t="n">
-        <v>-20.00000000000061</v>
+        <v>41.17647058823601</v>
       </c>
       <c r="L616" t="n">
         <v>46.19000000000004</v>
@@ -31755,7 +31777,7 @@
         <v>169.7999999999994</v>
       </c>
       <c r="K617" t="n">
-        <v>-16.12903225806499</v>
+        <v>62.50000000000134</v>
       </c>
       <c r="L617" t="n">
         <v>46.27000000000005</v>
@@ -31806,7 +31828,7 @@
         <v>170.1999999999994</v>
       </c>
       <c r="K618" t="n">
-        <v>0</v>
+        <v>50.00000000000178</v>
       </c>
       <c r="L618" t="n">
         <v>46.41000000000004</v>
@@ -31857,7 +31879,7 @@
         <v>170.2999999999994</v>
       </c>
       <c r="K619" t="n">
-        <v>2.857142857142967</v>
+        <v>66.66666666666863</v>
       </c>
       <c r="L619" t="n">
         <v>46.48000000000004</v>
@@ -31908,7 +31930,7 @@
         <v>170.8999999999994</v>
       </c>
       <c r="K620" t="n">
-        <v>-10.00000000000018</v>
+        <v>0</v>
       </c>
       <c r="L620" t="n">
         <v>46.50000000000004</v>
@@ -31959,7 +31981,7 @@
         <v>171.2999999999994</v>
       </c>
       <c r="K621" t="n">
-        <v>2.325581395348745</v>
+        <v>15.78947368421056</v>
       </c>
       <c r="L621" t="n">
         <v>46.54000000000004</v>
@@ -32010,7 +32032,7 @@
         <v>171.2999999999994</v>
       </c>
       <c r="K622" t="n">
-        <v>4.761904761904738</v>
+        <v>29.41176470588255</v>
       </c>
       <c r="L622" t="n">
         <v>46.57000000000004</v>
@@ -32061,7 +32083,7 @@
         <v>171.5999999999994</v>
       </c>
       <c r="K623" t="n">
-        <v>2.325581395348895</v>
+        <v>10.00000000000014</v>
       </c>
       <c r="L623" t="n">
         <v>46.59000000000004</v>
@@ -32112,7 +32134,7 @@
         <v>171.5999999999994</v>
       </c>
       <c r="K624" t="n">
-        <v>2.325581395348895</v>
+        <v>10.00000000000014</v>
       </c>
       <c r="L624" t="n">
         <v>46.61000000000003</v>
@@ -32214,7 +32236,7 @@
         <v>171.6999999999994</v>
       </c>
       <c r="K626" t="n">
-        <v>4.761904761904705</v>
+        <v>-5.263157894736901</v>
       </c>
       <c r="L626" t="n">
         <v>46.62000000000004</v>
@@ -32265,7 +32287,7 @@
         <v>171.6999999999994</v>
       </c>
       <c r="K627" t="n">
-        <v>18.918918918919</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L627" t="n">
         <v>46.61000000000003</v>
@@ -32316,7 +32338,7 @@
         <v>171.6999999999994</v>
       </c>
       <c r="K628" t="n">
-        <v>25.71428571428588</v>
+        <v>-42.85714285714278</v>
       </c>
       <c r="L628" t="n">
         <v>46.56000000000004</v>
@@ -32367,7 +32389,7 @@
         <v>171.7999999999994</v>
       </c>
       <c r="K629" t="n">
-        <v>0</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L629" t="n">
         <v>46.49000000000004</v>
@@ -32418,7 +32440,7 @@
         <v>171.8999999999994</v>
       </c>
       <c r="K630" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L630" t="n">
         <v>46.47000000000004</v>
@@ -32469,7 +32491,7 @@
         <v>171.9999999999994</v>
       </c>
       <c r="K631" t="n">
-        <v>-11.11111111111117</v>
+        <v>-100.000000000001</v>
       </c>
       <c r="L631" t="n">
         <v>46.40000000000004</v>
@@ -32520,7 +32542,7 @@
         <v>171.9999999999994</v>
       </c>
       <c r="K632" t="n">
-        <v>-15.38461538461553</v>
+        <v>-100.0000000000053</v>
       </c>
       <c r="L632" t="n">
         <v>46.33000000000004</v>
@@ -32571,7 +32593,7 @@
         <v>172.0999999999994</v>
       </c>
       <c r="K633" t="n">
-        <v>-3.999999999999818</v>
+        <v>-60.00000000000284</v>
       </c>
       <c r="L633" t="n">
         <v>46.30000000000004</v>
@@ -32622,7 +32644,7 @@
         <v>172.3999999999994</v>
       </c>
       <c r="K634" t="n">
-        <v>7.14285714285736</v>
+        <v>14.2857142857153</v>
       </c>
       <c r="L634" t="n">
         <v>46.30000000000004</v>
@@ -32673,7 +32695,7 @@
         <v>172.5999999999993</v>
       </c>
       <c r="K635" t="n">
-        <v>13.33333333333377</v>
+        <v>33.3333333333357</v>
       </c>
       <c r="L635" t="n">
         <v>46.33000000000004</v>
@@ -32724,7 +32746,7 @@
         <v>172.8999999999994</v>
       </c>
       <c r="K636" t="n">
-        <v>18.75000000000028</v>
+        <v>50.00000000000178</v>
       </c>
       <c r="L636" t="n">
         <v>46.39000000000004</v>
@@ -32775,7 +32797,7 @@
         <v>173.1999999999994</v>
       </c>
       <c r="K637" t="n">
-        <v>23.52941176470596</v>
+        <v>60.00000000000104</v>
       </c>
       <c r="L637" t="n">
         <v>46.48000000000005</v>
@@ -32826,7 +32848,7 @@
         <v>173.3999999999994</v>
       </c>
       <c r="K638" t="n">
-        <v>18.75000000000028</v>
+        <v>75.00000000000178</v>
       </c>
       <c r="L638" t="n">
         <v>46.59000000000005</v>
@@ -32877,7 +32899,7 @@
         <v>173.4999999999993</v>
       </c>
       <c r="K639" t="n">
-        <v>18.75000000000028</v>
+        <v>87.50000000000178</v>
       </c>
       <c r="L639" t="n">
         <v>46.72000000000004</v>
@@ -32928,7 +32950,7 @@
         <v>173.4999999999993</v>
       </c>
       <c r="K640" t="n">
-        <v>46.15384615384686</v>
+        <v>100.0000000000019</v>
       </c>
       <c r="L640" t="n">
         <v>46.86000000000004</v>
@@ -32979,7 +33001,7 @@
         <v>174.2999999999994</v>
       </c>
       <c r="K641" t="n">
-        <v>0</v>
+        <v>30.43478260869569</v>
       </c>
       <c r="L641" t="n">
         <v>46.93000000000004</v>
@@ -33030,7 +33052,7 @@
         <v>174.9999999999994</v>
       </c>
       <c r="K642" t="n">
-        <v>18.91891891891905</v>
+        <v>44.82758620689636</v>
       </c>
       <c r="L642" t="n">
         <v>47.07000000000004</v>
@@ -33081,7 +33103,7 @@
         <v>175.0999999999994</v>
       </c>
       <c r="K643" t="n">
-        <v>25.71428571428588</v>
+        <v>33.33333333333307</v>
       </c>
       <c r="L643" t="n">
         <v>47.19000000000004</v>
@@ -33132,7 +33154,7 @@
         <v>175.9999999999994</v>
       </c>
       <c r="K644" t="n">
-        <v>0</v>
+        <v>-5.882352941176496</v>
       </c>
       <c r="L644" t="n">
         <v>47.19000000000003</v>
@@ -33183,7 +33205,7 @@
         <v>177.1999999999994</v>
       </c>
       <c r="K645" t="n">
-        <v>23.63636363636384</v>
+        <v>16.27906976744188</v>
       </c>
       <c r="L645" t="n">
         <v>47.29000000000003</v>
@@ -33234,7 +33256,7 @@
         <v>177.4999999999994</v>
       </c>
       <c r="K646" t="n">
-        <v>17.24137931034488</v>
+        <v>2.325581395348864</v>
       </c>
       <c r="L646" t="n">
         <v>47.33000000000004</v>
@@ -33285,7 +33307,7 @@
         <v>177.5999999999994</v>
       </c>
       <c r="K647" t="n">
-        <v>15.25423728813563</v>
+        <v>-4.76190476190481</v>
       </c>
       <c r="L647" t="n">
         <v>47.33000000000003</v>
@@ -33336,7 +33358,7 @@
         <v>177.5999999999994</v>
       </c>
       <c r="K648" t="n">
-        <v>15.25423728813563</v>
+        <v>-7.317073170731771</v>
       </c>
       <c r="L648" t="n">
         <v>47.31000000000004</v>
@@ -33387,7 +33409,7 @@
         <v>177.9999999999994</v>
       </c>
       <c r="K649" t="n">
-        <v>9.677419354838749</v>
+        <v>-15.55555555555552</v>
       </c>
       <c r="L649" t="n">
         <v>47.24000000000003</v>
@@ -33438,7 +33460,7 @@
         <v>178.0999999999994</v>
       </c>
       <c r="K650" t="n">
-        <v>12.90322580645159</v>
+        <v>5.263157894736901</v>
       </c>
       <c r="L650" t="n">
         <v>47.18000000000003</v>
@@ -33489,7 +33511,7 @@
         <v>178.1999999999994</v>
       </c>
       <c r="K651" t="n">
-        <v>12.90322580645159</v>
+        <v>-18.75000000000011</v>
       </c>
       <c r="L651" t="n">
         <v>47.19000000000003</v>
@@ -33540,7 +33562,7 @@
         <v>178.1999999999994</v>
       </c>
       <c r="K652" t="n">
-        <v>12.90322580645159</v>
+        <v>-16.12903225806455</v>
       </c>
       <c r="L652" t="n">
         <v>47.13000000000003</v>
@@ -33591,7 +33613,7 @@
         <v>178.4999999999994</v>
       </c>
       <c r="K653" t="n">
-        <v>15.62499999999999</v>
+        <v>28.00000000000011</v>
       </c>
       <c r="L653" t="n">
         <v>47.11000000000003</v>
@@ -33642,7 +33664,7 @@
         <v>178.4999999999994</v>
       </c>
       <c r="K654" t="n">
-        <v>11.47540983606558</v>
+        <v>-38.46153846153813</v>
       </c>
       <c r="L654" t="n">
         <v>47.18000000000004</v>
@@ -33693,7 +33715,7 @@
         <v>178.5999999999994</v>
       </c>
       <c r="K655" t="n">
-        <v>9.999999999999858</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L655" t="n">
         <v>47.14000000000004</v>
@@ -33744,7 +33766,7 @@
         <v>178.8999999999994</v>
       </c>
       <c r="K656" t="n">
-        <v>0</v>
+        <v>-23.07692307692316</v>
       </c>
       <c r="L656" t="n">
         <v>47.10000000000004</v>
@@ -33795,7 +33817,7 @@
         <v>179.0999999999993</v>
       </c>
       <c r="K657" t="n">
-        <v>-1.694915254237198</v>
+        <v>-6.666666666666414</v>
       </c>
       <c r="L657" t="n">
         <v>47.09000000000004</v>
@@ -33846,7 +33868,7 @@
         <v>179.2999999999993</v>
       </c>
       <c r="K658" t="n">
-        <v>-8.474576271186473</v>
+        <v>7.69230769230807</v>
       </c>
       <c r="L658" t="n">
         <v>47.06000000000003</v>
@@ -33897,7 +33919,7 @@
         <v>179.5999999999993</v>
       </c>
       <c r="K659" t="n">
-        <v>-4.91803278688532</v>
+        <v>20.00000000000019</v>
       </c>
       <c r="L659" t="n">
         <v>47.10000000000004</v>
@@ -33948,7 +33970,7 @@
         <v>179.8999999999994</v>
       </c>
       <c r="K660" t="n">
-        <v>-9.375000000000014</v>
+        <v>5.882352941176594</v>
       </c>
       <c r="L660" t="n">
         <v>47.10000000000004</v>
@@ -33999,7 +34021,7 @@
         <v>180.0999999999993</v>
       </c>
       <c r="K661" t="n">
-        <v>6.896551724138049</v>
+        <v>15.78947368421094</v>
       </c>
       <c r="L661" t="n">
         <v>47.13000000000004</v>
@@ -34050,7 +34072,7 @@
         <v>180.2999999999993</v>
       </c>
       <c r="K662" t="n">
-        <v>-9.433962264151024</v>
+        <v>-11.11111111111155</v>
       </c>
       <c r="L662" t="n">
         <v>47.14000000000004</v>
@@ -34101,7 +34123,7 @@
         <v>180.2999999999993</v>
       </c>
       <c r="K663" t="n">
-        <v>-7.692307692307724</v>
+        <v>-11.11111111111155</v>
       </c>
       <c r="L663" t="n">
         <v>47.12000000000005</v>
@@ -34152,7 +34174,7 @@
         <v>180.2999999999993</v>
       </c>
       <c r="K664" t="n">
-        <v>11.62790697674431</v>
+        <v>-17.64705882352966</v>
       </c>
       <c r="L664" t="n">
         <v>47.10000000000005</v>
@@ -34203,7 +34225,7 @@
         <v>180.3999999999993</v>
       </c>
       <c r="K665" t="n">
-        <v>-25.00000000000044</v>
+        <v>-6.666666666666887</v>
       </c>
       <c r="L665" t="n">
         <v>47.06000000000005</v>
@@ -34254,7 +34276,7 @@
         <v>180.4999999999993</v>
       </c>
       <c r="K666" t="n">
-        <v>-20.00000000000043</v>
+        <v>-28.57142857142944</v>
       </c>
       <c r="L666" t="n">
         <v>47.04000000000006</v>
@@ -34305,7 +34327,7 @@
         <v>180.4999999999993</v>
       </c>
       <c r="K667" t="n">
-        <v>-17.24137931034513</v>
+        <v>-16.66666666666706</v>
       </c>
       <c r="L667" t="n">
         <v>47.00000000000005</v>
@@ -34356,7 +34378,7 @@
         <v>180.6999999999993</v>
       </c>
       <c r="K668" t="n">
-        <v>-22.58064516129064</v>
+        <v>-63.63636363636522</v>
       </c>
       <c r="L668" t="n">
         <v>46.96000000000005</v>
@@ -34407,7 +34429,7 @@
         <v>180.8999999999993</v>
       </c>
       <c r="K669" t="n">
-        <v>-17.2413793103453</v>
+        <v>-60.00000000000355</v>
       </c>
       <c r="L669" t="n">
         <v>46.87000000000005</v>
@@ -34458,7 +34480,7 @@
         <v>181.0999999999993</v>
       </c>
       <c r="K670" t="n">
-        <v>-13.33333333333367</v>
+        <v>-60.00000000000355</v>
       </c>
       <c r="L670" t="n">
         <v>46.83000000000004</v>
@@ -34509,7 +34531,7 @@
         <v>181.3999999999993</v>
       </c>
       <c r="K671" t="n">
-        <v>0</v>
+        <v>-9.090909090909502</v>
       </c>
       <c r="L671" t="n">
         <v>46.80000000000004</v>
@@ -34560,7 +34582,7 @@
         <v>181.6999999999993</v>
       </c>
       <c r="K672" t="n">
-        <v>-8.57142857142863</v>
+        <v>-28.57142857142894</v>
       </c>
       <c r="L672" t="n">
         <v>46.76000000000003</v>
@@ -34611,7 +34633,7 @@
         <v>181.7999999999993</v>
       </c>
       <c r="K673" t="n">
-        <v>-15.15151515151549</v>
+        <v>-20.00000000000019</v>
       </c>
       <c r="L673" t="n">
         <v>46.73000000000004</v>
@@ -34662,7 +34684,7 @@
         <v>181.8999999999993</v>
       </c>
       <c r="K674" t="n">
-        <v>-17.64705882352986</v>
+        <v>-20.00000000000019</v>
       </c>
       <c r="L674" t="n">
         <v>46.69000000000004</v>
@@ -34713,7 +34735,7 @@
         <v>181.9999999999993</v>
       </c>
       <c r="K675" t="n">
-        <v>-17.64705882352966</v>
+        <v>-6.666666666666414</v>
       </c>
       <c r="L675" t="n">
         <v>46.67000000000005</v>
@@ -34764,7 +34786,7 @@
         <v>182.0999999999993</v>
       </c>
       <c r="K676" t="n">
-        <v>-12.50000000000022</v>
+        <v>-12.5</v>
       </c>
       <c r="L676" t="n">
         <v>46.65000000000005</v>
@@ -34815,7 +34837,7 @@
         <v>182.0999999999993</v>
       </c>
       <c r="K677" t="n">
-        <v>-20.00000000000043</v>
+        <v>0</v>
       </c>
       <c r="L677" t="n">
         <v>46.63000000000005</v>
@@ -34866,7 +34888,7 @@
         <v>182.1999999999993</v>
       </c>
       <c r="K678" t="n">
-        <v>-17.24137931034513</v>
+        <v>7.692307692307902</v>
       </c>
       <c r="L678" t="n">
         <v>46.62000000000004</v>
@@ -34917,7 +34939,7 @@
         <v>182.1999999999993</v>
       </c>
       <c r="K679" t="n">
-        <v>-30.7692307692314</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L679" t="n">
         <v>46.63000000000004</v>
@@ -34968,7 +34990,7 @@
         <v>182.3999999999993</v>
       </c>
       <c r="K680" t="n">
-        <v>-28.00000000000075</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L680" t="n">
         <v>46.60000000000004</v>
@@ -35019,7 +35041,7 @@
         <v>182.3999999999993</v>
       </c>
       <c r="K681" t="n">
-        <v>-39.13043478260972</v>
+        <v>-42.85714285714416</v>
       </c>
       <c r="L681" t="n">
         <v>46.54000000000003</v>
@@ -35070,7 +35092,7 @@
         <v>182.3999999999993</v>
       </c>
       <c r="K682" t="n">
-        <v>-33.33333333333401</v>
+        <v>-66.66666666666825</v>
       </c>
       <c r="L682" t="n">
         <v>46.51000000000003</v>
@@ -35121,7 +35143,7 @@
         <v>182.3999999999993</v>
       </c>
       <c r="K683" t="n">
-        <v>-33.33333333333401</v>
+        <v>-60.00000000000085</v>
       </c>
       <c r="L683" t="n">
         <v>46.47000000000003</v>
@@ -35172,7 +35194,7 @@
         <v>182.3999999999993</v>
       </c>
       <c r="K684" t="n">
-        <v>-33.33333333333401</v>
+        <v>-100</v>
       </c>
       <c r="L684" t="n">
         <v>46.44000000000003</v>
@@ -35223,7 +35245,7 @@
         <v>182.7999999999993</v>
       </c>
       <c r="K685" t="n">
-        <v>-8.333333333333234</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L685" t="n">
         <v>46.44000000000003</v>
@@ -35274,7 +35296,7 @@
         <v>182.7999999999993</v>
       </c>
       <c r="K686" t="n">
-        <v>-4.347826086956307</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L686" t="n">
         <v>46.45000000000003</v>
@@ -35325,7 +35347,7 @@
         <v>183.0999999999993</v>
       </c>
       <c r="K687" t="n">
-        <v>7.692307692307902</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L687" t="n">
         <v>46.49000000000002</v>
@@ -35376,7 +35398,7 @@
         <v>183.6999999999993</v>
       </c>
       <c r="K688" t="n">
-        <v>-6.666666666666825</v>
+        <v>-6.666666666666761</v>
       </c>
       <c r="L688" t="n">
         <v>46.48000000000003</v>
@@ -35427,7 +35449,7 @@
         <v>183.7999999999993</v>
       </c>
       <c r="K689" t="n">
-        <v>-3.448275862069042</v>
+        <v>0</v>
       </c>
       <c r="L689" t="n">
         <v>46.46000000000002</v>
@@ -35478,7 +35500,7 @@
         <v>183.8999999999993</v>
       </c>
       <c r="K690" t="n">
-        <v>-14.28571428571432</v>
+        <v>-6.666666666666414</v>
       </c>
       <c r="L690" t="n">
         <v>46.45000000000002</v>
@@ -35529,7 +35551,7 @@
         <v>183.9999999999993</v>
       </c>
       <c r="K691" t="n">
-        <v>-30.76923076923106</v>
+        <v>-12.5</v>
       </c>
       <c r="L691" t="n">
         <v>46.43000000000002</v>
@@ -35580,7 +35602,7 @@
         <v>184.1999999999992</v>
       </c>
       <c r="K692" t="n">
-        <v>-28.00000000000075</v>
+        <v>-22.2222222222227</v>
       </c>
       <c r="L692" t="n">
         <v>46.39000000000002</v>
@@ -35631,7 +35653,7 @@
         <v>184.1999999999992</v>
       </c>
       <c r="K693" t="n">
-        <v>-33.33333333333422</v>
+        <v>-22.2222222222227</v>
       </c>
       <c r="L693" t="n">
         <v>46.35000000000002</v>
@@ -35682,7 +35704,7 @@
         <v>184.6999999999992</v>
       </c>
       <c r="K694" t="n">
-        <v>-42.85714285714366</v>
+        <v>-68.42105263158102</v>
       </c>
       <c r="L694" t="n">
         <v>46.26000000000001</v>
@@ -35733,7 +35755,7 @@
         <v>184.6999999999992</v>
       </c>
       <c r="K695" t="n">
-        <v>-48.14814814814902</v>
+        <v>-68.42105263158102</v>
       </c>
       <c r="L695" t="n">
         <v>46.13000000000001</v>
@@ -35784,7 +35806,7 @@
         <v>185.0999999999993</v>
       </c>
       <c r="K696" t="n">
-        <v>-53.33333333333389</v>
+        <v>-100.0000000000014</v>
       </c>
       <c r="L696" t="n">
         <v>45.96000000000002</v>
@@ -35835,7 +35857,7 @@
         <v>185.2999999999993</v>
       </c>
       <c r="K697" t="n">
-        <v>-56.25000000000033</v>
+        <v>-100.0000000000004</v>
       </c>
       <c r="L697" t="n">
         <v>45.74000000000002</v>
@@ -35886,7 +35908,7 @@
         <v>185.2999999999993</v>
       </c>
       <c r="K698" t="n">
-        <v>-54.83870967741955</v>
+        <v>-100</v>
       </c>
       <c r="L698" t="n">
         <v>45.58000000000002</v>
@@ -35937,7 +35959,7 @@
         <v>186.3999999999993</v>
       </c>
       <c r="K699" t="n">
-        <v>-14.28571428571436</v>
+        <v>-12.00000000000017</v>
       </c>
       <c r="L699" t="n">
         <v>45.54000000000001</v>
@@ -35988,7 +36010,7 @@
         <v>187.1999999999992</v>
       </c>
       <c r="K700" t="n">
-        <v>-25.00000000000015</v>
+        <v>-31.25000000000011</v>
       </c>
       <c r="L700" t="n">
         <v>45.43000000000002</v>
@@ -36039,7 +36061,7 @@
         <v>188.0999999999993</v>
       </c>
       <c r="K701" t="n">
-        <v>-5.263157894736829</v>
+        <v>2.564102564102597</v>
       </c>
       <c r="L701" t="n">
         <v>45.42000000000002</v>
@@ -36090,7 +36112,7 @@
         <v>188.5999999999993</v>
       </c>
       <c r="K702" t="n">
-        <v>-12.90322580645165</v>
+        <v>-9.090909090909047</v>
       </c>
       <c r="L702" t="n">
         <v>45.38000000000002</v>
@@ -36141,7 +36163,7 @@
         <v>189.5999999999993</v>
       </c>
       <c r="K703" t="n">
-        <v>2.777777777777832</v>
+        <v>22.44897959183674</v>
       </c>
       <c r="L703" t="n">
         <v>45.44000000000002</v>
@@ -36192,7 +36214,7 @@
         <v>190.4999999999993</v>
       </c>
       <c r="K704" t="n">
-        <v>-8.64197530864196</v>
+        <v>3.448275862069008</v>
       </c>
       <c r="L704" t="n">
         <v>45.46000000000002</v>
@@ -36243,7 +36265,7 @@
         <v>190.6999999999992</v>
       </c>
       <c r="K705" t="n">
-        <v>-16.4556962025318</v>
+        <v>7.142857142857125</v>
       </c>
       <c r="L705" t="n">
         <v>45.46000000000002</v>
@@ -36294,7 +36316,7 @@
         <v>191.0999999999993</v>
       </c>
       <c r="K706" t="n">
-        <v>-20.48192771084352</v>
+        <v>3.448275862069024</v>
       </c>
       <c r="L706" t="n">
         <v>45.46000000000002</v>
@@ -36345,7 +36367,7 @@
         <v>191.0999999999993</v>
       </c>
       <c r="K707" t="n">
-        <v>-25.00000000000009</v>
+        <v>3.448275862069024</v>
       </c>
       <c r="L707" t="n">
         <v>45.48000000000003</v>
@@ -36396,7 +36418,7 @@
         <v>191.2999999999993</v>
       </c>
       <c r="K708" t="n">
-        <v>-21.0526315789474</v>
+        <v>-22.44897959183674</v>
       </c>
       <c r="L708" t="n">
         <v>45.48000000000003</v>
@@ -36447,7 +36469,7 @@
         <v>191.9999999999993</v>
       </c>
       <c r="K709" t="n">
-        <v>-26.82926829268291</v>
+        <v>-20.83333333333329</v>
       </c>
       <c r="L709" t="n">
         <v>45.30000000000003</v>
@@ -36498,7 +36520,7 @@
         <v>192.1999999999992</v>
       </c>
       <c r="K710" t="n">
-        <v>-22.89156626506036</v>
+        <v>-41.46341463414647</v>
       </c>
       <c r="L710" t="n">
         <v>45.22000000000003</v>
@@ -36549,7 +36571,7 @@
         <v>192.2999999999992</v>
       </c>
       <c r="K711" t="n">
-        <v>-20.48192771084345</v>
+        <v>-29.72972972972986</v>
       </c>
       <c r="L711" t="n">
         <v>45.06000000000002</v>
@@ -36600,7 +36622,7 @@
         <v>192.6999999999992</v>
       </c>
       <c r="K712" t="n">
-        <v>-12.94117647058825</v>
+        <v>-54.83870967741955</v>
       </c>
       <c r="L712" t="n">
         <v>44.99000000000002</v>
@@ -36651,7 +36673,7 @@
         <v>192.6999999999992</v>
       </c>
       <c r="K713" t="n">
-        <v>-12.94117647058825</v>
+        <v>-36.36363636363675</v>
       </c>
       <c r="L713" t="n">
         <v>44.82000000000003</v>
@@ -36702,7 +36724,7 @@
         <v>192.8999999999992</v>
       </c>
       <c r="K714" t="n">
-        <v>-9.75609756097559</v>
+        <v>-36.36363636363642</v>
       </c>
       <c r="L714" t="n">
         <v>44.72000000000003</v>
@@ -36753,7 +36775,7 @@
         <v>193.2999999999992</v>
       </c>
       <c r="K715" t="n">
-        <v>-4.651162790697661</v>
+        <v>0</v>
       </c>
       <c r="L715" t="n">
         <v>44.68000000000003</v>
@@ -36804,7 +36826,7 @@
         <v>194.9999999999993</v>
       </c>
       <c r="K716" t="n">
-        <v>17.17171717171719</v>
+        <v>43.5897435897436</v>
       </c>
       <c r="L716" t="n">
         <v>44.85000000000003</v>
@@ -36855,7 +36877,7 @@
         <v>197.0999999999993</v>
       </c>
       <c r="K717" t="n">
-        <v>-1.694915254237255</v>
+        <v>-3.448275862068902</v>
       </c>
       <c r="L717" t="n">
         <v>44.81000000000003</v>
@@ -36906,7 +36928,7 @@
         <v>197.1999999999992</v>
       </c>
       <c r="K718" t="n">
-        <v>-0.8403361344537353</v>
+        <v>11.53846153846159</v>
       </c>
       <c r="L718" t="n">
         <v>44.80000000000003</v>
@@ -36957,7 +36979,7 @@
         <v>197.9999999999993</v>
       </c>
       <c r="K719" t="n">
-        <v>-3.448275862068955</v>
+        <v>20.6896551724138</v>
       </c>
       <c r="L719" t="n">
         <v>44.94000000000003</v>
@@ -37008,7 +37030,7 @@
         <v>198.0999999999993</v>
       </c>
       <c r="K720" t="n">
-        <v>2.752293577981624</v>
+        <v>17.24137931034479</v>
       </c>
       <c r="L720" t="n">
         <v>45.05000000000003</v>
@@ -37059,7 +37081,7 @@
         <v>198.9999999999993</v>
       </c>
       <c r="K721" t="n">
-        <v>2.752293577981624</v>
+        <v>23.80952380952377</v>
       </c>
       <c r="L721" t="n">
         <v>45.24000000000002</v>
@@ -37110,7 +37132,7 @@
         <v>199.8999999999993</v>
       </c>
       <c r="K722" t="n">
-        <v>-0.884955752212401</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L722" t="n">
         <v>45.30000000000003</v>
@@ -37161,7 +37183,7 @@
         <v>199.8999999999993</v>
       </c>
       <c r="K723" t="n">
-        <v>-10.67961165048544</v>
+        <v>11.42857142857134</v>
       </c>
       <c r="L723" t="n">
         <v>45.36000000000002</v>
@@ -37212,7 +37234,7 @@
         <v>200.3999999999993</v>
       </c>
       <c r="K724" t="n">
-        <v>3.030303030303</v>
+        <v>12.67605633802811</v>
       </c>
       <c r="L724" t="n">
         <v>45.49000000000002</v>
@@ -37263,7 +37285,7 @@
         <v>200.3999999999993</v>
       </c>
       <c r="K725" t="n">
-        <v>5.154639175257723</v>
+        <v>-14.81481481481488</v>
       </c>
       <c r="L725" t="n">
         <v>45.58000000000001</v>
@@ -37314,7 +37336,7 @@
         <v>200.8999999999993</v>
       </c>
       <c r="K726" t="n">
-        <v>4.081632653061205</v>
+        <v>21.05263157894723</v>
       </c>
       <c r="L726" t="n">
         <v>45.45000000000001</v>
@@ -37365,7 +37387,7 @@
         <v>201.0999999999993</v>
       </c>
       <c r="K727" t="n">
-        <v>2.000000000000028</v>
+        <v>12.8205128205128</v>
       </c>
       <c r="L727" t="n">
         <v>45.51000000000001</v>
@@ -37416,7 +37438,7 @@
         <v>201.6999999999992</v>
       </c>
       <c r="K728" t="n">
-        <v>9.615384615384636</v>
+        <v>8.108108108108055</v>
       </c>
       <c r="L728" t="n">
         <v>45.62000000000001</v>
@@ -37467,7 +37489,7 @@
         <v>201.6999999999992</v>
       </c>
       <c r="K729" t="n">
-        <v>17.52577319587627</v>
+        <v>11.11111111111109</v>
       </c>
       <c r="L729" t="n">
         <v>45.65000000000001</v>
@@ -37518,7 +37540,7 @@
         <v>203.3999999999992</v>
       </c>
       <c r="K730" t="n">
-        <v>-1.78571428571425</v>
+        <v>-50.00000000000016</v>
       </c>
       <c r="L730" t="n">
         <v>45.52000000000002</v>
@@ -37569,7 +37591,7 @@
         <v>203.3999999999992</v>
       </c>
       <c r="K731" t="n">
-        <v>-2.702702702702679</v>
+        <v>-37.14285714285736</v>
       </c>
       <c r="L731" t="n">
         <v>45.30000000000002</v>
@@ -37620,7 +37642,7 @@
         <v>203.3999999999992</v>
       </c>
       <c r="K732" t="n">
-        <v>-6.542056074766323</v>
+        <v>-37.14285714285736</v>
       </c>
       <c r="L732" t="n">
         <v>45.17000000000002</v>
@@ -37671,7 +37693,7 @@
         <v>203.5999999999992</v>
       </c>
       <c r="K733" t="n">
-        <v>-4.587155963302761</v>
+        <v>-50.00000000000067</v>
       </c>
       <c r="L733" t="n">
         <v>45.06000000000002</v>
@@ -37722,7 +37744,7 @@
         <v>203.5999999999992</v>
       </c>
       <c r="K734" t="n">
-        <v>-2.803738317757052</v>
+        <v>-50.00000000000067</v>
       </c>
       <c r="L734" t="n">
         <v>44.90000000000003</v>
@@ -37773,7 +37795,7 @@
         <v>203.5999999999992</v>
       </c>
       <c r="K735" t="n">
-        <v>-6.796116504854408</v>
+        <v>-40.74074074074139</v>
       </c>
       <c r="L735" t="n">
         <v>44.74000000000003</v>
@@ -37824,7 +37846,7 @@
         <v>204.2999999999992</v>
       </c>
       <c r="K736" t="n">
-        <v>-18.27956989247324</v>
+        <v>-6.250000000000167</v>
       </c>
       <c r="L736" t="n">
         <v>44.70000000000003</v>
@@ -37875,7 +37897,7 @@
         <v>204.4999999999992</v>
       </c>
       <c r="K737" t="n">
-        <v>8.108108108108183</v>
+        <v>-21.42857142857157</v>
       </c>
       <c r="L737" t="n">
         <v>44.70000000000003</v>
@@ -37926,7 +37948,7 @@
         <v>204.4999999999992</v>
       </c>
       <c r="K738" t="n">
-        <v>6.849315068493193</v>
+        <v>-21.42857142857157</v>
       </c>
       <c r="L738" t="n">
         <v>44.64000000000003</v>
@@ -37977,7 +37999,7 @@
         <v>205.0999999999992</v>
       </c>
       <c r="K739" t="n">
-        <v>-12.67605633802826</v>
+        <v>29.41176470588304</v>
       </c>
       <c r="L739" t="n">
         <v>44.52000000000003</v>
@@ -38028,7 +38050,7 @@
         <v>205.0999999999992</v>
       </c>
       <c r="K740" t="n">
-        <v>-11.42857142857148</v>
+        <v>29.41176470588304</v>
       </c>
       <c r="L740" t="n">
         <v>44.57000000000004</v>
@@ -38079,7 +38101,7 @@
         <v>205.6999999999992</v>
       </c>
       <c r="K741" t="n">
-        <v>-16.41791044776128</v>
+        <v>47.82608695652274</v>
       </c>
       <c r="L741" t="n">
         <v>44.68000000000003</v>
@@ -38130,7 +38152,7 @@
         <v>205.8999999999992</v>
       </c>
       <c r="K742" t="n">
-        <v>-6.666666666666737</v>
+        <v>30.43478260869638</v>
       </c>
       <c r="L742" t="n">
         <v>44.77000000000002</v>
@@ -38181,7 +38203,7 @@
         <v>205.9999999999992</v>
       </c>
       <c r="K743" t="n">
-        <v>-8.196721311475534</v>
+        <v>25.00000000000059</v>
       </c>
       <c r="L743" t="n">
         <v>44.83000000000003</v>
@@ -38232,7 +38254,7 @@
         <v>205.9999999999992</v>
       </c>
       <c r="K744" t="n">
-        <v>-17.85714285714315</v>
+        <v>25.00000000000059</v>
       </c>
       <c r="L744" t="n">
         <v>44.89000000000002</v>
@@ -38283,7 +38305,7 @@
         <v>205.9999999999992</v>
       </c>
       <c r="K745" t="n">
-        <v>-17.85714285714315</v>
+        <v>-5.882352941176692</v>
       </c>
       <c r="L745" t="n">
         <v>44.95000000000002</v>
@@ -38334,7 +38356,7 @@
         <v>206.4999999999992</v>
       </c>
       <c r="K746" t="n">
-        <v>0</v>
+        <v>9.999999999999929</v>
       </c>
       <c r="L746" t="n">
         <v>44.99000000000002</v>
@@ -38385,7 +38407,7 @@
         <v>206.6999999999992</v>
       </c>
       <c r="K747" t="n">
-        <v>7.142857142857197</v>
+        <v>18.18181818181821</v>
       </c>
       <c r="L747" t="n">
         <v>45.03000000000002</v>
@@ -38436,7 +38458,7 @@
         <v>206.9999999999992</v>
       </c>
       <c r="K748" t="n">
-        <v>-9.433962264151024</v>
+        <v>36.84210526315756</v>
       </c>
       <c r="L748" t="n">
         <v>45.04000000000002</v>
@@ -38487,7 +38509,7 @@
         <v>207.0999999999992</v>
       </c>
       <c r="K749" t="n">
-        <v>-7.407407407407451</v>
+        <v>39.99999999999986</v>
       </c>
       <c r="L749" t="n">
         <v>45.12000000000002</v>
@@ -38538,7 +38560,7 @@
         <v>207.6999999999992</v>
       </c>
       <c r="K750" t="n">
-        <v>16.27906976744193</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L750" t="n">
         <v>45.14000000000001</v>
@@ -38589,7 +38611,7 @@
         <v>208.1999999999992</v>
       </c>
       <c r="K751" t="n">
-        <v>25.00000000000015</v>
+        <v>13.04347826086938</v>
       </c>
       <c r="L751" t="n">
         <v>45.15000000000002</v>
@@ -38640,7 +38662,7 @@
         <v>208.1999999999992</v>
       </c>
       <c r="K752" t="n">
-        <v>25.00000000000015</v>
+        <v>18.18181818181798</v>
       </c>
       <c r="L752" t="n">
         <v>45.18000000000002</v>
@@ -38691,7 +38713,7 @@
         <v>208.2999999999992</v>
       </c>
       <c r="K753" t="n">
-        <v>23.40425531914916</v>
+        <v>21.7391304347825</v>
       </c>
       <c r="L753" t="n">
         <v>45.23000000000002</v>
@@ -38742,7 +38764,7 @@
         <v>208.2999999999992</v>
       </c>
       <c r="K754" t="n">
-        <v>23.40425531914916</v>
+        <v>21.7391304347825</v>
       </c>
       <c r="L754" t="n">
         <v>45.28000000000002</v>
@@ -38793,7 +38815,7 @@
         <v>208.5999999999992</v>
       </c>
       <c r="K755" t="n">
-        <v>28.00000000000027</v>
+        <v>14.28571428571433</v>
       </c>
       <c r="L755" t="n">
         <v>45.36000000000002</v>
@@ -38844,7 +38866,7 @@
         <v>208.5999999999992</v>
       </c>
       <c r="K756" t="n">
-        <v>16.27906976744199</v>
+        <v>5.263157894736901</v>
       </c>
       <c r="L756" t="n">
         <v>45.39000000000002</v>
@@ -38895,7 +38917,7 @@
         <v>208.9999999999992</v>
       </c>
       <c r="K757" t="n">
-        <v>19.99999999999997</v>
+        <v>40.00000000000021</v>
       </c>
       <c r="L757" t="n">
         <v>45.44000000000002</v>
@@ -38946,7 +38968,7 @@
         <v>208.9999999999992</v>
       </c>
       <c r="K758" t="n">
-        <v>19.99999999999997</v>
+        <v>36.84210526315793</v>
       </c>
       <c r="L758" t="n">
         <v>45.52000000000002</v>
@@ -38997,7 +39019,7 @@
         <v>209.0999999999992</v>
       </c>
       <c r="K759" t="n">
-        <v>40.00000000000004</v>
+        <v>100</v>
       </c>
       <c r="L759" t="n">
         <v>45.60000000000002</v>
@@ -39048,7 +39070,7 @@
         <v>209.1999999999992</v>
       </c>
       <c r="K760" t="n">
-        <v>36.58536585365859</v>
+        <v>80.00000000000043</v>
       </c>
       <c r="L760" t="n">
         <v>45.73000000000003</v>
@@ -39099,7 +39121,7 @@
         <v>209.2999999999992</v>
       </c>
       <c r="K761" t="n">
-        <v>27.77777777777782</v>
+        <v>81.81818181818275</v>
       </c>
       <c r="L761" t="n">
         <v>45.82000000000002</v>
@@ -39150,7 +39172,7 @@
         <v>209.4999999999992</v>
       </c>
       <c r="K762" t="n">
-        <v>27.7777777777776</v>
+        <v>49.9999999999994</v>
       </c>
       <c r="L762" t="n">
         <v>45.89000000000002</v>
@@ -39201,7 +39223,7 @@
         <v>209.8999999999992</v>
       </c>
       <c r="K763" t="n">
-        <v>38.46153846153813</v>
+        <v>62.49999999999911</v>
       </c>
       <c r="L763" t="n">
         <v>45.99000000000002</v>
@@ -39252,7 +39274,7 @@
         <v>209.8999999999992</v>
       </c>
       <c r="K764" t="n">
-        <v>38.46153846153813</v>
+        <v>53.84615384615304</v>
       </c>
       <c r="L764" t="n">
         <v>46.09000000000002</v>
@@ -39303,7 +39325,7 @@
         <v>209.8999999999992</v>
       </c>
       <c r="K765" t="n">
-        <v>38.46153846153813</v>
+        <v>53.84615384615304</v>
       </c>
       <c r="L765" t="n">
         <v>46.16000000000002</v>
@@ -39354,7 +39376,7 @@
         <v>210.0999999999992</v>
       </c>
       <c r="K766" t="n">
-        <v>22.2222222222222</v>
+        <v>9.090909090909268</v>
       </c>
       <c r="L766" t="n">
         <v>46.21000000000002</v>
@@ -39405,7 +39427,7 @@
         <v>210.4999999999992</v>
       </c>
       <c r="K767" t="n">
-        <v>26.31578947368413</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L767" t="n">
         <v>46.26000000000002</v>
@@ -39456,7 +39478,7 @@
         <v>210.5999999999992</v>
       </c>
       <c r="K768" t="n">
-        <v>38.88888888888911</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L768" t="n">
         <v>46.32000000000001</v>
@@ -39507,7 +39529,7 @@
         <v>210.6999999999992</v>
       </c>
       <c r="K769" t="n">
-        <v>38.88888888888891</v>
+        <v>46.66666666666639</v>
       </c>
       <c r="L769" t="n">
         <v>46.38000000000002</v>
@@ -39558,7 +39580,7 @@
         <v>210.6999999999992</v>
       </c>
       <c r="K770" t="n">
-        <v>66.66666666666666</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L770" t="n">
         <v>46.45000000000002</v>
@@ -39609,7 +39631,7 @@
         <v>210.7999999999992</v>
       </c>
       <c r="K771" t="n">
-        <v>53.84615384615419</v>
+        <v>53.84615384615478</v>
       </c>
       <c r="L771" t="n">
         <v>46.50000000000001</v>
@@ -39660,7 +39682,7 @@
         <v>210.8999999999992</v>
       </c>
       <c r="K772" t="n">
-        <v>48.14814814814851</v>
+        <v>20.00000000000085</v>
       </c>
       <c r="L772" t="n">
         <v>46.56000000000002</v>
@@ -39711,7 +39733,7 @@
         <v>211.0999999999992</v>
       </c>
       <c r="K773" t="n">
-        <v>35.71428571428593</v>
+        <v>0</v>
       </c>
       <c r="L773" t="n">
         <v>46.56000000000002</v>
@@ -39762,7 +39784,7 @@
         <v>211.0999999999992</v>
       </c>
       <c r="K774" t="n">
-        <v>35.71428571428593</v>
+        <v>0</v>
       </c>
       <c r="L774" t="n">
         <v>46.56000000000002</v>
@@ -39813,7 +39835,7 @@
         <v>211.0999999999992</v>
       </c>
       <c r="K775" t="n">
-        <v>28.00000000000015</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L775" t="n">
         <v>46.56000000000002</v>
@@ -39864,7 +39886,7 @@
         <v>211.0999999999992</v>
       </c>
       <c r="K776" t="n">
-        <v>28.00000000000015</v>
+        <v>-33.3333333333357</v>
       </c>
       <c r="L776" t="n">
         <v>46.58000000000003</v>
@@ -39915,7 +39937,7 @@
         <v>211.2999999999992</v>
       </c>
       <c r="K777" t="n">
-        <v>21.73913043478304</v>
+        <v>-14.2857142857153</v>
       </c>
       <c r="L777" t="n">
         <v>46.58000000000002</v>
@@ -39966,7 +39988,7 @@
         <v>211.2999999999992</v>
       </c>
       <c r="K778" t="n">
-        <v>21.73913043478304</v>
+        <v>-33.33333333333452</v>
       </c>
       <c r="L778" t="n">
         <v>46.57000000000002</v>
@@ -40017,7 +40039,7 @@
         <v>211.2999999999992</v>
       </c>
       <c r="K779" t="n">
-        <v>18.18181818181845</v>
+        <v>-33.33333333333452</v>
       </c>
       <c r="L779" t="n">
         <v>46.55000000000002</v>
@@ -40068,7 +40090,7 @@
         <v>211.5999999999992</v>
       </c>
       <c r="K780" t="n">
-        <v>8.333333333333234</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L780" t="n">
         <v>46.50000000000001</v>
@@ -40119,7 +40141,7 @@
         <v>211.8999999999992</v>
       </c>
       <c r="K781" t="n">
-        <v>15.38461538461536</v>
+        <v>0</v>
       </c>
       <c r="L781" t="n">
         <v>46.49000000000002</v>
@@ -40170,7 +40192,7 @@
         <v>211.8999999999992</v>
       </c>
       <c r="K782" t="n">
-        <v>25.00000000000029</v>
+        <v>25</v>
       </c>
       <c r="L782" t="n">
         <v>46.49000000000002</v>
@@ -40221,7 +40243,7 @@
         <v>211.8999999999992</v>
       </c>
       <c r="K783" t="n">
-        <v>10.00000000000028</v>
+        <v>25</v>
       </c>
       <c r="L783" t="n">
         <v>46.51000000000003</v>
@@ -40272,7 +40294,7 @@
         <v>212.2999999999992</v>
       </c>
       <c r="K784" t="n">
-        <v>-8.333333333333234</v>
+        <v>-16.66666666666607</v>
       </c>
       <c r="L784" t="n">
         <v>46.49000000000002</v>
@@ -40323,7 +40345,7 @@
         <v>212.3999999999992</v>
       </c>
       <c r="K785" t="n">
-        <v>-12.00000000000002</v>
+        <v>-23.07692307692266</v>
       </c>
       <c r="L785" t="n">
         <v>46.46000000000003</v>
@@ -40374,7 +40396,7 @@
         <v>212.3999999999992</v>
       </c>
       <c r="K786" t="n">
-        <v>-4.347826086956616</v>
+        <v>-45.45454545454452</v>
       </c>
       <c r="L786" t="n">
         <v>46.43000000000004</v>
@@ -40425,7 +40447,7 @@
         <v>212.3999999999992</v>
       </c>
       <c r="K787" t="n">
-        <v>-26.31578947368453</v>
+        <v>-45.45454545454452</v>
       </c>
       <c r="L787" t="n">
         <v>46.38000000000004</v>
@@ -40476,7 +40498,7 @@
         <v>212.3999999999992</v>
       </c>
       <c r="K788" t="n">
-        <v>-33.33333333333373</v>
+        <v>-45.45454545454452</v>
       </c>
       <c r="L788" t="n">
         <v>46.33000000000003</v>
@@ -40527,7 +40549,7 @@
         <v>212.8999999999992</v>
       </c>
       <c r="K789" t="n">
-        <v>-9.090909090908944</v>
+        <v>23.0769230769232</v>
       </c>
       <c r="L789" t="n">
         <v>46.33000000000003</v>
@@ -40578,7 +40600,7 @@
         <v>213.7999999999992</v>
       </c>
       <c r="K790" t="n">
-        <v>-35.48387096774182</v>
+        <v>-47.36842105263136</v>
       </c>
       <c r="L790" t="n">
         <v>46.27000000000003</v>
@@ -40629,7 +40651,7 @@
         <v>213.9999999999992</v>
       </c>
       <c r="K791" t="n">
-        <v>-37.49999999999989</v>
+        <v>-52.38095238095188</v>
       </c>
       <c r="L791" t="n">
         <v>46.16000000000003</v>
@@ -40680,7 +40702,7 @@
         <v>213.9999999999992</v>
       </c>
       <c r="K792" t="n">
-        <v>-35.48387096774172</v>
+        <v>-52.38095238095188</v>
       </c>
       <c r="L792" t="n">
         <v>46.05000000000003</v>

--- a/BackTest/2019-10-31 BackTest TRV.xlsx
+++ b/BackTest/2019-10-31 BackTest TRV.xlsx
@@ -4546,13 +4546,17 @@
         <v>43.73666666666669</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="K119" t="n">
+        <v>42.6</v>
+      </c>
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
@@ -4581,14 +4585,22 @@
         <v>43.71500000000002</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="K120" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4616,14 +4628,22 @@
         <v>43.71500000000002</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>43</v>
+      </c>
+      <c r="K121" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4651,14 +4671,22 @@
         <v>43.70000000000002</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>44</v>
+      </c>
+      <c r="K122" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4686,14 +4714,22 @@
         <v>43.69833333333335</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="K123" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4721,14 +4757,22 @@
         <v>43.68833333333335</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="K124" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4762,8 +4806,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4797,8 +4847,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4832,8 +4888,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4867,8 +4929,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4902,8 +4970,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4937,8 +5011,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4972,8 +5052,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5007,8 +5093,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5042,8 +5134,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5077,8 +5175,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5112,8 +5216,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5147,8 +5257,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5182,8 +5298,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5217,8 +5339,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5252,8 +5380,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5287,8 +5421,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5322,8 +5462,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5357,8 +5503,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5392,8 +5544,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5427,8 +5585,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5462,8 +5626,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5497,8 +5667,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5532,8 +5708,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5567,8 +5749,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5602,8 +5790,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5631,18 +5825,18 @@
         <v>43.17833333333337</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>42</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>42.6</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M150" t="n">
@@ -5672,15 +5866,15 @@
         <v>43.1316666666667</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>42.6</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5713,15 +5907,15 @@
         <v>43.09000000000003</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>42.6</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5754,15 +5948,15 @@
         <v>43.06500000000003</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>42.6</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5795,15 +5989,15 @@
         <v>43.0516666666667</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>42.6</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5836,15 +6030,15 @@
         <v>43.0366666666667</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>42.6</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5877,15 +6071,15 @@
         <v>43.0066666666667</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>42.6</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5918,15 +6112,15 @@
         <v>42.97500000000003</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>42.6</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5959,15 +6153,15 @@
         <v>42.94500000000004</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>42.6</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6000,15 +6194,15 @@
         <v>42.92500000000004</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>42.6</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6041,15 +6235,15 @@
         <v>42.90166666666671</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>42.6</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6082,15 +6276,15 @@
         <v>42.89333333333337</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>42.6</v>
+      </c>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6123,15 +6317,15 @@
         <v>42.86500000000004</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>42.6</v>
+      </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6164,15 +6358,15 @@
         <v>42.84000000000004</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>42.6</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6205,15 +6399,15 @@
         <v>42.82000000000004</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>42.6</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6246,15 +6440,15 @@
         <v>42.80833333333338</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>42.8</v>
-      </c>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>42.6</v>
+      </c>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6287,15 +6481,15 @@
         <v>42.80000000000005</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>42.8</v>
-      </c>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>42.6</v>
+      </c>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6328,15 +6522,15 @@
         <v>42.81666666666671</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>43</v>
-      </c>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>42.6</v>
+      </c>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6369,15 +6563,15 @@
         <v>42.86166666666671</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>42.6</v>
+      </c>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6410,15 +6604,15 @@
         <v>42.90833333333338</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>45.8</v>
-      </c>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>42.6</v>
+      </c>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6457,7 +6651,9 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>42.6</v>
+      </c>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6496,7 +6692,9 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>42.6</v>
+      </c>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6535,7 +6733,9 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>42.6</v>
+      </c>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6574,7 +6774,9 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>42.6</v>
+      </c>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6613,7 +6815,9 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>42.6</v>
+      </c>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6652,7 +6856,9 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>42.6</v>
+      </c>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6691,7 +6897,9 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>42.6</v>
+      </c>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6730,7 +6938,9 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>42.6</v>
+      </c>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6769,7 +6979,9 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>42.6</v>
+      </c>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6808,7 +7020,9 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>42.6</v>
+      </c>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6847,7 +7061,9 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>42.6</v>
+      </c>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6886,7 +7102,9 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>42.6</v>
+      </c>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6925,7 +7143,9 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>42.6</v>
+      </c>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6961,17 +7181,19 @@
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>42.6</v>
+      </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M183" t="n">
-        <v>1</v>
+        <v>1.201572769953052</v>
       </c>
     </row>
     <row r="184">
@@ -7000,15 +7222,11 @@
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7039,15 +7257,11 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7078,15 +7292,11 @@
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7121,11 +7331,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7160,11 +7366,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7199,11 +7401,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7238,11 +7436,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7277,11 +7471,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7316,11 +7506,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7355,11 +7541,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7394,11 +7576,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7433,11 +7611,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7472,11 +7646,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7511,11 +7681,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7550,11 +7716,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7589,11 +7751,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7628,11 +7786,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7667,11 +7821,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7706,11 +7856,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7745,11 +7891,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7780,16 +7922,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7887,7 +8027,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
@@ -7922,7 +8062,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
@@ -7957,7 +8097,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
@@ -7992,7 +8132,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
@@ -8027,7 +8167,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>

--- a/BackTest/2019-10-31 BackTest TRV.xlsx
+++ b/BackTest/2019-10-31 BackTest TRV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -7513,14 +7513,10 @@
         <v>19852431.28831874</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
-      </c>
-      <c r="I216" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="J216" t="n">
-        <v>41.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
@@ -7550,19 +7546,11 @@
         <v>19837338.17291874</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
-      </c>
-      <c r="I217" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="J217" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7591,19 +7579,11 @@
         <v>19846776.35691874</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I218" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="J218" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7632,19 +7612,11 @@
         <v>19846776.35691874</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I219" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="J219" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7673,19 +7645,11 @@
         <v>19853808.48451874</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
-      </c>
-      <c r="I220" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="J220" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7714,19 +7678,11 @@
         <v>19853808.48451874</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
-      </c>
-      <c r="I221" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="J221" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7755,19 +7711,11 @@
         <v>19853808.48451874</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
-      </c>
-      <c r="I222" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="J222" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7796,19 +7744,11 @@
         <v>19947231.32701874</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
-      </c>
-      <c r="I223" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="J223" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7837,19 +7777,11 @@
         <v>19936108.35511874</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
-      </c>
-      <c r="I224" t="n">
-        <v>42.9</v>
-      </c>
-      <c r="J224" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7878,19 +7810,11 @@
         <v>20068048.34031851</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
-      </c>
-      <c r="I225" t="n">
-        <v>42.8</v>
-      </c>
-      <c r="J225" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7919,19 +7843,11 @@
         <v>20360399.19301851</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
-      </c>
-      <c r="I226" t="n">
-        <v>43</v>
-      </c>
-      <c r="J226" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7960,19 +7876,11 @@
         <v>20719982.52681851</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
-      </c>
-      <c r="I227" t="n">
-        <v>44</v>
-      </c>
-      <c r="J227" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8004,14 +7912,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8043,14 +7945,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8082,14 +7978,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8121,14 +8011,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8160,14 +8044,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8199,14 +8077,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8238,14 +8110,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8277,14 +8143,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8316,14 +8176,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8355,14 +8209,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8394,14 +8242,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8433,14 +8275,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8472,14 +8308,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8511,14 +8341,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8550,14 +8374,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8589,14 +8407,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8628,14 +8440,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8667,14 +8473,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8706,14 +8506,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8745,14 +8539,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8784,14 +8572,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8823,14 +8605,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8862,14 +8638,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8901,14 +8671,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8937,23 +8701,15 @@
         <v>24044225.9524803</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
-        <v>1.217222222222222</v>
-      </c>
-      <c r="M252" t="n">
-        <v>1.129268292682927</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8978,7 +8734,7 @@
         <v>24513692.51548221</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9011,7 +8767,7 @@
         <v>23851434.18549683</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9044,7 +8800,7 @@
         <v>24222532.74269683</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9077,7 +8833,7 @@
         <v>24563840.24819683</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9110,7 +8866,7 @@
         <v>25637475.04079683</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9143,7 +8899,7 @@
         <v>24766360.43184929</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9176,7 +8932,7 @@
         <v>23940694.54034929</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9209,7 +8965,7 @@
         <v>23379631.52214929</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9242,7 +8998,7 @@
         <v>23732951.28044929</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9275,7 +9031,7 @@
         <v>23457565.22924929</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9308,7 +9064,7 @@
         <v>23964256.1337493</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9341,7 +9097,7 @@
         <v>24596017.8832225</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9374,7 +9130,7 @@
         <v>25836615.02703196</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9407,7 +9163,7 @@
         <v>25235228.82518626</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9440,7 +9196,7 @@
         <v>25904672.27457479</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9473,7 +9229,7 @@
         <v>25904672.27457479</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9506,7 +9262,7 @@
         <v>25904672.27457479</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9539,7 +9295,7 @@
         <v>25005755.79277479</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9572,7 +9328,7 @@
         <v>24653411.29627479</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9605,7 +9361,7 @@
         <v>24848864.42187479</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9770,7 +9526,7 @@
         <v>24594534.13902173</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9803,7 +9559,7 @@
         <v>24594534.13902173</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9836,7 +9592,7 @@
         <v>25403301.46972173</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9869,7 +9625,7 @@
         <v>24986523.23178763</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9902,7 +9658,7 @@
         <v>24832507.15848763</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9935,7 +9691,7 @@
         <v>24915479.48088763</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9968,7 +9724,7 @@
         <v>24977528.82348762</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10100,7 +9856,7 @@
         <v>25752369.64438763</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10133,7 +9889,7 @@
         <v>25752369.64438763</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10166,7 +9922,7 @@
         <v>26079923.96408763</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10199,7 +9955,7 @@
         <v>26079923.96408763</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10232,7 +9988,7 @@
         <v>26260780.46598763</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10265,7 +10021,7 @@
         <v>26260780.46598763</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10661,7 +10417,7 @@
         <v>25764375.22008762</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10694,7 +10450,7 @@
         <v>25677573.17928762</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10727,7 +10483,7 @@
         <v>25379027.60938843</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10760,7 +10516,7 @@
         <v>25298417.88038843</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10793,7 +10549,7 @@
         <v>25073912.30628844</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10826,7 +10582,7 @@
         <v>25153374.19458844</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10859,7 +10615,7 @@
         <v>25191509.98882799</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10892,7 +10648,7 @@
         <v>25139602.98672799</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10925,7 +10681,7 @@
         <v>25000019.72562799</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10958,7 +10714,7 @@
         <v>24851313.02192799</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10991,7 +10747,7 @@
         <v>24660975.45332799</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11024,7 +10780,7 @@
         <v>24668572.16012799</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11057,7 +10813,7 @@
         <v>24397125.33772799</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11090,7 +10846,7 @@
         <v>24667021.91442799</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11123,7 +10879,7 @@
         <v>24449723.19672799</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11156,7 +10912,7 @@
         <v>24451180.92232799</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11189,7 +10945,7 @@
         <v>24451180.92232799</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11222,7 +10978,7 @@
         <v>24342824.19462799</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11816,7 +11572,7 @@
         <v>24212000.58975236</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11849,7 +11605,7 @@
         <v>24171112.69765237</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11882,7 +11638,7 @@
         <v>24291475.26345237</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11915,7 +11671,7 @@
         <v>24195007.00505237</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11948,7 +11704,7 @@
         <v>24015488.44275237</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11981,7 +11737,7 @@
         <v>23891052.27225237</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12014,7 +11770,7 @@
         <v>23891052.27225237</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12047,7 +11803,7 @@
         <v>23924102.85785237</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12080,7 +11836,7 @@
         <v>23882101.0485291</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12113,7 +11869,7 @@
         <v>23935855.6850291</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12146,7 +11902,7 @@
         <v>23962790.24720583</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12179,7 +11935,7 @@
         <v>23922155.77930583</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12212,7 +11968,7 @@
         <v>23922155.77930583</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12245,7 +12001,7 @@
         <v>23922155.77930583</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12278,7 +12034,7 @@
         <v>23888989.62388256</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12311,7 +12067,7 @@
         <v>23745211.75410583</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12344,7 +12100,7 @@
         <v>23907643.17790583</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12377,7 +12133,7 @@
         <v>23878544.78940583</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12410,7 +12166,7 @@
         <v>24213250.59890583</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13664,7 +13420,7 @@
         <v>24144662.46832902</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13697,7 +13453,7 @@
         <v>24145045.80512902</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13730,7 +13486,7 @@
         <v>24188739.49342902</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13763,7 +13519,7 @@
         <v>24033832.17992902</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13796,7 +13552,7 @@
         <v>24037640.30762902</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13829,7 +13585,7 @@
         <v>24057880.09482902</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13862,7 +13618,7 @@
         <v>24096396.81642902</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13895,7 +13651,7 @@
         <v>24095961.12252902</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13928,7 +13684,7 @@
         <v>24006512.03952902</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13961,7 +13717,7 @@
         <v>24019004.51022902</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13994,7 +13750,7 @@
         <v>24007054.94322902</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14060,7 +13816,7 @@
         <v>24049566.66622902</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14093,7 +13849,7 @@
         <v>23959674.58822902</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14126,7 +13882,7 @@
         <v>23843020.38332902</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14159,7 +13915,7 @@
         <v>23822703.26402902</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14192,7 +13948,7 @@
         <v>23822703.26402902</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14225,7 +13981,7 @@
         <v>23822703.26402902</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14258,7 +14014,7 @@
         <v>23836109.35862902</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14291,7 +14047,7 @@
         <v>23836517.02872902</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14324,7 +14080,7 @@
         <v>23793345.62692902</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14357,7 +14113,7 @@
         <v>23617452.37242902</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14390,7 +14146,7 @@
         <v>23429809.14702902</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14423,7 +14179,7 @@
         <v>23429809.14702902</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14456,7 +14212,7 @@
         <v>23324923.34962901</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14489,7 +14245,7 @@
         <v>23241842.10672902</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14522,7 +14278,7 @@
         <v>23249414.05682902</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14555,7 +14311,7 @@
         <v>23249414.05682902</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -17723,7 +17479,7 @@
         <v>21264486.43382749</v>
       </c>
       <c r="H518" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17756,7 +17512,7 @@
         <v>21488516.69662749</v>
       </c>
       <c r="H519" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17789,7 +17545,7 @@
         <v>21488516.69662749</v>
       </c>
       <c r="H520" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17822,7 +17578,7 @@
         <v>21376818.13862749</v>
       </c>
       <c r="H521" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17855,7 +17611,7 @@
         <v>21447871.64742749</v>
       </c>
       <c r="H522" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17888,7 +17644,7 @@
         <v>21365986.50682749</v>
       </c>
       <c r="H523" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17921,7 +17677,7 @@
         <v>21166826.72522749</v>
       </c>
       <c r="H524" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19802,7 +19558,7 @@
         <v>20629829.62765612</v>
       </c>
       <c r="H581" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19835,7 +19591,7 @@
         <v>20618585.10535612</v>
       </c>
       <c r="H582" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19868,7 +19624,7 @@
         <v>20624923.73255612</v>
       </c>
       <c r="H583" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19901,7 +19657,7 @@
         <v>20539610.64005612</v>
       </c>
       <c r="H584" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19934,7 +19690,7 @@
         <v>20539719.88045612</v>
       </c>
       <c r="H585" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -20066,7 +19822,7 @@
         <v>20829676.59675612</v>
       </c>
       <c r="H589" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -20165,7 +19921,7 @@
         <v>20515561.46855612</v>
       </c>
       <c r="H592" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -20198,7 +19954,7 @@
         <v>20515561.46855612</v>
       </c>
       <c r="H593" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -20231,7 +19987,7 @@
         <v>20515561.46855612</v>
       </c>
       <c r="H594" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -24059,10 +23815,14 @@
         <v>-9781284.506578688</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>47</v>
+      </c>
+      <c r="J710" t="n">
+        <v>47</v>
+      </c>
       <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
@@ -24092,11 +23852,19 @@
         <v>-9781284.506578688</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
-      </c>
-      <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I711" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="J711" t="n">
+        <v>47</v>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24125,11 +23893,19 @@
         <v>-9781274.506578688</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
-      </c>
-      <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I712" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="J712" t="n">
+        <v>47</v>
+      </c>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24158,11 +23934,19 @@
         <v>-9781274.506578688</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
-      </c>
-      <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I713" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="J713" t="n">
+        <v>47</v>
+      </c>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24191,11 +23975,19 @@
         <v>-9747535.752678687</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
-      </c>
-      <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I714" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="J714" t="n">
+        <v>47</v>
+      </c>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24224,11 +24016,19 @@
         <v>-9747575.230478687</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
-      </c>
-      <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I715" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="J715" t="n">
+        <v>47</v>
+      </c>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24257,11 +24057,19 @@
         <v>-9747565.230478687</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I716" t="n">
+        <v>47</v>
+      </c>
+      <c r="J716" t="n">
+        <v>47</v>
+      </c>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24290,11 +24098,19 @@
         <v>-9748565.230478687</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I717" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="J717" t="n">
+        <v>47</v>
+      </c>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24323,11 +24139,19 @@
         <v>-9679759.036078688</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
-      </c>
-      <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I718" t="n">
+        <v>47</v>
+      </c>
+      <c r="J718" t="n">
+        <v>47</v>
+      </c>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24356,11 +24180,19 @@
         <v>-9679806.547578687</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
-      </c>
-      <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I719" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="J719" t="n">
+        <v>47</v>
+      </c>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24389,11 +24221,19 @@
         <v>-9679796.059078686</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
-      </c>
-      <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I720" t="n">
+        <v>47</v>
+      </c>
+      <c r="J720" t="n">
+        <v>47</v>
+      </c>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24422,11 +24262,19 @@
         <v>-9703369.015078686</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
-      </c>
-      <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I721" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="J721" t="n">
+        <v>47</v>
+      </c>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24455,11 +24303,19 @@
         <v>-9703369.015078686</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
-      </c>
-      <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I722" t="n">
+        <v>47</v>
+      </c>
+      <c r="J722" t="n">
+        <v>47</v>
+      </c>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24488,11 +24344,19 @@
         <v>-9703369.015078686</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
-      </c>
-      <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I723" t="n">
+        <v>47</v>
+      </c>
+      <c r="J723" t="n">
+        <v>47</v>
+      </c>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24521,11 +24385,19 @@
         <v>-9704493.527878687</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
-      </c>
-      <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I724" t="n">
+        <v>47</v>
+      </c>
+      <c r="J724" t="n">
+        <v>47</v>
+      </c>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24554,11 +24426,19 @@
         <v>-9720747.586278686</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
-      </c>
-      <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I725" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="J725" t="n">
+        <v>47</v>
+      </c>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24587,11 +24467,19 @@
         <v>-9720747.586278686</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
-      </c>
-      <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I726" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="J726" t="n">
+        <v>47</v>
+      </c>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24620,11 +24508,19 @@
         <v>-9727136.976878686</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
-      </c>
-      <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I727" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="J727" t="n">
+        <v>47</v>
+      </c>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24653,11 +24549,19 @@
         <v>-9737904.339678686</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
-      </c>
-      <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I728" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="J728" t="n">
+        <v>47</v>
+      </c>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24686,11 +24590,19 @@
         <v>-9737892.339678686</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
-      </c>
-      <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I729" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="J729" t="n">
+        <v>47</v>
+      </c>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -24719,11 +24631,19 @@
         <v>-9723664.013578687</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
-      </c>
-      <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I730" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="J730" t="n">
+        <v>47</v>
+      </c>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -24752,11 +24672,19 @@
         <v>-9727353.584978687</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
-      </c>
-      <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I731" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="J731" t="n">
+        <v>47</v>
+      </c>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -24785,11 +24713,19 @@
         <v>-9726989.474978687</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
-      </c>
-      <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I732" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="J732" t="n">
+        <v>47</v>
+      </c>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -24818,11 +24754,19 @@
         <v>-9729709.776778687</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
-      </c>
-      <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I733" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="J733" t="n">
+        <v>47</v>
+      </c>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -24851,11 +24795,19 @@
         <v>-9714291.639778687</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
-      </c>
-      <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I734" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="J734" t="n">
+        <v>47</v>
+      </c>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -24884,11 +24836,19 @@
         <v>-9718317.481978687</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I735" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="J735" t="n">
+        <v>47</v>
+      </c>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -24917,11 +24877,19 @@
         <v>-9718317.481978687</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
-      </c>
-      <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I736" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="J736" t="n">
+        <v>47</v>
+      </c>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -24950,11 +24918,19 @@
         <v>-9774729.744078686</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I737" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="J737" t="n">
+        <v>47</v>
+      </c>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -24983,11 +24959,19 @@
         <v>-9774729.744078686</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I738" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="J738" t="n">
+        <v>47</v>
+      </c>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25016,11 +25000,19 @@
         <v>-9816770.267478686</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="J739" t="n">
+        <v>47</v>
+      </c>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25049,11 +25041,19 @@
         <v>-9816770.267478686</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="J740" t="n">
+        <v>47</v>
+      </c>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25082,11 +25082,19 @@
         <v>-9816770.267478686</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I741" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="J741" t="n">
+        <v>47</v>
+      </c>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25115,11 +25123,19 @@
         <v>-9816770.267478686</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
-      </c>
-      <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I742" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="J742" t="n">
+        <v>47</v>
+      </c>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25148,11 +25164,19 @@
         <v>-9816770.267478686</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
-      </c>
-      <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I743" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="J743" t="n">
+        <v>47</v>
+      </c>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25181,11 +25205,19 @@
         <v>-9800479.385578686</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I744" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="J744" t="n">
+        <v>47</v>
+      </c>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25214,11 +25246,19 @@
         <v>-9800479.385578686</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
-      </c>
-      <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I745" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="J745" t="n">
+        <v>47</v>
+      </c>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25247,11 +25287,19 @@
         <v>-9784941.783355283</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
-      </c>
-      <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I746" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="J746" t="n">
+        <v>47</v>
+      </c>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25280,11 +25328,19 @@
         <v>-9809246.654555283</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
-      </c>
-      <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I747" t="n">
+        <v>47</v>
+      </c>
+      <c r="J747" t="n">
+        <v>47</v>
+      </c>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25313,11 +25369,19 @@
         <v>-9903305.730555283</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I748" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="J748" t="n">
+        <v>47</v>
+      </c>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25346,11 +25410,19 @@
         <v>-9925049.057455283</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I749" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="J749" t="n">
+        <v>47</v>
+      </c>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25379,11 +25451,19 @@
         <v>-9934700.803555282</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I750" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="J750" t="n">
+        <v>47</v>
+      </c>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25412,11 +25492,19 @@
         <v>-10014684.84315528</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I751" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="J751" t="n">
+        <v>47</v>
+      </c>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25445,11 +25533,19 @@
         <v>-10014684.84315528</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
-      </c>
-      <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I752" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="J752" t="n">
+        <v>47</v>
+      </c>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25478,11 +25574,19 @@
         <v>-10076295.71515528</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
-      </c>
-      <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I753" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="J753" t="n">
+        <v>47</v>
+      </c>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25511,11 +25615,19 @@
         <v>-10076295.71515528</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="J754" t="n">
+        <v>47</v>
+      </c>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25544,11 +25656,19 @@
         <v>-10166243.53415528</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
-      </c>
-      <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I755" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="J755" t="n">
+        <v>47</v>
+      </c>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25577,11 +25697,19 @@
         <v>-10193132.69785528</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
-      </c>
-      <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I756" t="n">
+        <v>45</v>
+      </c>
+      <c r="J756" t="n">
+        <v>47</v>
+      </c>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25610,11 +25738,19 @@
         <v>-10193132.69785528</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
-      </c>
-      <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I757" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="J757" t="n">
+        <v>47</v>
+      </c>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25643,11 +25779,19 @@
         <v>-10161209.42535528</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
-      </c>
-      <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I758" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="J758" t="n">
+        <v>47</v>
+      </c>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25676,11 +25820,19 @@
         <v>-10161759.42535528</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
-      </c>
-      <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I759" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="J759" t="n">
+        <v>47</v>
+      </c>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -25709,11 +25861,19 @@
         <v>-10160381.77935528</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
-      </c>
-      <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I760" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="J760" t="n">
+        <v>47</v>
+      </c>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25742,11 +25902,19 @@
         <v>-10234835.77255528</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
-      </c>
-      <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I761" t="n">
+        <v>46</v>
+      </c>
+      <c r="J761" t="n">
+        <v>47</v>
+      </c>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -25775,11 +25943,19 @@
         <v>-10212041.59875528</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
-      </c>
-      <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I762" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="J762" t="n">
+        <v>47</v>
+      </c>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -25808,11 +25984,19 @@
         <v>-10255797.27625528</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
-      </c>
-      <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I763" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="J763" t="n">
+        <v>47</v>
+      </c>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -25841,11 +26025,19 @@
         <v>-10260602.39765528</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
-      </c>
-      <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I764" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="J764" t="n">
+        <v>47</v>
+      </c>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -25874,11 +26066,19 @@
         <v>-10272077.35925528</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
-      </c>
-      <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I765" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="J765" t="n">
+        <v>47</v>
+      </c>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -25907,11 +26107,19 @@
         <v>-10272077.35925528</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
-      </c>
-      <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I766" t="n">
+        <v>45</v>
+      </c>
+      <c r="J766" t="n">
+        <v>47</v>
+      </c>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -25940,11 +26148,19 @@
         <v>-10330019.67935528</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
-      </c>
-      <c r="I767" t="inlineStr"/>
-      <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I767" t="n">
+        <v>45</v>
+      </c>
+      <c r="J767" t="n">
+        <v>47</v>
+      </c>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -25973,11 +26189,19 @@
         <v>-10591378.20805528</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
-      </c>
-      <c r="I768" t="inlineStr"/>
-      <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I768" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="J768" t="n">
+        <v>47</v>
+      </c>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -26006,11 +26230,19 @@
         <v>-10500349.85115528</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
-      </c>
-      <c r="I769" t="inlineStr"/>
-      <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I769" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="J769" t="n">
+        <v>47</v>
+      </c>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -26039,11 +26271,19 @@
         <v>-10493377.38315528</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
-      </c>
-      <c r="I770" t="inlineStr"/>
-      <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I770" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="J770" t="n">
+        <v>47</v>
+      </c>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -26072,11 +26312,19 @@
         <v>-10490122.86715528</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
-      </c>
-      <c r="I771" t="inlineStr"/>
-      <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I771" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="J771" t="n">
+        <v>47</v>
+      </c>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -26105,11 +26353,19 @@
         <v>-10490122.86715528</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
-      </c>
-      <c r="I772" t="inlineStr"/>
-      <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I772" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="J772" t="n">
+        <v>47</v>
+      </c>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -26138,11 +26394,19 @@
         <v>-10496235.17975528</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
-      </c>
-      <c r="I773" t="inlineStr"/>
-      <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I773" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="J773" t="n">
+        <v>47</v>
+      </c>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -26171,11 +26435,19 @@
         <v>-10421671.59565528</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
-      </c>
-      <c r="I774" t="inlineStr"/>
-      <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I774" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="J774" t="n">
+        <v>47</v>
+      </c>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26204,11 +26476,19 @@
         <v>-10308889.08295528</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
-      </c>
-      <c r="I775" t="inlineStr"/>
-      <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I775" t="n">
+        <v>45</v>
+      </c>
+      <c r="J775" t="n">
+        <v>47</v>
+      </c>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26237,11 +26517,19 @@
         <v>-10326547.38375528</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
-      </c>
-      <c r="I776" t="inlineStr"/>
-      <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I776" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="J776" t="n">
+        <v>47</v>
+      </c>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26270,11 +26558,19 @@
         <v>-10167953.05715528</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
-      </c>
-      <c r="I777" t="inlineStr"/>
-      <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I777" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="J777" t="n">
+        <v>47</v>
+      </c>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26303,11 +26599,19 @@
         <v>-10162433.00235528</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
-      </c>
-      <c r="I778" t="inlineStr"/>
-      <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I778" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="J778" t="n">
+        <v>47</v>
+      </c>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26336,11 +26640,19 @@
         <v>-10164172.40755528</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
-      </c>
-      <c r="I779" t="inlineStr"/>
-      <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I779" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="J779" t="n">
+        <v>47</v>
+      </c>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26369,11 +26681,19 @@
         <v>-10066978.1221164</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
-      </c>
-      <c r="I780" t="inlineStr"/>
-      <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I780" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="J780" t="n">
+        <v>47</v>
+      </c>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26402,11 +26722,19 @@
         <v>-10082607.7320164</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
-      </c>
-      <c r="I781" t="inlineStr"/>
-      <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I781" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="J781" t="n">
+        <v>47</v>
+      </c>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26435,11 +26763,19 @@
         <v>-10082607.7320164</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
-      </c>
-      <c r="I782" t="inlineStr"/>
-      <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I782" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="J782" t="n">
+        <v>47</v>
+      </c>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26468,11 +26804,19 @@
         <v>-10080393.2419164</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
-      </c>
-      <c r="I783" t="inlineStr"/>
-      <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I783" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="J783" t="n">
+        <v>47</v>
+      </c>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26501,11 +26845,19 @@
         <v>-10080393.2419164</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
-      </c>
-      <c r="I784" t="inlineStr"/>
-      <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I784" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="J784" t="n">
+        <v>47</v>
+      </c>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26534,11 +26886,19 @@
         <v>-10093111.8970164</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
-      </c>
-      <c r="I785" t="inlineStr"/>
-      <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I785" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="J785" t="n">
+        <v>47</v>
+      </c>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26567,11 +26927,19 @@
         <v>-10108496.6124164</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
-      </c>
-      <c r="I786" t="inlineStr"/>
-      <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I786" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="J786" t="n">
+        <v>47</v>
+      </c>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26600,11 +26968,19 @@
         <v>-10108376.6124164</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
-      </c>
-      <c r="I787" t="inlineStr"/>
-      <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I787" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="J787" t="n">
+        <v>47</v>
+      </c>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26633,11 +27009,19 @@
         <v>-10108376.6124164</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
-      </c>
-      <c r="I788" t="inlineStr"/>
-      <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I788" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="J788" t="n">
+        <v>47</v>
+      </c>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26666,11 +27050,19 @@
         <v>-10179601.9085164</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
-      </c>
-      <c r="I789" t="inlineStr"/>
-      <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I789" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="J789" t="n">
+        <v>47</v>
+      </c>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26699,11 +27091,19 @@
         <v>-10179601.9085164</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
-      </c>
-      <c r="I790" t="inlineStr"/>
-      <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I790" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="J790" t="n">
+        <v>47</v>
+      </c>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26732,11 +27132,19 @@
         <v>-10179601.9085164</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
-      </c>
-      <c r="I791" t="inlineStr"/>
-      <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I791" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="J791" t="n">
+        <v>47</v>
+      </c>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26765,11 +27173,19 @@
         <v>-10178635.9119164</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
-      </c>
-      <c r="I792" t="inlineStr"/>
-      <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I792" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="J792" t="n">
+        <v>47</v>
+      </c>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26798,11 +27214,19 @@
         <v>-10178635.9119164</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
-      </c>
-      <c r="I793" t="inlineStr"/>
-      <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I793" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="J793" t="n">
+        <v>47</v>
+      </c>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26831,11 +27255,19 @@
         <v>-10178635.9119164</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
-      </c>
-      <c r="I794" t="inlineStr"/>
-      <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I794" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="J794" t="n">
+        <v>47</v>
+      </c>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26864,11 +27296,19 @@
         <v>-10165143.1334164</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
-      </c>
-      <c r="I795" t="inlineStr"/>
-      <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I795" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="J795" t="n">
+        <v>47</v>
+      </c>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26897,11 +27337,19 @@
         <v>-10162319.3945164</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
-      </c>
-      <c r="I796" t="inlineStr"/>
-      <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I796" t="n">
+        <v>45</v>
+      </c>
+      <c r="J796" t="n">
+        <v>47</v>
+      </c>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -26930,11 +27378,19 @@
         <v>-10162319.3945164</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
-      </c>
-      <c r="I797" t="inlineStr"/>
-      <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I797" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="J797" t="n">
+        <v>47</v>
+      </c>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -26963,11 +27419,19 @@
         <v>-10162654.9093164</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
-      </c>
-      <c r="I798" t="inlineStr"/>
-      <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I798" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="J798" t="n">
+        <v>47</v>
+      </c>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -26996,11 +27460,19 @@
         <v>-10162654.9093164</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
-      </c>
-      <c r="I799" t="inlineStr"/>
-      <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I799" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="J799" t="n">
+        <v>47</v>
+      </c>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -27029,11 +27501,19 @@
         <v>-10162640.6394164</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
-      </c>
-      <c r="I800" t="inlineStr"/>
-      <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I800" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="J800" t="n">
+        <v>47</v>
+      </c>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -27062,11 +27542,19 @@
         <v>-10207236.7517164</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
-      </c>
-      <c r="I801" t="inlineStr"/>
-      <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I801" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="J801" t="n">
+        <v>47</v>
+      </c>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -27098,8 +27586,14 @@
         <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
-      <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="J802" t="n">
+        <v>47</v>
+      </c>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -27128,11 +27622,19 @@
         <v>-10208006.6323164</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
-      </c>
-      <c r="I803" t="inlineStr"/>
-      <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I803" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="J803" t="n">
+        <v>47</v>
+      </c>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -27161,11 +27663,19 @@
         <v>-10208006.6323164</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
-      </c>
-      <c r="I804" t="inlineStr"/>
-      <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I804" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="J804" t="n">
+        <v>47</v>
+      </c>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -27197,8 +27707,14 @@
         <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
-      <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="J805" t="n">
+        <v>47</v>
+      </c>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -27230,8 +27746,14 @@
         <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
-      <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="J806" t="n">
+        <v>47</v>
+      </c>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27263,8 +27785,14 @@
         <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
-      <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="J807" t="n">
+        <v>47</v>
+      </c>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27296,8 +27824,14 @@
         <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
-      <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="J808" t="n">
+        <v>47</v>
+      </c>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27329,8 +27863,14 @@
         <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
-      <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="J809" t="n">
+        <v>47</v>
+      </c>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27362,8 +27902,14 @@
         <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
-      <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="J810" t="n">
+        <v>47</v>
+      </c>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -27392,11 +27938,19 @@
         <v>-10012292.52249184</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
-      </c>
-      <c r="I811" t="inlineStr"/>
-      <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I811" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="J811" t="n">
+        <v>47</v>
+      </c>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -27428,8 +27982,14 @@
         <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
-      <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="J812" t="n">
+        <v>47</v>
+      </c>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27461,8 +28021,14 @@
         <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
-      <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="J813" t="n">
+        <v>47</v>
+      </c>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27494,8 +28060,14 @@
         <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="J814" t="n">
+        <v>47</v>
+      </c>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -27527,8 +28099,14 @@
         <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
-      <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="J815" t="n">
+        <v>47</v>
+      </c>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -27560,8 +28138,14 @@
         <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
-      <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="J816" t="n">
+        <v>47</v>
+      </c>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -27593,8 +28177,14 @@
         <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
-      <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="J817" t="n">
+        <v>47</v>
+      </c>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -27626,8 +28216,14 @@
         <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
-      <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="J818" t="n">
+        <v>47</v>
+      </c>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27659,8 +28255,14 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="J819" t="n">
+        <v>47</v>
+      </c>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -27692,8 +28294,14 @@
         <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
-      <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="J820" t="n">
+        <v>47</v>
+      </c>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -27725,8 +28333,14 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="J821" t="n">
+        <v>47</v>
+      </c>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -27758,8 +28372,14 @@
         <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="J822" t="n">
+        <v>47</v>
+      </c>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -27791,8 +28411,14 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="J823" t="n">
+        <v>47</v>
+      </c>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -27824,8 +28450,14 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="J824" t="n">
+        <v>47</v>
+      </c>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -27857,8 +28489,14 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="J825" t="n">
+        <v>47</v>
+      </c>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -27890,8 +28528,14 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="J826" t="n">
+        <v>47</v>
+      </c>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -27923,8 +28567,14 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="J827" t="n">
+        <v>47</v>
+      </c>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -27956,8 +28606,14 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="J828" t="n">
+        <v>47</v>
+      </c>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -27989,8 +28645,14 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="J829" t="n">
+        <v>47</v>
+      </c>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -28022,8 +28684,14 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="J830" t="n">
+        <v>47</v>
+      </c>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -28055,8 +28723,14 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="J831" t="n">
+        <v>47</v>
+      </c>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -28088,8 +28762,14 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="J832" t="n">
+        <v>47</v>
+      </c>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -28121,8 +28801,14 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="J833" t="n">
+        <v>47</v>
+      </c>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -28154,8 +28840,14 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="J834" t="n">
+        <v>47</v>
+      </c>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -28187,8 +28879,14 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="J835" t="n">
+        <v>47</v>
+      </c>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -28220,8 +28918,14 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="J836" t="n">
+        <v>47</v>
+      </c>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28253,8 +28957,14 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="J837" t="n">
+        <v>47</v>
+      </c>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28286,8 +28996,14 @@
         <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="J838" t="n">
+        <v>47</v>
+      </c>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28319,8 +29035,14 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="J839" t="n">
+        <v>47</v>
+      </c>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28352,14 +29074,20 @@
         <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="J840" t="n">
+        <v>47</v>
+      </c>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
       <c r="M840" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest TRV.xlsx
+++ b/BackTest/2019-10-31 BackTest TRV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -8371,7 +8371,7 @@
         <v>23565507.64161851</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>23144848.9623114</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>22674173.78221856</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>22798163.23521856</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>22798163.23521856</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>23867615.55091856</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>24230965.41051856</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>23677783.2847793</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>23312642.26038031</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>22973675.9603803</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>24044225.9524803</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>24513692.51548221</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>23851434.18549683</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>24222532.74269683</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>23732951.28044929</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>23457565.22924929</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>25235228.82518626</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>25904672.27457479</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>25904672.27457479</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>25904672.27457479</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>25005755.79277479</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>24653411.29627479</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>24848864.42187479</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>24347981.54597479</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>23854566.45162173</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>24594534.13902173</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>24832507.15848763</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>24915479.48088763</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>24977528.82348762</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>25752369.64438763</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>25752369.64438763</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>26079923.96408763</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>26079923.96408763</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>26260780.46598763</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>26260780.46598763</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>25764375.22008762</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>25677573.17928762</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>25379027.60938843</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>25298417.88038843</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>25073912.30628844</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>25153374.19458844</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>25191509.98882799</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>25139602.98672799</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>25000019.72562799</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>24851313.02192799</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>24660975.45332799</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>24668572.16012799</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>24397125.33772799</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>24667021.91442799</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>24449723.19672799</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>24451180.92232799</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>24451180.92232799</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>24342824.19462799</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>24212000.58975236</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>24171112.69765237</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>24291475.26345237</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>24195007.00505237</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>24015488.44275237</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>23891052.27225237</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>23891052.27225237</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>23924102.85785237</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>23882101.0485291</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>23935855.6850291</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>23962790.24720583</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>23922155.77930583</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>23922155.77930583</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>23922155.77930583</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>23888989.62388256</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>23745211.75410583</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>23907643.17790583</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>23878544.78940583</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>24213250.59890583</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>23836109.35862902</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>23836517.02872902</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>23793345.62692902</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>23617452.37242902</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>23429809.14702902</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>23429809.14702902</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>23324923.34962901</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>23241842.10672902</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>23249414.05682902</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>23249414.05682902</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -23815,14 +23815,10 @@
         <v>-9781284.506578688</v>
       </c>
       <c r="H710" t="n">
-        <v>1</v>
-      </c>
-      <c r="I710" t="n">
-        <v>47</v>
-      </c>
-      <c r="J710" t="n">
-        <v>47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I710" t="inlineStr"/>
+      <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
@@ -23852,2315 +23848,1871 @@
         <v>-9781284.506578688</v>
       </c>
       <c r="H711" t="n">
-        <v>1</v>
-      </c>
-      <c r="I711" t="n">
+        <v>0</v>
+      </c>
+      <c r="I711" t="inlineStr"/>
+      <c r="J711" t="inlineStr"/>
+      <c r="K711" t="inlineStr"/>
+      <c r="L711" t="n">
+        <v>1</v>
+      </c>
+      <c r="M711" t="inlineStr"/>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="n">
+        <v>710</v>
+      </c>
+      <c r="B712" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="C712" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="D712" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="E712" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="F712" t="n">
+        <v>10</v>
+      </c>
+      <c r="G712" t="n">
+        <v>-9781274.506578688</v>
+      </c>
+      <c r="H712" t="n">
+        <v>0</v>
+      </c>
+      <c r="I712" t="inlineStr"/>
+      <c r="J712" t="inlineStr"/>
+      <c r="K712" t="inlineStr"/>
+      <c r="L712" t="n">
+        <v>1</v>
+      </c>
+      <c r="M712" t="inlineStr"/>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="n">
+        <v>711</v>
+      </c>
+      <c r="B713" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="C713" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="D713" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="E713" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="F713" t="n">
+        <v>2068.8713</v>
+      </c>
+      <c r="G713" t="n">
+        <v>-9781274.506578688</v>
+      </c>
+      <c r="H713" t="n">
+        <v>0</v>
+      </c>
+      <c r="I713" t="inlineStr"/>
+      <c r="J713" t="inlineStr"/>
+      <c r="K713" t="inlineStr"/>
+      <c r="L713" t="n">
+        <v>1</v>
+      </c>
+      <c r="M713" t="inlineStr"/>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="n">
+        <v>712</v>
+      </c>
+      <c r="B714" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="C714" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="D714" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="E714" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="F714" t="n">
+        <v>33738.7539</v>
+      </c>
+      <c r="G714" t="n">
+        <v>-9747535.752678687</v>
+      </c>
+      <c r="H714" t="n">
+        <v>0</v>
+      </c>
+      <c r="I714" t="inlineStr"/>
+      <c r="J714" t="inlineStr"/>
+      <c r="K714" t="inlineStr"/>
+      <c r="L714" t="n">
+        <v>1</v>
+      </c>
+      <c r="M714" t="inlineStr"/>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="n">
+        <v>713</v>
+      </c>
+      <c r="B715" t="n">
+        <v>47</v>
+      </c>
+      <c r="C715" t="n">
+        <v>47</v>
+      </c>
+      <c r="D715" t="n">
+        <v>47</v>
+      </c>
+      <c r="E715" t="n">
+        <v>47</v>
+      </c>
+      <c r="F715" t="n">
+        <v>39.4778</v>
+      </c>
+      <c r="G715" t="n">
+        <v>-9747575.230478687</v>
+      </c>
+      <c r="H715" t="n">
+        <v>0</v>
+      </c>
+      <c r="I715" t="inlineStr"/>
+      <c r="J715" t="inlineStr"/>
+      <c r="K715" t="inlineStr"/>
+      <c r="L715" t="n">
+        <v>1</v>
+      </c>
+      <c r="M715" t="inlineStr"/>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="n">
+        <v>714</v>
+      </c>
+      <c r="B716" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="C716" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="D716" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="E716" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="F716" t="n">
+        <v>10</v>
+      </c>
+      <c r="G716" t="n">
+        <v>-9747565.230478687</v>
+      </c>
+      <c r="H716" t="n">
+        <v>0</v>
+      </c>
+      <c r="I716" t="inlineStr"/>
+      <c r="J716" t="inlineStr"/>
+      <c r="K716" t="inlineStr"/>
+      <c r="L716" t="n">
+        <v>1</v>
+      </c>
+      <c r="M716" t="inlineStr"/>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="n">
+        <v>715</v>
+      </c>
+      <c r="B717" t="n">
+        <v>47</v>
+      </c>
+      <c r="C717" t="n">
+        <v>47</v>
+      </c>
+      <c r="D717" t="n">
+        <v>47</v>
+      </c>
+      <c r="E717" t="n">
+        <v>47</v>
+      </c>
+      <c r="F717" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G717" t="n">
+        <v>-9748565.230478687</v>
+      </c>
+      <c r="H717" t="n">
+        <v>0</v>
+      </c>
+      <c r="I717" t="inlineStr"/>
+      <c r="J717" t="inlineStr"/>
+      <c r="K717" t="inlineStr"/>
+      <c r="L717" t="n">
+        <v>1</v>
+      </c>
+      <c r="M717" t="inlineStr"/>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="n">
+        <v>716</v>
+      </c>
+      <c r="B718" t="n">
+        <v>47</v>
+      </c>
+      <c r="C718" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="D718" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="E718" t="n">
+        <v>47</v>
+      </c>
+      <c r="F718" t="n">
+        <v>68806.19439999999</v>
+      </c>
+      <c r="G718" t="n">
+        <v>-9679759.036078688</v>
+      </c>
+      <c r="H718" t="n">
+        <v>0</v>
+      </c>
+      <c r="I718" t="inlineStr"/>
+      <c r="J718" t="inlineStr"/>
+      <c r="K718" t="inlineStr"/>
+      <c r="L718" t="n">
+        <v>1</v>
+      </c>
+      <c r="M718" t="inlineStr"/>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="n">
+        <v>717</v>
+      </c>
+      <c r="B719" t="n">
+        <v>47</v>
+      </c>
+      <c r="C719" t="n">
+        <v>47</v>
+      </c>
+      <c r="D719" t="n">
+        <v>47</v>
+      </c>
+      <c r="E719" t="n">
+        <v>47</v>
+      </c>
+      <c r="F719" t="n">
+        <v>47.5115</v>
+      </c>
+      <c r="G719" t="n">
+        <v>-9679806.547578687</v>
+      </c>
+      <c r="H719" t="n">
+        <v>0</v>
+      </c>
+      <c r="I719" t="inlineStr"/>
+      <c r="J719" t="inlineStr"/>
+      <c r="K719" t="inlineStr"/>
+      <c r="L719" t="n">
+        <v>1</v>
+      </c>
+      <c r="M719" t="inlineStr"/>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="n">
+        <v>718</v>
+      </c>
+      <c r="B720" t="n">
+        <v>47</v>
+      </c>
+      <c r="C720" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="D720" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="E720" t="n">
+        <v>47</v>
+      </c>
+      <c r="F720" t="n">
+        <v>10.4885</v>
+      </c>
+      <c r="G720" t="n">
+        <v>-9679796.059078686</v>
+      </c>
+      <c r="H720" t="n">
+        <v>0</v>
+      </c>
+      <c r="I720" t="inlineStr"/>
+      <c r="J720" t="inlineStr"/>
+      <c r="K720" t="inlineStr"/>
+      <c r="L720" t="n">
+        <v>1</v>
+      </c>
+      <c r="M720" t="inlineStr"/>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="n">
+        <v>719</v>
+      </c>
+      <c r="B721" t="n">
+        <v>47</v>
+      </c>
+      <c r="C721" t="n">
+        <v>47</v>
+      </c>
+      <c r="D721" t="n">
+        <v>47</v>
+      </c>
+      <c r="E721" t="n">
+        <v>47</v>
+      </c>
+      <c r="F721" t="n">
+        <v>23572.956</v>
+      </c>
+      <c r="G721" t="n">
+        <v>-9703369.015078686</v>
+      </c>
+      <c r="H721" t="n">
+        <v>0</v>
+      </c>
+      <c r="I721" t="inlineStr"/>
+      <c r="J721" t="inlineStr"/>
+      <c r="K721" t="inlineStr"/>
+      <c r="L721" t="n">
+        <v>1</v>
+      </c>
+      <c r="M721" t="inlineStr"/>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="n">
+        <v>720</v>
+      </c>
+      <c r="B722" t="n">
+        <v>47</v>
+      </c>
+      <c r="C722" t="n">
+        <v>47</v>
+      </c>
+      <c r="D722" t="n">
+        <v>47</v>
+      </c>
+      <c r="E722" t="n">
+        <v>47</v>
+      </c>
+      <c r="F722" t="n">
+        <v>48416</v>
+      </c>
+      <c r="G722" t="n">
+        <v>-9703369.015078686</v>
+      </c>
+      <c r="H722" t="n">
+        <v>0</v>
+      </c>
+      <c r="I722" t="inlineStr"/>
+      <c r="J722" t="inlineStr"/>
+      <c r="K722" t="inlineStr"/>
+      <c r="L722" t="n">
+        <v>1</v>
+      </c>
+      <c r="M722" t="inlineStr"/>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="n">
+        <v>721</v>
+      </c>
+      <c r="B723" t="n">
+        <v>47</v>
+      </c>
+      <c r="C723" t="n">
+        <v>47</v>
+      </c>
+      <c r="D723" t="n">
+        <v>47</v>
+      </c>
+      <c r="E723" t="n">
+        <v>47</v>
+      </c>
+      <c r="F723" t="n">
+        <v>18865</v>
+      </c>
+      <c r="G723" t="n">
+        <v>-9703369.015078686</v>
+      </c>
+      <c r="H723" t="n">
+        <v>0</v>
+      </c>
+      <c r="I723" t="inlineStr"/>
+      <c r="J723" t="inlineStr"/>
+      <c r="K723" t="inlineStr"/>
+      <c r="L723" t="n">
+        <v>1</v>
+      </c>
+      <c r="M723" t="inlineStr"/>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="n">
+        <v>722</v>
+      </c>
+      <c r="B724" t="n">
+        <v>47</v>
+      </c>
+      <c r="C724" t="n">
         <v>46.9</v>
       </c>
-      <c r="J711" t="n">
+      <c r="D724" t="n">
         <v>47</v>
       </c>
-      <c r="K711" t="inlineStr">
+      <c r="E724" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="F724" t="n">
+        <v>1124.5128</v>
+      </c>
+      <c r="G724" t="n">
+        <v>-9704493.527878687</v>
+      </c>
+      <c r="H724" t="n">
+        <v>0</v>
+      </c>
+      <c r="I724" t="inlineStr"/>
+      <c r="J724" t="inlineStr"/>
+      <c r="K724" t="inlineStr"/>
+      <c r="L724" t="n">
+        <v>1</v>
+      </c>
+      <c r="M724" t="inlineStr"/>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="n">
+        <v>723</v>
+      </c>
+      <c r="B725" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="C725" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="D725" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="E725" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="F725" t="n">
+        <v>16254.0584</v>
+      </c>
+      <c r="G725" t="n">
+        <v>-9720747.586278686</v>
+      </c>
+      <c r="H725" t="n">
+        <v>0</v>
+      </c>
+      <c r="I725" t="inlineStr"/>
+      <c r="J725" t="inlineStr"/>
+      <c r="K725" t="inlineStr"/>
+      <c r="L725" t="n">
+        <v>1</v>
+      </c>
+      <c r="M725" t="inlineStr"/>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="n">
+        <v>724</v>
+      </c>
+      <c r="B726" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="C726" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="D726" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="E726" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="F726" t="n">
+        <v>518.2621</v>
+      </c>
+      <c r="G726" t="n">
+        <v>-9720747.586278686</v>
+      </c>
+      <c r="H726" t="n">
+        <v>0</v>
+      </c>
+      <c r="I726" t="inlineStr"/>
+      <c r="J726" t="inlineStr"/>
+      <c r="K726" t="inlineStr"/>
+      <c r="L726" t="n">
+        <v>1</v>
+      </c>
+      <c r="M726" t="inlineStr"/>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="n">
+        <v>725</v>
+      </c>
+      <c r="B727" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="C727" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="D727" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="E727" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="F727" t="n">
+        <v>6389.3906</v>
+      </c>
+      <c r="G727" t="n">
+        <v>-9727136.976878686</v>
+      </c>
+      <c r="H727" t="n">
+        <v>0</v>
+      </c>
+      <c r="I727" t="inlineStr"/>
+      <c r="J727" t="inlineStr"/>
+      <c r="K727" t="inlineStr"/>
+      <c r="L727" t="n">
+        <v>1</v>
+      </c>
+      <c r="M727" t="inlineStr"/>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="n">
+        <v>726</v>
+      </c>
+      <c r="B728" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="C728" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="D728" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="E728" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="F728" t="n">
+        <v>10767.3628</v>
+      </c>
+      <c r="G728" t="n">
+        <v>-9737904.339678686</v>
+      </c>
+      <c r="H728" t="n">
+        <v>0</v>
+      </c>
+      <c r="I728" t="inlineStr"/>
+      <c r="J728" t="inlineStr"/>
+      <c r="K728" t="inlineStr"/>
+      <c r="L728" t="n">
+        <v>1</v>
+      </c>
+      <c r="M728" t="inlineStr"/>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n">
+        <v>727</v>
+      </c>
+      <c r="B729" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="C729" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="D729" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="E729" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="F729" t="n">
+        <v>12</v>
+      </c>
+      <c r="G729" t="n">
+        <v>-9737892.339678686</v>
+      </c>
+      <c r="H729" t="n">
+        <v>0</v>
+      </c>
+      <c r="I729" t="inlineStr"/>
+      <c r="J729" t="inlineStr"/>
+      <c r="K729" t="inlineStr"/>
+      <c r="L729" t="n">
+        <v>1</v>
+      </c>
+      <c r="M729" t="inlineStr"/>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="n">
+        <v>728</v>
+      </c>
+      <c r="B730" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="C730" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="D730" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="E730" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="F730" t="n">
+        <v>14228.3261</v>
+      </c>
+      <c r="G730" t="n">
+        <v>-9723664.013578687</v>
+      </c>
+      <c r="H730" t="n">
+        <v>0</v>
+      </c>
+      <c r="I730" t="inlineStr"/>
+      <c r="J730" t="inlineStr"/>
+      <c r="K730" t="inlineStr"/>
+      <c r="L730" t="n">
+        <v>1</v>
+      </c>
+      <c r="M730" t="inlineStr"/>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="n">
+        <v>729</v>
+      </c>
+      <c r="B731" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="C731" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="D731" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="E731" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="F731" t="n">
+        <v>3689.5714</v>
+      </c>
+      <c r="G731" t="n">
+        <v>-9727353.584978687</v>
+      </c>
+      <c r="H731" t="n">
+        <v>0</v>
+      </c>
+      <c r="I731" t="inlineStr"/>
+      <c r="J731" t="inlineStr"/>
+      <c r="K731" t="inlineStr"/>
+      <c r="L731" t="n">
+        <v>1</v>
+      </c>
+      <c r="M731" t="inlineStr"/>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>730</v>
+      </c>
+      <c r="B732" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="C732" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="D732" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="E732" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="F732" t="n">
+        <v>364.11</v>
+      </c>
+      <c r="G732" t="n">
+        <v>-9726989.474978687</v>
+      </c>
+      <c r="H732" t="n">
+        <v>0</v>
+      </c>
+      <c r="I732" t="inlineStr"/>
+      <c r="J732" t="inlineStr"/>
+      <c r="K732" t="inlineStr"/>
+      <c r="L732" t="n">
+        <v>1</v>
+      </c>
+      <c r="M732" t="inlineStr"/>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>731</v>
+      </c>
+      <c r="B733" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="C733" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="D733" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="E733" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="F733" t="n">
+        <v>2720.3018</v>
+      </c>
+      <c r="G733" t="n">
+        <v>-9729709.776778687</v>
+      </c>
+      <c r="H733" t="n">
+        <v>0</v>
+      </c>
+      <c r="I733" t="inlineStr"/>
+      <c r="J733" t="inlineStr"/>
+      <c r="K733" t="inlineStr"/>
+      <c r="L733" t="n">
+        <v>1</v>
+      </c>
+      <c r="M733" t="inlineStr"/>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>732</v>
+      </c>
+      <c r="B734" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="C734" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="D734" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="E734" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="F734" t="n">
+        <v>15418.137</v>
+      </c>
+      <c r="G734" t="n">
+        <v>-9714291.639778687</v>
+      </c>
+      <c r="H734" t="n">
+        <v>0</v>
+      </c>
+      <c r="I734" t="inlineStr"/>
+      <c r="J734" t="inlineStr"/>
+      <c r="K734" t="inlineStr"/>
+      <c r="L734" t="n">
+        <v>1</v>
+      </c>
+      <c r="M734" t="inlineStr"/>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>733</v>
+      </c>
+      <c r="B735" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="C735" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="D735" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="E735" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="F735" t="n">
+        <v>4025.8422</v>
+      </c>
+      <c r="G735" t="n">
+        <v>-9718317.481978687</v>
+      </c>
+      <c r="H735" t="n">
+        <v>0</v>
+      </c>
+      <c r="I735" t="inlineStr"/>
+      <c r="J735" t="inlineStr"/>
+      <c r="K735" t="inlineStr"/>
+      <c r="L735" t="n">
+        <v>1</v>
+      </c>
+      <c r="M735" t="inlineStr"/>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>734</v>
+      </c>
+      <c r="B736" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="C736" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="D736" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="E736" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="F736" t="n">
+        <v>72115.2482</v>
+      </c>
+      <c r="G736" t="n">
+        <v>-9718317.481978687</v>
+      </c>
+      <c r="H736" t="n">
+        <v>0</v>
+      </c>
+      <c r="I736" t="inlineStr"/>
+      <c r="J736" t="inlineStr"/>
+      <c r="K736" t="inlineStr"/>
+      <c r="L736" t="n">
+        <v>1</v>
+      </c>
+      <c r="M736" t="inlineStr"/>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>735</v>
+      </c>
+      <c r="B737" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="C737" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="D737" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="E737" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="F737" t="n">
+        <v>56412.2621</v>
+      </c>
+      <c r="G737" t="n">
+        <v>-9774729.744078686</v>
+      </c>
+      <c r="H737" t="n">
+        <v>0</v>
+      </c>
+      <c r="I737" t="inlineStr"/>
+      <c r="J737" t="inlineStr"/>
+      <c r="K737" t="inlineStr"/>
+      <c r="L737" t="n">
+        <v>1</v>
+      </c>
+      <c r="M737" t="inlineStr"/>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="B738" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="C738" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="D738" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="E738" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="F738" t="n">
+        <v>43769.1341</v>
+      </c>
+      <c r="G738" t="n">
+        <v>-9774729.744078686</v>
+      </c>
+      <c r="H738" t="n">
+        <v>0</v>
+      </c>
+      <c r="I738" t="inlineStr"/>
+      <c r="J738" t="inlineStr"/>
+      <c r="K738" t="inlineStr"/>
+      <c r="L738" t="n">
+        <v>1</v>
+      </c>
+      <c r="M738" t="inlineStr"/>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>737</v>
+      </c>
+      <c r="B739" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="C739" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="D739" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="E739" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="F739" t="n">
+        <v>42040.5234</v>
+      </c>
+      <c r="G739" t="n">
+        <v>-9816770.267478686</v>
+      </c>
+      <c r="H739" t="n">
+        <v>0</v>
+      </c>
+      <c r="I739" t="inlineStr"/>
+      <c r="J739" t="inlineStr"/>
+      <c r="K739" t="inlineStr"/>
+      <c r="L739" t="n">
+        <v>1</v>
+      </c>
+      <c r="M739" t="inlineStr"/>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>738</v>
+      </c>
+      <c r="B740" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="C740" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="D740" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="E740" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="F740" t="n">
+        <v>102.2829</v>
+      </c>
+      <c r="G740" t="n">
+        <v>-9816770.267478686</v>
+      </c>
+      <c r="H740" t="n">
+        <v>0</v>
+      </c>
+      <c r="I740" t="inlineStr"/>
+      <c r="J740" t="inlineStr"/>
+      <c r="K740" t="inlineStr"/>
+      <c r="L740" t="n">
+        <v>1</v>
+      </c>
+      <c r="M740" t="inlineStr"/>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>739</v>
+      </c>
+      <c r="B741" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="C741" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="D741" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="E741" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="F741" t="n">
+        <v>920.5399</v>
+      </c>
+      <c r="G741" t="n">
+        <v>-9816770.267478686</v>
+      </c>
+      <c r="H741" t="n">
+        <v>0</v>
+      </c>
+      <c r="I741" t="inlineStr"/>
+      <c r="J741" t="inlineStr"/>
+      <c r="K741" t="inlineStr"/>
+      <c r="L741" t="n">
+        <v>1</v>
+      </c>
+      <c r="M741" t="inlineStr"/>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="n">
+        <v>740</v>
+      </c>
+      <c r="B742" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="C742" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="D742" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="E742" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="F742" t="n">
+        <v>2884.1748</v>
+      </c>
+      <c r="G742" t="n">
+        <v>-9816770.267478686</v>
+      </c>
+      <c r="H742" t="n">
+        <v>0</v>
+      </c>
+      <c r="I742" t="inlineStr"/>
+      <c r="J742" t="inlineStr"/>
+      <c r="K742" t="inlineStr"/>
+      <c r="L742" t="n">
+        <v>1</v>
+      </c>
+      <c r="M742" t="inlineStr"/>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="n">
+        <v>741</v>
+      </c>
+      <c r="B743" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="C743" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="D743" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="E743" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="F743" t="n">
+        <v>1389.9718</v>
+      </c>
+      <c r="G743" t="n">
+        <v>-9816770.267478686</v>
+      </c>
+      <c r="H743" t="n">
+        <v>0</v>
+      </c>
+      <c r="I743" t="inlineStr"/>
+      <c r="J743" t="inlineStr"/>
+      <c r="K743" t="inlineStr"/>
+      <c r="L743" t="n">
+        <v>1</v>
+      </c>
+      <c r="M743" t="inlineStr"/>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="n">
+        <v>742</v>
+      </c>
+      <c r="B744" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="C744" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="D744" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="E744" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="F744" t="n">
+        <v>16290.8819</v>
+      </c>
+      <c r="G744" t="n">
+        <v>-9800479.385578686</v>
+      </c>
+      <c r="H744" t="n">
+        <v>0</v>
+      </c>
+      <c r="I744" t="inlineStr"/>
+      <c r="J744" t="inlineStr"/>
+      <c r="K744" t="inlineStr"/>
+      <c r="L744" t="n">
+        <v>1</v>
+      </c>
+      <c r="M744" t="inlineStr"/>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="n">
+        <v>743</v>
+      </c>
+      <c r="B745" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="C745" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="D745" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="E745" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="F745" t="n">
+        <v>38384.6882</v>
+      </c>
+      <c r="G745" t="n">
+        <v>-9800479.385578686</v>
+      </c>
+      <c r="H745" t="n">
+        <v>0</v>
+      </c>
+      <c r="I745" t="inlineStr"/>
+      <c r="J745" t="inlineStr"/>
+      <c r="K745" t="inlineStr"/>
+      <c r="L745" t="n">
+        <v>1</v>
+      </c>
+      <c r="M745" t="inlineStr"/>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="n">
+        <v>744</v>
+      </c>
+      <c r="B746" t="n">
+        <v>47</v>
+      </c>
+      <c r="C746" t="n">
+        <v>47</v>
+      </c>
+      <c r="D746" t="n">
+        <v>47</v>
+      </c>
+      <c r="E746" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="F746" t="n">
+        <v>15537.60222340426</v>
+      </c>
+      <c r="G746" t="n">
+        <v>-9784941.783355283</v>
+      </c>
+      <c r="H746" t="n">
+        <v>0</v>
+      </c>
+      <c r="I746" t="inlineStr"/>
+      <c r="J746" t="inlineStr"/>
+      <c r="K746" t="inlineStr"/>
+      <c r="L746" t="n">
+        <v>1</v>
+      </c>
+      <c r="M746" t="inlineStr"/>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="n">
+        <v>745</v>
+      </c>
+      <c r="B747" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="C747" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="D747" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="E747" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="F747" t="n">
+        <v>24304.8712</v>
+      </c>
+      <c r="G747" t="n">
+        <v>-9809246.654555283</v>
+      </c>
+      <c r="H747" t="n">
+        <v>0</v>
+      </c>
+      <c r="I747" t="inlineStr"/>
+      <c r="J747" t="inlineStr"/>
+      <c r="K747" t="inlineStr"/>
+      <c r="L747" t="n">
+        <v>1</v>
+      </c>
+      <c r="M747" t="inlineStr"/>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="n">
+        <v>746</v>
+      </c>
+      <c r="B748" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="C748" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="D748" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="E748" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="F748" t="n">
+        <v>94059.076</v>
+      </c>
+      <c r="G748" t="n">
+        <v>-9903305.730555283</v>
+      </c>
+      <c r="H748" t="n">
+        <v>0</v>
+      </c>
+      <c r="I748" t="inlineStr"/>
+      <c r="J748" t="inlineStr"/>
+      <c r="K748" t="inlineStr"/>
+      <c r="L748" t="n">
+        <v>1</v>
+      </c>
+      <c r="M748" t="inlineStr"/>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="n">
+        <v>747</v>
+      </c>
+      <c r="B749" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="C749" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="D749" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="E749" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="F749" t="n">
+        <v>21743.3269</v>
+      </c>
+      <c r="G749" t="n">
+        <v>-9925049.057455283</v>
+      </c>
+      <c r="H749" t="n">
+        <v>0</v>
+      </c>
+      <c r="I749" t="inlineStr"/>
+      <c r="J749" t="inlineStr"/>
+      <c r="K749" t="inlineStr"/>
+      <c r="L749" t="n">
+        <v>1</v>
+      </c>
+      <c r="M749" t="inlineStr"/>
+    </row>
+    <row r="750">
+      <c r="A750" s="1" t="n">
+        <v>748</v>
+      </c>
+      <c r="B750" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="C750" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="D750" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="E750" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="F750" t="n">
+        <v>9651.7461</v>
+      </c>
+      <c r="G750" t="n">
+        <v>-9934700.803555282</v>
+      </c>
+      <c r="H750" t="n">
+        <v>0</v>
+      </c>
+      <c r="I750" t="inlineStr"/>
+      <c r="J750" t="inlineStr"/>
+      <c r="K750" t="inlineStr"/>
+      <c r="L750" t="n">
+        <v>1</v>
+      </c>
+      <c r="M750" t="inlineStr"/>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="n">
+        <v>749</v>
+      </c>
+      <c r="B751" t="n">
+        <v>46</v>
+      </c>
+      <c r="C751" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="D751" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="E751" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="F751" t="n">
+        <v>79984.0396</v>
+      </c>
+      <c r="G751" t="n">
+        <v>-10014684.84315528</v>
+      </c>
+      <c r="H751" t="n">
+        <v>0</v>
+      </c>
+      <c r="I751" t="inlineStr"/>
+      <c r="J751" t="inlineStr"/>
+      <c r="K751" t="inlineStr"/>
+      <c r="L751" t="n">
+        <v>1</v>
+      </c>
+      <c r="M751" t="inlineStr"/>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="n">
+        <v>750</v>
+      </c>
+      <c r="B752" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="C752" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="D752" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="E752" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="F752" t="n">
+        <v>9726.5396</v>
+      </c>
+      <c r="G752" t="n">
+        <v>-10014684.84315528</v>
+      </c>
+      <c r="H752" t="n">
+        <v>0</v>
+      </c>
+      <c r="I752" t="inlineStr"/>
+      <c r="J752" t="inlineStr"/>
+      <c r="K752" t="inlineStr"/>
+      <c r="L752" t="n">
+        <v>1</v>
+      </c>
+      <c r="M752" t="inlineStr"/>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="n">
+        <v>751</v>
+      </c>
+      <c r="B753" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="C753" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="D753" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="E753" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="F753" t="n">
+        <v>61610.872</v>
+      </c>
+      <c r="G753" t="n">
+        <v>-10076295.71515528</v>
+      </c>
+      <c r="H753" t="n">
+        <v>0</v>
+      </c>
+      <c r="I753" t="inlineStr"/>
+      <c r="J753" t="inlineStr"/>
+      <c r="K753" t="inlineStr"/>
+      <c r="L753" t="n">
+        <v>1</v>
+      </c>
+      <c r="M753" t="inlineStr"/>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="n">
+        <v>752</v>
+      </c>
+      <c r="B754" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="C754" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="D754" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="E754" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="F754" t="n">
+        <v>69593.51730000001</v>
+      </c>
+      <c r="G754" t="n">
+        <v>-10076295.71515528</v>
+      </c>
+      <c r="H754" t="n">
+        <v>0</v>
+      </c>
+      <c r="I754" t="inlineStr"/>
+      <c r="J754" t="inlineStr"/>
+      <c r="K754" t="inlineStr"/>
+      <c r="L754" t="n">
+        <v>1</v>
+      </c>
+      <c r="M754" t="inlineStr"/>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="n">
+        <v>753</v>
+      </c>
+      <c r="B755" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="C755" t="n">
+        <v>45</v>
+      </c>
+      <c r="D755" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="E755" t="n">
+        <v>45</v>
+      </c>
+      <c r="F755" t="n">
+        <v>89947.819</v>
+      </c>
+      <c r="G755" t="n">
+        <v>-10166243.53415528</v>
+      </c>
+      <c r="H755" t="n">
+        <v>0</v>
+      </c>
+      <c r="I755" t="inlineStr"/>
+      <c r="J755" t="inlineStr"/>
+      <c r="K755" t="inlineStr"/>
+      <c r="L755" t="n">
+        <v>1</v>
+      </c>
+      <c r="M755" t="inlineStr"/>
+    </row>
+    <row r="756">
+      <c r="A756" s="1" t="n">
+        <v>754</v>
+      </c>
+      <c r="B756" t="n">
+        <v>45</v>
+      </c>
+      <c r="C756" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="D756" t="n">
+        <v>45</v>
+      </c>
+      <c r="E756" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="F756" t="n">
+        <v>26889.1637</v>
+      </c>
+      <c r="G756" t="n">
+        <v>-10193132.69785528</v>
+      </c>
+      <c r="H756" t="n">
+        <v>0</v>
+      </c>
+      <c r="I756" t="inlineStr"/>
+      <c r="J756" t="inlineStr"/>
+      <c r="K756" t="inlineStr"/>
+      <c r="L756" t="n">
+        <v>1</v>
+      </c>
+      <c r="M756" t="inlineStr"/>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="n">
+        <v>755</v>
+      </c>
+      <c r="B757" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="C757" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="D757" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="E757" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="F757" t="n">
+        <v>22727.7689</v>
+      </c>
+      <c r="G757" t="n">
+        <v>-10193132.69785528</v>
+      </c>
+      <c r="H757" t="n">
+        <v>0</v>
+      </c>
+      <c r="I757" t="inlineStr"/>
+      <c r="J757" t="inlineStr"/>
+      <c r="K757" t="inlineStr"/>
+      <c r="L757" t="n">
+        <v>1</v>
+      </c>
+      <c r="M757" t="inlineStr"/>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="n">
+        <v>756</v>
+      </c>
+      <c r="B758" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="C758" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="D758" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="E758" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="F758" t="n">
+        <v>31923.2725</v>
+      </c>
+      <c r="G758" t="n">
+        <v>-10161209.42535528</v>
+      </c>
+      <c r="H758" t="n">
+        <v>0</v>
+      </c>
+      <c r="I758" t="inlineStr"/>
+      <c r="J758" t="inlineStr"/>
+      <c r="K758" t="inlineStr"/>
+      <c r="L758" t="n">
+        <v>1</v>
+      </c>
+      <c r="M758" t="inlineStr"/>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="n">
+        <v>757</v>
+      </c>
+      <c r="B759" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="C759" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="D759" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="E759" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="F759" t="n">
+        <v>550</v>
+      </c>
+      <c r="G759" t="n">
+        <v>-10161759.42535528</v>
+      </c>
+      <c r="H759" t="n">
+        <v>0</v>
+      </c>
+      <c r="I759" t="inlineStr"/>
+      <c r="J759" t="inlineStr"/>
+      <c r="K759" t="inlineStr"/>
+      <c r="L759" t="n">
+        <v>1</v>
+      </c>
+      <c r="M759" t="inlineStr"/>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="n">
+        <v>758</v>
+      </c>
+      <c r="B760" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="C760" t="n">
+        <v>46</v>
+      </c>
+      <c r="D760" t="n">
+        <v>46</v>
+      </c>
+      <c r="E760" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="F760" t="n">
+        <v>1377.646</v>
+      </c>
+      <c r="G760" t="n">
+        <v>-10160381.77935528</v>
+      </c>
+      <c r="H760" t="n">
+        <v>0</v>
+      </c>
+      <c r="I760" t="inlineStr"/>
+      <c r="J760" t="inlineStr"/>
+      <c r="K760" t="inlineStr"/>
+      <c r="L760" t="n">
+        <v>1</v>
+      </c>
+      <c r="M760" t="inlineStr"/>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="n">
+        <v>759</v>
+      </c>
+      <c r="B761" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="C761" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="D761" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="E761" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="F761" t="n">
+        <v>74453.9932</v>
+      </c>
+      <c r="G761" t="n">
+        <v>-10234835.77255528</v>
+      </c>
+      <c r="H761" t="n">
+        <v>0</v>
+      </c>
+      <c r="I761" t="inlineStr"/>
+      <c r="J761" t="inlineStr"/>
+      <c r="K761" t="inlineStr"/>
+      <c r="L761" t="n">
+        <v>1</v>
+      </c>
+      <c r="M761" t="inlineStr"/>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="n">
+        <v>760</v>
+      </c>
+      <c r="B762" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="C762" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="D762" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="E762" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="F762" t="n">
+        <v>22794.1738</v>
+      </c>
+      <c r="G762" t="n">
+        <v>-10212041.59875528</v>
+      </c>
+      <c r="H762" t="n">
+        <v>0</v>
+      </c>
+      <c r="I762" t="inlineStr"/>
+      <c r="J762" t="inlineStr"/>
+      <c r="K762" t="inlineStr"/>
+      <c r="L762" t="n">
+        <v>1</v>
+      </c>
+      <c r="M762" t="inlineStr"/>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="n">
+        <v>761</v>
+      </c>
+      <c r="B763" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="C763" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="D763" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="E763" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="F763" t="n">
+        <v>43755.6775</v>
+      </c>
+      <c r="G763" t="n">
+        <v>-10255797.27625528</v>
+      </c>
+      <c r="H763" t="n">
+        <v>0</v>
+      </c>
+      <c r="I763" t="inlineStr"/>
+      <c r="J763" t="inlineStr"/>
+      <c r="K763" t="inlineStr"/>
+      <c r="L763" t="n">
+        <v>1</v>
+      </c>
+      <c r="M763" t="inlineStr"/>
+    </row>
+    <row r="764">
+      <c r="A764" s="1" t="n">
+        <v>762</v>
+      </c>
+      <c r="B764" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="C764" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="D764" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="E764" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="F764" t="n">
+        <v>4805.1214</v>
+      </c>
+      <c r="G764" t="n">
+        <v>-10260602.39765528</v>
+      </c>
+      <c r="H764" t="n">
+        <v>0</v>
+      </c>
+      <c r="I764" t="inlineStr"/>
+      <c r="J764" t="inlineStr"/>
+      <c r="K764" t="inlineStr"/>
+      <c r="L764" t="n">
+        <v>1</v>
+      </c>
+      <c r="M764" t="inlineStr"/>
+    </row>
+    <row r="765">
+      <c r="A765" s="1" t="n">
+        <v>763</v>
+      </c>
+      <c r="B765" t="n">
+        <v>45</v>
+      </c>
+      <c r="C765" t="n">
+        <v>45</v>
+      </c>
+      <c r="D765" t="n">
+        <v>45</v>
+      </c>
+      <c r="E765" t="n">
+        <v>45</v>
+      </c>
+      <c r="F765" t="n">
+        <v>11474.9616</v>
+      </c>
+      <c r="G765" t="n">
+        <v>-10272077.35925528</v>
+      </c>
+      <c r="H765" t="n">
+        <v>0</v>
+      </c>
+      <c r="I765" t="inlineStr"/>
+      <c r="J765" t="inlineStr"/>
+      <c r="K765" t="inlineStr"/>
+      <c r="L765" t="n">
+        <v>1</v>
+      </c>
+      <c r="M765" t="inlineStr"/>
+    </row>
+    <row r="766">
+      <c r="A766" s="1" t="n">
+        <v>764</v>
+      </c>
+      <c r="B766" t="n">
+        <v>45</v>
+      </c>
+      <c r="C766" t="n">
+        <v>45</v>
+      </c>
+      <c r="D766" t="n">
+        <v>45</v>
+      </c>
+      <c r="E766" t="n">
+        <v>45</v>
+      </c>
+      <c r="F766" t="n">
+        <v>3532.053</v>
+      </c>
+      <c r="G766" t="n">
+        <v>-10272077.35925528</v>
+      </c>
+      <c r="H766" t="n">
+        <v>1</v>
+      </c>
+      <c r="I766" t="n">
+        <v>45</v>
+      </c>
+      <c r="J766" t="n">
+        <v>45</v>
+      </c>
+      <c r="K766" t="inlineStr"/>
+      <c r="L766" t="n">
+        <v>1</v>
+      </c>
+      <c r="M766" t="inlineStr"/>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="n">
+        <v>765</v>
+      </c>
+      <c r="B767" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="C767" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="D767" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="E767" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="F767" t="n">
+        <v>57942.3201</v>
+      </c>
+      <c r="G767" t="n">
+        <v>-10330019.67935528</v>
+      </c>
+      <c r="H767" t="n">
+        <v>1</v>
+      </c>
+      <c r="I767" t="n">
+        <v>45</v>
+      </c>
+      <c r="J767" t="n">
+        <v>45</v>
+      </c>
+      <c r="K767" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L711" t="n">
-        <v>1</v>
-      </c>
-      <c r="M711" t="inlineStr"/>
-    </row>
-    <row r="712">
-      <c r="A712" s="1" t="n">
-        <v>710</v>
-      </c>
-      <c r="B712" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="C712" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="D712" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="E712" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="F712" t="n">
-        <v>10</v>
-      </c>
-      <c r="G712" t="n">
-        <v>-9781274.506578688</v>
-      </c>
-      <c r="H712" t="n">
-        <v>1</v>
-      </c>
-      <c r="I712" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="J712" t="n">
-        <v>47</v>
-      </c>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L712" t="n">
-        <v>1</v>
-      </c>
-      <c r="M712" t="inlineStr"/>
-    </row>
-    <row r="713">
-      <c r="A713" s="1" t="n">
-        <v>711</v>
-      </c>
-      <c r="B713" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="C713" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="D713" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="E713" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="F713" t="n">
-        <v>2068.8713</v>
-      </c>
-      <c r="G713" t="n">
-        <v>-9781274.506578688</v>
-      </c>
-      <c r="H713" t="n">
-        <v>1</v>
-      </c>
-      <c r="I713" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="J713" t="n">
-        <v>47</v>
-      </c>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L713" t="n">
-        <v>1</v>
-      </c>
-      <c r="M713" t="inlineStr"/>
-    </row>
-    <row r="714">
-      <c r="A714" s="1" t="n">
-        <v>712</v>
-      </c>
-      <c r="B714" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="C714" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="D714" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="E714" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="F714" t="n">
-        <v>33738.7539</v>
-      </c>
-      <c r="G714" t="n">
-        <v>-9747535.752678687</v>
-      </c>
-      <c r="H714" t="n">
-        <v>1</v>
-      </c>
-      <c r="I714" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="J714" t="n">
-        <v>47</v>
-      </c>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L714" t="n">
-        <v>1</v>
-      </c>
-      <c r="M714" t="inlineStr"/>
-    </row>
-    <row r="715">
-      <c r="A715" s="1" t="n">
-        <v>713</v>
-      </c>
-      <c r="B715" t="n">
-        <v>47</v>
-      </c>
-      <c r="C715" t="n">
-        <v>47</v>
-      </c>
-      <c r="D715" t="n">
-        <v>47</v>
-      </c>
-      <c r="E715" t="n">
-        <v>47</v>
-      </c>
-      <c r="F715" t="n">
-        <v>39.4778</v>
-      </c>
-      <c r="G715" t="n">
-        <v>-9747575.230478687</v>
-      </c>
-      <c r="H715" t="n">
-        <v>1</v>
-      </c>
-      <c r="I715" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="J715" t="n">
-        <v>47</v>
-      </c>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L715" t="n">
-        <v>1</v>
-      </c>
-      <c r="M715" t="inlineStr"/>
-    </row>
-    <row r="716">
-      <c r="A716" s="1" t="n">
-        <v>714</v>
-      </c>
-      <c r="B716" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="C716" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="D716" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="E716" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="F716" t="n">
-        <v>10</v>
-      </c>
-      <c r="G716" t="n">
-        <v>-9747565.230478687</v>
-      </c>
-      <c r="H716" t="n">
-        <v>1</v>
-      </c>
-      <c r="I716" t="n">
-        <v>47</v>
-      </c>
-      <c r="J716" t="n">
-        <v>47</v>
-      </c>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L716" t="n">
-        <v>1</v>
-      </c>
-      <c r="M716" t="inlineStr"/>
-    </row>
-    <row r="717">
-      <c r="A717" s="1" t="n">
-        <v>715</v>
-      </c>
-      <c r="B717" t="n">
-        <v>47</v>
-      </c>
-      <c r="C717" t="n">
-        <v>47</v>
-      </c>
-      <c r="D717" t="n">
-        <v>47</v>
-      </c>
-      <c r="E717" t="n">
-        <v>47</v>
-      </c>
-      <c r="F717" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G717" t="n">
-        <v>-9748565.230478687</v>
-      </c>
-      <c r="H717" t="n">
-        <v>1</v>
-      </c>
-      <c r="I717" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="J717" t="n">
-        <v>47</v>
-      </c>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L717" t="n">
-        <v>1</v>
-      </c>
-      <c r="M717" t="inlineStr"/>
-    </row>
-    <row r="718">
-      <c r="A718" s="1" t="n">
-        <v>716</v>
-      </c>
-      <c r="B718" t="n">
-        <v>47</v>
-      </c>
-      <c r="C718" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="D718" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="E718" t="n">
-        <v>47</v>
-      </c>
-      <c r="F718" t="n">
-        <v>68806.19439999999</v>
-      </c>
-      <c r="G718" t="n">
-        <v>-9679759.036078688</v>
-      </c>
-      <c r="H718" t="n">
-        <v>1</v>
-      </c>
-      <c r="I718" t="n">
-        <v>47</v>
-      </c>
-      <c r="J718" t="n">
-        <v>47</v>
-      </c>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L718" t="n">
-        <v>1</v>
-      </c>
-      <c r="M718" t="inlineStr"/>
-    </row>
-    <row r="719">
-      <c r="A719" s="1" t="n">
-        <v>717</v>
-      </c>
-      <c r="B719" t="n">
-        <v>47</v>
-      </c>
-      <c r="C719" t="n">
-        <v>47</v>
-      </c>
-      <c r="D719" t="n">
-        <v>47</v>
-      </c>
-      <c r="E719" t="n">
-        <v>47</v>
-      </c>
-      <c r="F719" t="n">
-        <v>47.5115</v>
-      </c>
-      <c r="G719" t="n">
-        <v>-9679806.547578687</v>
-      </c>
-      <c r="H719" t="n">
-        <v>1</v>
-      </c>
-      <c r="I719" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="J719" t="n">
-        <v>47</v>
-      </c>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L719" t="n">
-        <v>1</v>
-      </c>
-      <c r="M719" t="inlineStr"/>
-    </row>
-    <row r="720">
-      <c r="A720" s="1" t="n">
-        <v>718</v>
-      </c>
-      <c r="B720" t="n">
-        <v>47</v>
-      </c>
-      <c r="C720" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="D720" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="E720" t="n">
-        <v>47</v>
-      </c>
-      <c r="F720" t="n">
-        <v>10.4885</v>
-      </c>
-      <c r="G720" t="n">
-        <v>-9679796.059078686</v>
-      </c>
-      <c r="H720" t="n">
-        <v>1</v>
-      </c>
-      <c r="I720" t="n">
-        <v>47</v>
-      </c>
-      <c r="J720" t="n">
-        <v>47</v>
-      </c>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L720" t="n">
-        <v>1</v>
-      </c>
-      <c r="M720" t="inlineStr"/>
-    </row>
-    <row r="721">
-      <c r="A721" s="1" t="n">
-        <v>719</v>
-      </c>
-      <c r="B721" t="n">
-        <v>47</v>
-      </c>
-      <c r="C721" t="n">
-        <v>47</v>
-      </c>
-      <c r="D721" t="n">
-        <v>47</v>
-      </c>
-      <c r="E721" t="n">
-        <v>47</v>
-      </c>
-      <c r="F721" t="n">
-        <v>23572.956</v>
-      </c>
-      <c r="G721" t="n">
-        <v>-9703369.015078686</v>
-      </c>
-      <c r="H721" t="n">
-        <v>1</v>
-      </c>
-      <c r="I721" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="J721" t="n">
-        <v>47</v>
-      </c>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L721" t="n">
-        <v>1</v>
-      </c>
-      <c r="M721" t="inlineStr"/>
-    </row>
-    <row r="722">
-      <c r="A722" s="1" t="n">
-        <v>720</v>
-      </c>
-      <c r="B722" t="n">
-        <v>47</v>
-      </c>
-      <c r="C722" t="n">
-        <v>47</v>
-      </c>
-      <c r="D722" t="n">
-        <v>47</v>
-      </c>
-      <c r="E722" t="n">
-        <v>47</v>
-      </c>
-      <c r="F722" t="n">
-        <v>48416</v>
-      </c>
-      <c r="G722" t="n">
-        <v>-9703369.015078686</v>
-      </c>
-      <c r="H722" t="n">
-        <v>1</v>
-      </c>
-      <c r="I722" t="n">
-        <v>47</v>
-      </c>
-      <c r="J722" t="n">
-        <v>47</v>
-      </c>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L722" t="n">
-        <v>1</v>
-      </c>
-      <c r="M722" t="inlineStr"/>
-    </row>
-    <row r="723">
-      <c r="A723" s="1" t="n">
-        <v>721</v>
-      </c>
-      <c r="B723" t="n">
-        <v>47</v>
-      </c>
-      <c r="C723" t="n">
-        <v>47</v>
-      </c>
-      <c r="D723" t="n">
-        <v>47</v>
-      </c>
-      <c r="E723" t="n">
-        <v>47</v>
-      </c>
-      <c r="F723" t="n">
-        <v>18865</v>
-      </c>
-      <c r="G723" t="n">
-        <v>-9703369.015078686</v>
-      </c>
-      <c r="H723" t="n">
-        <v>1</v>
-      </c>
-      <c r="I723" t="n">
-        <v>47</v>
-      </c>
-      <c r="J723" t="n">
-        <v>47</v>
-      </c>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L723" t="n">
-        <v>1</v>
-      </c>
-      <c r="M723" t="inlineStr"/>
-    </row>
-    <row r="724">
-      <c r="A724" s="1" t="n">
-        <v>722</v>
-      </c>
-      <c r="B724" t="n">
-        <v>47</v>
-      </c>
-      <c r="C724" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="D724" t="n">
-        <v>47</v>
-      </c>
-      <c r="E724" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="F724" t="n">
-        <v>1124.5128</v>
-      </c>
-      <c r="G724" t="n">
-        <v>-9704493.527878687</v>
-      </c>
-      <c r="H724" t="n">
-        <v>1</v>
-      </c>
-      <c r="I724" t="n">
-        <v>47</v>
-      </c>
-      <c r="J724" t="n">
-        <v>47</v>
-      </c>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L724" t="n">
-        <v>1</v>
-      </c>
-      <c r="M724" t="inlineStr"/>
-    </row>
-    <row r="725">
-      <c r="A725" s="1" t="n">
-        <v>723</v>
-      </c>
-      <c r="B725" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="C725" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="D725" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="E725" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="F725" t="n">
-        <v>16254.0584</v>
-      </c>
-      <c r="G725" t="n">
-        <v>-9720747.586278686</v>
-      </c>
-      <c r="H725" t="n">
-        <v>1</v>
-      </c>
-      <c r="I725" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="J725" t="n">
-        <v>47</v>
-      </c>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L725" t="n">
-        <v>1</v>
-      </c>
-      <c r="M725" t="inlineStr"/>
-    </row>
-    <row r="726">
-      <c r="A726" s="1" t="n">
-        <v>724</v>
-      </c>
-      <c r="B726" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="C726" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="D726" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="E726" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="F726" t="n">
-        <v>518.2621</v>
-      </c>
-      <c r="G726" t="n">
-        <v>-9720747.586278686</v>
-      </c>
-      <c r="H726" t="n">
-        <v>1</v>
-      </c>
-      <c r="I726" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="J726" t="n">
-        <v>47</v>
-      </c>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L726" t="n">
-        <v>1</v>
-      </c>
-      <c r="M726" t="inlineStr"/>
-    </row>
-    <row r="727">
-      <c r="A727" s="1" t="n">
-        <v>725</v>
-      </c>
-      <c r="B727" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="C727" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="D727" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="E727" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="F727" t="n">
-        <v>6389.3906</v>
-      </c>
-      <c r="G727" t="n">
-        <v>-9727136.976878686</v>
-      </c>
-      <c r="H727" t="n">
-        <v>1</v>
-      </c>
-      <c r="I727" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="J727" t="n">
-        <v>47</v>
-      </c>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L727" t="n">
-        <v>1</v>
-      </c>
-      <c r="M727" t="inlineStr"/>
-    </row>
-    <row r="728">
-      <c r="A728" s="1" t="n">
-        <v>726</v>
-      </c>
-      <c r="B728" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="C728" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="D728" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="E728" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="F728" t="n">
-        <v>10767.3628</v>
-      </c>
-      <c r="G728" t="n">
-        <v>-9737904.339678686</v>
-      </c>
-      <c r="H728" t="n">
-        <v>1</v>
-      </c>
-      <c r="I728" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="J728" t="n">
-        <v>47</v>
-      </c>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L728" t="n">
-        <v>1</v>
-      </c>
-      <c r="M728" t="inlineStr"/>
-    </row>
-    <row r="729">
-      <c r="A729" s="1" t="n">
-        <v>727</v>
-      </c>
-      <c r="B729" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="C729" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="D729" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="E729" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="F729" t="n">
-        <v>12</v>
-      </c>
-      <c r="G729" t="n">
-        <v>-9737892.339678686</v>
-      </c>
-      <c r="H729" t="n">
-        <v>1</v>
-      </c>
-      <c r="I729" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="J729" t="n">
-        <v>47</v>
-      </c>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L729" t="n">
-        <v>1</v>
-      </c>
-      <c r="M729" t="inlineStr"/>
-    </row>
-    <row r="730">
-      <c r="A730" s="1" t="n">
-        <v>728</v>
-      </c>
-      <c r="B730" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="C730" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="D730" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="E730" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="F730" t="n">
-        <v>14228.3261</v>
-      </c>
-      <c r="G730" t="n">
-        <v>-9723664.013578687</v>
-      </c>
-      <c r="H730" t="n">
-        <v>1</v>
-      </c>
-      <c r="I730" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="J730" t="n">
-        <v>47</v>
-      </c>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L730" t="n">
-        <v>1</v>
-      </c>
-      <c r="M730" t="inlineStr"/>
-    </row>
-    <row r="731">
-      <c r="A731" s="1" t="n">
-        <v>729</v>
-      </c>
-      <c r="B731" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="C731" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="D731" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="E731" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="F731" t="n">
-        <v>3689.5714</v>
-      </c>
-      <c r="G731" t="n">
-        <v>-9727353.584978687</v>
-      </c>
-      <c r="H731" t="n">
-        <v>1</v>
-      </c>
-      <c r="I731" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="J731" t="n">
-        <v>47</v>
-      </c>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L731" t="n">
-        <v>1</v>
-      </c>
-      <c r="M731" t="inlineStr"/>
-    </row>
-    <row r="732">
-      <c r="A732" s="1" t="n">
-        <v>730</v>
-      </c>
-      <c r="B732" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="C732" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="D732" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="E732" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="F732" t="n">
-        <v>364.11</v>
-      </c>
-      <c r="G732" t="n">
-        <v>-9726989.474978687</v>
-      </c>
-      <c r="H732" t="n">
-        <v>1</v>
-      </c>
-      <c r="I732" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="J732" t="n">
-        <v>47</v>
-      </c>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L732" t="n">
-        <v>1</v>
-      </c>
-      <c r="M732" t="inlineStr"/>
-    </row>
-    <row r="733">
-      <c r="A733" s="1" t="n">
-        <v>731</v>
-      </c>
-      <c r="B733" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="C733" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="D733" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="E733" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="F733" t="n">
-        <v>2720.3018</v>
-      </c>
-      <c r="G733" t="n">
-        <v>-9729709.776778687</v>
-      </c>
-      <c r="H733" t="n">
-        <v>1</v>
-      </c>
-      <c r="I733" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="J733" t="n">
-        <v>47</v>
-      </c>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L733" t="n">
-        <v>1</v>
-      </c>
-      <c r="M733" t="inlineStr"/>
-    </row>
-    <row r="734">
-      <c r="A734" s="1" t="n">
-        <v>732</v>
-      </c>
-      <c r="B734" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="C734" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="D734" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="E734" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="F734" t="n">
-        <v>15418.137</v>
-      </c>
-      <c r="G734" t="n">
-        <v>-9714291.639778687</v>
-      </c>
-      <c r="H734" t="n">
-        <v>1</v>
-      </c>
-      <c r="I734" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="J734" t="n">
-        <v>47</v>
-      </c>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L734" t="n">
-        <v>1</v>
-      </c>
-      <c r="M734" t="inlineStr"/>
-    </row>
-    <row r="735">
-      <c r="A735" s="1" t="n">
-        <v>733</v>
-      </c>
-      <c r="B735" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="C735" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="D735" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="E735" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="F735" t="n">
-        <v>4025.8422</v>
-      </c>
-      <c r="G735" t="n">
-        <v>-9718317.481978687</v>
-      </c>
-      <c r="H735" t="n">
-        <v>1</v>
-      </c>
-      <c r="I735" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="J735" t="n">
-        <v>47</v>
-      </c>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L735" t="n">
-        <v>1</v>
-      </c>
-      <c r="M735" t="inlineStr"/>
-    </row>
-    <row r="736">
-      <c r="A736" s="1" t="n">
-        <v>734</v>
-      </c>
-      <c r="B736" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="C736" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="D736" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="E736" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="F736" t="n">
-        <v>72115.2482</v>
-      </c>
-      <c r="G736" t="n">
-        <v>-9718317.481978687</v>
-      </c>
-      <c r="H736" t="n">
-        <v>1</v>
-      </c>
-      <c r="I736" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="J736" t="n">
-        <v>47</v>
-      </c>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L736" t="n">
-        <v>1</v>
-      </c>
-      <c r="M736" t="inlineStr"/>
-    </row>
-    <row r="737">
-      <c r="A737" s="1" t="n">
-        <v>735</v>
-      </c>
-      <c r="B737" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="C737" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="D737" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="E737" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="F737" t="n">
-        <v>56412.2621</v>
-      </c>
-      <c r="G737" t="n">
-        <v>-9774729.744078686</v>
-      </c>
-      <c r="H737" t="n">
-        <v>1</v>
-      </c>
-      <c r="I737" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="J737" t="n">
-        <v>47</v>
-      </c>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L737" t="n">
-        <v>1</v>
-      </c>
-      <c r="M737" t="inlineStr"/>
-    </row>
-    <row r="738">
-      <c r="A738" s="1" t="n">
-        <v>736</v>
-      </c>
-      <c r="B738" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="C738" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="D738" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="E738" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="F738" t="n">
-        <v>43769.1341</v>
-      </c>
-      <c r="G738" t="n">
-        <v>-9774729.744078686</v>
-      </c>
-      <c r="H738" t="n">
-        <v>1</v>
-      </c>
-      <c r="I738" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="J738" t="n">
-        <v>47</v>
-      </c>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L738" t="n">
-        <v>1</v>
-      </c>
-      <c r="M738" t="inlineStr"/>
-    </row>
-    <row r="739">
-      <c r="A739" s="1" t="n">
-        <v>737</v>
-      </c>
-      <c r="B739" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="C739" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="D739" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="E739" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="F739" t="n">
-        <v>42040.5234</v>
-      </c>
-      <c r="G739" t="n">
-        <v>-9816770.267478686</v>
-      </c>
-      <c r="H739" t="n">
-        <v>1</v>
-      </c>
-      <c r="I739" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="J739" t="n">
-        <v>47</v>
-      </c>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L739" t="n">
-        <v>1</v>
-      </c>
-      <c r="M739" t="inlineStr"/>
-    </row>
-    <row r="740">
-      <c r="A740" s="1" t="n">
-        <v>738</v>
-      </c>
-      <c r="B740" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="C740" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="D740" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="E740" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="F740" t="n">
-        <v>102.2829</v>
-      </c>
-      <c r="G740" t="n">
-        <v>-9816770.267478686</v>
-      </c>
-      <c r="H740" t="n">
-        <v>1</v>
-      </c>
-      <c r="I740" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="J740" t="n">
-        <v>47</v>
-      </c>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L740" t="n">
-        <v>1</v>
-      </c>
-      <c r="M740" t="inlineStr"/>
-    </row>
-    <row r="741">
-      <c r="A741" s="1" t="n">
-        <v>739</v>
-      </c>
-      <c r="B741" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="C741" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="D741" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="E741" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="F741" t="n">
-        <v>920.5399</v>
-      </c>
-      <c r="G741" t="n">
-        <v>-9816770.267478686</v>
-      </c>
-      <c r="H741" t="n">
-        <v>1</v>
-      </c>
-      <c r="I741" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="J741" t="n">
-        <v>47</v>
-      </c>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L741" t="n">
-        <v>1</v>
-      </c>
-      <c r="M741" t="inlineStr"/>
-    </row>
-    <row r="742">
-      <c r="A742" s="1" t="n">
-        <v>740</v>
-      </c>
-      <c r="B742" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="C742" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="D742" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="E742" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="F742" t="n">
-        <v>2884.1748</v>
-      </c>
-      <c r="G742" t="n">
-        <v>-9816770.267478686</v>
-      </c>
-      <c r="H742" t="n">
-        <v>1</v>
-      </c>
-      <c r="I742" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="J742" t="n">
-        <v>47</v>
-      </c>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L742" t="n">
-        <v>1</v>
-      </c>
-      <c r="M742" t="inlineStr"/>
-    </row>
-    <row r="743">
-      <c r="A743" s="1" t="n">
-        <v>741</v>
-      </c>
-      <c r="B743" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="C743" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="D743" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="E743" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="F743" t="n">
-        <v>1389.9718</v>
-      </c>
-      <c r="G743" t="n">
-        <v>-9816770.267478686</v>
-      </c>
-      <c r="H743" t="n">
-        <v>1</v>
-      </c>
-      <c r="I743" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="J743" t="n">
-        <v>47</v>
-      </c>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L743" t="n">
-        <v>1</v>
-      </c>
-      <c r="M743" t="inlineStr"/>
-    </row>
-    <row r="744">
-      <c r="A744" s="1" t="n">
-        <v>742</v>
-      </c>
-      <c r="B744" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="C744" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="D744" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="E744" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="F744" t="n">
-        <v>16290.8819</v>
-      </c>
-      <c r="G744" t="n">
-        <v>-9800479.385578686</v>
-      </c>
-      <c r="H744" t="n">
-        <v>1</v>
-      </c>
-      <c r="I744" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="J744" t="n">
-        <v>47</v>
-      </c>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L744" t="n">
-        <v>1</v>
-      </c>
-      <c r="M744" t="inlineStr"/>
-    </row>
-    <row r="745">
-      <c r="A745" s="1" t="n">
-        <v>743</v>
-      </c>
-      <c r="B745" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="C745" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="D745" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="E745" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="F745" t="n">
-        <v>38384.6882</v>
-      </c>
-      <c r="G745" t="n">
-        <v>-9800479.385578686</v>
-      </c>
-      <c r="H745" t="n">
-        <v>1</v>
-      </c>
-      <c r="I745" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="J745" t="n">
-        <v>47</v>
-      </c>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L745" t="n">
-        <v>1</v>
-      </c>
-      <c r="M745" t="inlineStr"/>
-    </row>
-    <row r="746">
-      <c r="A746" s="1" t="n">
-        <v>744</v>
-      </c>
-      <c r="B746" t="n">
-        <v>47</v>
-      </c>
-      <c r="C746" t="n">
-        <v>47</v>
-      </c>
-      <c r="D746" t="n">
-        <v>47</v>
-      </c>
-      <c r="E746" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="F746" t="n">
-        <v>15537.60222340426</v>
-      </c>
-      <c r="G746" t="n">
-        <v>-9784941.783355283</v>
-      </c>
-      <c r="H746" t="n">
-        <v>1</v>
-      </c>
-      <c r="I746" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="J746" t="n">
-        <v>47</v>
-      </c>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L746" t="n">
-        <v>1</v>
-      </c>
-      <c r="M746" t="inlineStr"/>
-    </row>
-    <row r="747">
-      <c r="A747" s="1" t="n">
-        <v>745</v>
-      </c>
-      <c r="B747" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="C747" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="D747" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="E747" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="F747" t="n">
-        <v>24304.8712</v>
-      </c>
-      <c r="G747" t="n">
-        <v>-9809246.654555283</v>
-      </c>
-      <c r="H747" t="n">
-        <v>1</v>
-      </c>
-      <c r="I747" t="n">
-        <v>47</v>
-      </c>
-      <c r="J747" t="n">
-        <v>47</v>
-      </c>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L747" t="n">
-        <v>1</v>
-      </c>
-      <c r="M747" t="inlineStr"/>
-    </row>
-    <row r="748">
-      <c r="A748" s="1" t="n">
-        <v>746</v>
-      </c>
-      <c r="B748" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="C748" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="D748" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="E748" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="F748" t="n">
-        <v>94059.076</v>
-      </c>
-      <c r="G748" t="n">
-        <v>-9903305.730555283</v>
-      </c>
-      <c r="H748" t="n">
-        <v>1</v>
-      </c>
-      <c r="I748" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="J748" t="n">
-        <v>47</v>
-      </c>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L748" t="n">
-        <v>1</v>
-      </c>
-      <c r="M748" t="inlineStr"/>
-    </row>
-    <row r="749">
-      <c r="A749" s="1" t="n">
-        <v>747</v>
-      </c>
-      <c r="B749" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="C749" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="D749" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="E749" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="F749" t="n">
-        <v>21743.3269</v>
-      </c>
-      <c r="G749" t="n">
-        <v>-9925049.057455283</v>
-      </c>
-      <c r="H749" t="n">
-        <v>1</v>
-      </c>
-      <c r="I749" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="J749" t="n">
-        <v>47</v>
-      </c>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L749" t="n">
-        <v>1</v>
-      </c>
-      <c r="M749" t="inlineStr"/>
-    </row>
-    <row r="750">
-      <c r="A750" s="1" t="n">
-        <v>748</v>
-      </c>
-      <c r="B750" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="C750" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="D750" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="E750" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="F750" t="n">
-        <v>9651.7461</v>
-      </c>
-      <c r="G750" t="n">
-        <v>-9934700.803555282</v>
-      </c>
-      <c r="H750" t="n">
-        <v>1</v>
-      </c>
-      <c r="I750" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="J750" t="n">
-        <v>47</v>
-      </c>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L750" t="n">
-        <v>1</v>
-      </c>
-      <c r="M750" t="inlineStr"/>
-    </row>
-    <row r="751">
-      <c r="A751" s="1" t="n">
-        <v>749</v>
-      </c>
-      <c r="B751" t="n">
-        <v>46</v>
-      </c>
-      <c r="C751" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="D751" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="E751" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="F751" t="n">
-        <v>79984.0396</v>
-      </c>
-      <c r="G751" t="n">
-        <v>-10014684.84315528</v>
-      </c>
-      <c r="H751" t="n">
-        <v>1</v>
-      </c>
-      <c r="I751" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="J751" t="n">
-        <v>47</v>
-      </c>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L751" t="n">
-        <v>1</v>
-      </c>
-      <c r="M751" t="inlineStr"/>
-    </row>
-    <row r="752">
-      <c r="A752" s="1" t="n">
-        <v>750</v>
-      </c>
-      <c r="B752" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="C752" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="D752" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="E752" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="F752" t="n">
-        <v>9726.5396</v>
-      </c>
-      <c r="G752" t="n">
-        <v>-10014684.84315528</v>
-      </c>
-      <c r="H752" t="n">
-        <v>1</v>
-      </c>
-      <c r="I752" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="J752" t="n">
-        <v>47</v>
-      </c>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L752" t="n">
-        <v>1</v>
-      </c>
-      <c r="M752" t="inlineStr"/>
-    </row>
-    <row r="753">
-      <c r="A753" s="1" t="n">
-        <v>751</v>
-      </c>
-      <c r="B753" t="n">
-        <v>45.8</v>
-      </c>
-      <c r="C753" t="n">
-        <v>45.4</v>
-      </c>
-      <c r="D753" t="n">
-        <v>45.8</v>
-      </c>
-      <c r="E753" t="n">
-        <v>45.4</v>
-      </c>
-      <c r="F753" t="n">
-        <v>61610.872</v>
-      </c>
-      <c r="G753" t="n">
-        <v>-10076295.71515528</v>
-      </c>
-      <c r="H753" t="n">
-        <v>1</v>
-      </c>
-      <c r="I753" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="J753" t="n">
-        <v>47</v>
-      </c>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L753" t="n">
-        <v>1</v>
-      </c>
-      <c r="M753" t="inlineStr"/>
-    </row>
-    <row r="754">
-      <c r="A754" s="1" t="n">
-        <v>752</v>
-      </c>
-      <c r="B754" t="n">
-        <v>45.4</v>
-      </c>
-      <c r="C754" t="n">
-        <v>45.4</v>
-      </c>
-      <c r="D754" t="n">
-        <v>45.4</v>
-      </c>
-      <c r="E754" t="n">
-        <v>45.4</v>
-      </c>
-      <c r="F754" t="n">
-        <v>69593.51730000001</v>
-      </c>
-      <c r="G754" t="n">
-        <v>-10076295.71515528</v>
-      </c>
-      <c r="H754" t="n">
-        <v>1</v>
-      </c>
-      <c r="I754" t="n">
-        <v>45.4</v>
-      </c>
-      <c r="J754" t="n">
-        <v>47</v>
-      </c>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L754" t="n">
-        <v>1</v>
-      </c>
-      <c r="M754" t="inlineStr"/>
-    </row>
-    <row r="755">
-      <c r="A755" s="1" t="n">
-        <v>753</v>
-      </c>
-      <c r="B755" t="n">
-        <v>45.3</v>
-      </c>
-      <c r="C755" t="n">
-        <v>45</v>
-      </c>
-      <c r="D755" t="n">
-        <v>45.3</v>
-      </c>
-      <c r="E755" t="n">
-        <v>45</v>
-      </c>
-      <c r="F755" t="n">
-        <v>89947.819</v>
-      </c>
-      <c r="G755" t="n">
-        <v>-10166243.53415528</v>
-      </c>
-      <c r="H755" t="n">
-        <v>1</v>
-      </c>
-      <c r="I755" t="n">
-        <v>45.4</v>
-      </c>
-      <c r="J755" t="n">
-        <v>47</v>
-      </c>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L755" t="n">
-        <v>1</v>
-      </c>
-      <c r="M755" t="inlineStr"/>
-    </row>
-    <row r="756">
-      <c r="A756" s="1" t="n">
-        <v>754</v>
-      </c>
-      <c r="B756" t="n">
-        <v>45</v>
-      </c>
-      <c r="C756" t="n">
-        <v>44.8</v>
-      </c>
-      <c r="D756" t="n">
-        <v>45</v>
-      </c>
-      <c r="E756" t="n">
-        <v>44.8</v>
-      </c>
-      <c r="F756" t="n">
-        <v>26889.1637</v>
-      </c>
-      <c r="G756" t="n">
-        <v>-10193132.69785528</v>
-      </c>
-      <c r="H756" t="n">
-        <v>1</v>
-      </c>
-      <c r="I756" t="n">
-        <v>45</v>
-      </c>
-      <c r="J756" t="n">
-        <v>47</v>
-      </c>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L756" t="n">
-        <v>1</v>
-      </c>
-      <c r="M756" t="inlineStr"/>
-    </row>
-    <row r="757">
-      <c r="A757" s="1" t="n">
-        <v>755</v>
-      </c>
-      <c r="B757" t="n">
-        <v>44.8</v>
-      </c>
-      <c r="C757" t="n">
-        <v>44.8</v>
-      </c>
-      <c r="D757" t="n">
-        <v>44.8</v>
-      </c>
-      <c r="E757" t="n">
-        <v>44.8</v>
-      </c>
-      <c r="F757" t="n">
-        <v>22727.7689</v>
-      </c>
-      <c r="G757" t="n">
-        <v>-10193132.69785528</v>
-      </c>
-      <c r="H757" t="n">
-        <v>1</v>
-      </c>
-      <c r="I757" t="n">
-        <v>44.8</v>
-      </c>
-      <c r="J757" t="n">
-        <v>47</v>
-      </c>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L757" t="n">
-        <v>1</v>
-      </c>
-      <c r="M757" t="inlineStr"/>
-    </row>
-    <row r="758">
-      <c r="A758" s="1" t="n">
-        <v>756</v>
-      </c>
-      <c r="B758" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="C758" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="D758" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="E758" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="F758" t="n">
-        <v>31923.2725</v>
-      </c>
-      <c r="G758" t="n">
-        <v>-10161209.42535528</v>
-      </c>
-      <c r="H758" t="n">
-        <v>1</v>
-      </c>
-      <c r="I758" t="n">
-        <v>44.8</v>
-      </c>
-      <c r="J758" t="n">
-        <v>47</v>
-      </c>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L758" t="n">
-        <v>1</v>
-      </c>
-      <c r="M758" t="inlineStr"/>
-    </row>
-    <row r="759">
-      <c r="A759" s="1" t="n">
-        <v>757</v>
-      </c>
-      <c r="B759" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="C759" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="D759" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="E759" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="F759" t="n">
-        <v>550</v>
-      </c>
-      <c r="G759" t="n">
-        <v>-10161759.42535528</v>
-      </c>
-      <c r="H759" t="n">
-        <v>1</v>
-      </c>
-      <c r="I759" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="J759" t="n">
-        <v>47</v>
-      </c>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L759" t="n">
-        <v>1</v>
-      </c>
-      <c r="M759" t="inlineStr"/>
-    </row>
-    <row r="760">
-      <c r="A760" s="1" t="n">
-        <v>758</v>
-      </c>
-      <c r="B760" t="n">
-        <v>45.4</v>
-      </c>
-      <c r="C760" t="n">
-        <v>46</v>
-      </c>
-      <c r="D760" t="n">
-        <v>46</v>
-      </c>
-      <c r="E760" t="n">
-        <v>45.4</v>
-      </c>
-      <c r="F760" t="n">
-        <v>1377.646</v>
-      </c>
-      <c r="G760" t="n">
-        <v>-10160381.77935528</v>
-      </c>
-      <c r="H760" t="n">
-        <v>1</v>
-      </c>
-      <c r="I760" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="J760" t="n">
-        <v>47</v>
-      </c>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L760" t="n">
-        <v>1</v>
-      </c>
-      <c r="M760" t="inlineStr"/>
-    </row>
-    <row r="761">
-      <c r="A761" s="1" t="n">
-        <v>759</v>
-      </c>
-      <c r="B761" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="C761" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="D761" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="E761" t="n">
-        <v>45.4</v>
-      </c>
-      <c r="F761" t="n">
-        <v>74453.9932</v>
-      </c>
-      <c r="G761" t="n">
-        <v>-10234835.77255528</v>
-      </c>
-      <c r="H761" t="n">
-        <v>1</v>
-      </c>
-      <c r="I761" t="n">
-        <v>46</v>
-      </c>
-      <c r="J761" t="n">
-        <v>47</v>
-      </c>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L761" t="n">
-        <v>1</v>
-      </c>
-      <c r="M761" t="inlineStr"/>
-    </row>
-    <row r="762">
-      <c r="A762" s="1" t="n">
-        <v>760</v>
-      </c>
-      <c r="B762" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="C762" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="D762" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="E762" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="F762" t="n">
-        <v>22794.1738</v>
-      </c>
-      <c r="G762" t="n">
-        <v>-10212041.59875528</v>
-      </c>
-      <c r="H762" t="n">
-        <v>1</v>
-      </c>
-      <c r="I762" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="J762" t="n">
-        <v>47</v>
-      </c>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L762" t="n">
-        <v>1</v>
-      </c>
-      <c r="M762" t="inlineStr"/>
-    </row>
-    <row r="763">
-      <c r="A763" s="1" t="n">
-        <v>761</v>
-      </c>
-      <c r="B763" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="C763" t="n">
-        <v>45.6</v>
-      </c>
-      <c r="D763" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="E763" t="n">
-        <v>45.6</v>
-      </c>
-      <c r="F763" t="n">
-        <v>43755.6775</v>
-      </c>
-      <c r="G763" t="n">
-        <v>-10255797.27625528</v>
-      </c>
-      <c r="H763" t="n">
-        <v>1</v>
-      </c>
-      <c r="I763" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="J763" t="n">
-        <v>47</v>
-      </c>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L763" t="n">
-        <v>1</v>
-      </c>
-      <c r="M763" t="inlineStr"/>
-    </row>
-    <row r="764">
-      <c r="A764" s="1" t="n">
-        <v>762</v>
-      </c>
-      <c r="B764" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="C764" t="n">
-        <v>45.4</v>
-      </c>
-      <c r="D764" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="E764" t="n">
-        <v>45.4</v>
-      </c>
-      <c r="F764" t="n">
-        <v>4805.1214</v>
-      </c>
-      <c r="G764" t="n">
-        <v>-10260602.39765528</v>
-      </c>
-      <c r="H764" t="n">
-        <v>1</v>
-      </c>
-      <c r="I764" t="n">
-        <v>45.6</v>
-      </c>
-      <c r="J764" t="n">
-        <v>47</v>
-      </c>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L764" t="n">
-        <v>1</v>
-      </c>
-      <c r="M764" t="inlineStr"/>
-    </row>
-    <row r="765">
-      <c r="A765" s="1" t="n">
-        <v>763</v>
-      </c>
-      <c r="B765" t="n">
-        <v>45</v>
-      </c>
-      <c r="C765" t="n">
-        <v>45</v>
-      </c>
-      <c r="D765" t="n">
-        <v>45</v>
-      </c>
-      <c r="E765" t="n">
-        <v>45</v>
-      </c>
-      <c r="F765" t="n">
-        <v>11474.9616</v>
-      </c>
-      <c r="G765" t="n">
-        <v>-10272077.35925528</v>
-      </c>
-      <c r="H765" t="n">
-        <v>1</v>
-      </c>
-      <c r="I765" t="n">
-        <v>45.4</v>
-      </c>
-      <c r="J765" t="n">
-        <v>47</v>
-      </c>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L765" t="n">
-        <v>1</v>
-      </c>
-      <c r="M765" t="inlineStr"/>
-    </row>
-    <row r="766">
-      <c r="A766" s="1" t="n">
-        <v>764</v>
-      </c>
-      <c r="B766" t="n">
-        <v>45</v>
-      </c>
-      <c r="C766" t="n">
-        <v>45</v>
-      </c>
-      <c r="D766" t="n">
-        <v>45</v>
-      </c>
-      <c r="E766" t="n">
-        <v>45</v>
-      </c>
-      <c r="F766" t="n">
-        <v>3532.053</v>
-      </c>
-      <c r="G766" t="n">
-        <v>-10272077.35925528</v>
-      </c>
-      <c r="H766" t="n">
-        <v>1</v>
-      </c>
-      <c r="I766" t="n">
-        <v>45</v>
-      </c>
-      <c r="J766" t="n">
-        <v>47</v>
-      </c>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L766" t="n">
-        <v>1</v>
-      </c>
-      <c r="M766" t="inlineStr"/>
-    </row>
-    <row r="767">
-      <c r="A767" s="1" t="n">
-        <v>765</v>
-      </c>
-      <c r="B767" t="n">
-        <v>44.9</v>
-      </c>
-      <c r="C767" t="n">
-        <v>44.8</v>
-      </c>
-      <c r="D767" t="n">
-        <v>44.9</v>
-      </c>
-      <c r="E767" t="n">
-        <v>44.8</v>
-      </c>
-      <c r="F767" t="n">
-        <v>57942.3201</v>
-      </c>
-      <c r="G767" t="n">
-        <v>-10330019.67935528</v>
-      </c>
-      <c r="H767" t="n">
-        <v>1</v>
-      </c>
-      <c r="I767" t="n">
-        <v>45</v>
-      </c>
-      <c r="J767" t="n">
-        <v>47</v>
-      </c>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -26195,7 +25747,7 @@
         <v>44.8</v>
       </c>
       <c r="J768" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K768" t="inlineStr">
         <is>
@@ -26236,7 +25788,7 @@
         <v>44.1</v>
       </c>
       <c r="J769" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K769" t="inlineStr">
         <is>
@@ -26277,7 +25829,7 @@
         <v>44.3</v>
       </c>
       <c r="J770" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K770" t="inlineStr">
         <is>
@@ -26318,7 +25870,7 @@
         <v>44.4</v>
       </c>
       <c r="J771" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K771" t="inlineStr">
         <is>
@@ -26359,7 +25911,7 @@
         <v>44.8</v>
       </c>
       <c r="J772" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K772" t="inlineStr">
         <is>
@@ -26400,7 +25952,7 @@
         <v>44.8</v>
       </c>
       <c r="J773" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K773" t="inlineStr">
         <is>
@@ -26441,7 +25993,7 @@
         <v>44.6</v>
       </c>
       <c r="J774" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K774" t="inlineStr">
         <is>
@@ -26482,7 +26034,7 @@
         <v>45</v>
       </c>
       <c r="J775" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K775" t="inlineStr">
         <is>
@@ -26517,13 +26069,11 @@
         <v>-10326547.38375528</v>
       </c>
       <c r="H776" t="n">
-        <v>1</v>
-      </c>
-      <c r="I776" t="n">
-        <v>46.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I776" t="inlineStr"/>
       <c r="J776" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K776" t="inlineStr">
         <is>
@@ -26558,13 +26108,11 @@
         <v>-10167953.05715528</v>
       </c>
       <c r="H777" t="n">
-        <v>1</v>
-      </c>
-      <c r="I777" t="n">
-        <v>44.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I777" t="inlineStr"/>
       <c r="J777" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K777" t="inlineStr">
         <is>
@@ -26599,13 +26147,11 @@
         <v>-10162433.00235528</v>
       </c>
       <c r="H778" t="n">
-        <v>1</v>
-      </c>
-      <c r="I778" t="n">
-        <v>44.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I778" t="inlineStr"/>
       <c r="J778" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K778" t="inlineStr">
         <is>
@@ -26640,13 +26186,11 @@
         <v>-10164172.40755528</v>
       </c>
       <c r="H779" t="n">
-        <v>1</v>
-      </c>
-      <c r="I779" t="n">
-        <v>45.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I779" t="inlineStr"/>
       <c r="J779" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K779" t="inlineStr">
         <is>
@@ -26681,13 +26225,11 @@
         <v>-10066978.1221164</v>
       </c>
       <c r="H780" t="n">
-        <v>1</v>
-      </c>
-      <c r="I780" t="n">
-        <v>45.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I780" t="inlineStr"/>
       <c r="J780" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K780" t="inlineStr">
         <is>
@@ -26722,13 +26264,11 @@
         <v>-10082607.7320164</v>
       </c>
       <c r="H781" t="n">
-        <v>1</v>
-      </c>
-      <c r="I781" t="n">
-        <v>46.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I781" t="inlineStr"/>
       <c r="J781" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K781" t="inlineStr">
         <is>
@@ -26763,13 +26303,11 @@
         <v>-10082607.7320164</v>
       </c>
       <c r="H782" t="n">
-        <v>1</v>
-      </c>
-      <c r="I782" t="n">
-        <v>45.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I782" t="inlineStr"/>
       <c r="J782" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K782" t="inlineStr">
         <is>
@@ -26804,13 +26342,11 @@
         <v>-10080393.2419164</v>
       </c>
       <c r="H783" t="n">
-        <v>1</v>
-      </c>
-      <c r="I783" t="n">
-        <v>45.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I783" t="inlineStr"/>
       <c r="J783" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K783" t="inlineStr">
         <is>
@@ -26845,13 +26381,11 @@
         <v>-10080393.2419164</v>
       </c>
       <c r="H784" t="n">
-        <v>1</v>
-      </c>
-      <c r="I784" t="n">
-        <v>45.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I784" t="inlineStr"/>
       <c r="J784" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K784" t="inlineStr">
         <is>
@@ -26886,13 +26420,11 @@
         <v>-10093111.8970164</v>
       </c>
       <c r="H785" t="n">
-        <v>1</v>
-      </c>
-      <c r="I785" t="n">
-        <v>45.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I785" t="inlineStr"/>
       <c r="J785" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K785" t="inlineStr">
         <is>
@@ -26927,13 +26459,11 @@
         <v>-10108496.6124164</v>
       </c>
       <c r="H786" t="n">
-        <v>1</v>
-      </c>
-      <c r="I786" t="n">
-        <v>45.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I786" t="inlineStr"/>
       <c r="J786" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K786" t="inlineStr">
         <is>
@@ -26968,13 +26498,11 @@
         <v>-10108376.6124164</v>
       </c>
       <c r="H787" t="n">
-        <v>1</v>
-      </c>
-      <c r="I787" t="n">
-        <v>45.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I787" t="inlineStr"/>
       <c r="J787" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K787" t="inlineStr">
         <is>
@@ -27009,13 +26537,11 @@
         <v>-10108376.6124164</v>
       </c>
       <c r="H788" t="n">
-        <v>1</v>
-      </c>
-      <c r="I788" t="n">
-        <v>45.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I788" t="inlineStr"/>
       <c r="J788" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K788" t="inlineStr">
         <is>
@@ -27050,13 +26576,11 @@
         <v>-10179601.9085164</v>
       </c>
       <c r="H789" t="n">
-        <v>1</v>
-      </c>
-      <c r="I789" t="n">
-        <v>45.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I789" t="inlineStr"/>
       <c r="J789" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K789" t="inlineStr">
         <is>
@@ -27091,13 +26615,11 @@
         <v>-10179601.9085164</v>
       </c>
       <c r="H790" t="n">
-        <v>1</v>
-      </c>
-      <c r="I790" t="n">
-        <v>44.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I790" t="inlineStr"/>
       <c r="J790" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K790" t="inlineStr">
         <is>
@@ -27132,13 +26654,11 @@
         <v>-10179601.9085164</v>
       </c>
       <c r="H791" t="n">
-        <v>1</v>
-      </c>
-      <c r="I791" t="n">
-        <v>44.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I791" t="inlineStr"/>
       <c r="J791" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K791" t="inlineStr">
         <is>
@@ -27173,13 +26693,11 @@
         <v>-10178635.9119164</v>
       </c>
       <c r="H792" t="n">
-        <v>1</v>
-      </c>
-      <c r="I792" t="n">
-        <v>44.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I792" t="inlineStr"/>
       <c r="J792" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K792" t="inlineStr">
         <is>
@@ -27214,13 +26732,11 @@
         <v>-10178635.9119164</v>
       </c>
       <c r="H793" t="n">
-        <v>1</v>
-      </c>
-      <c r="I793" t="n">
-        <v>44.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I793" t="inlineStr"/>
       <c r="J793" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K793" t="inlineStr">
         <is>
@@ -27255,13 +26771,11 @@
         <v>-10178635.9119164</v>
       </c>
       <c r="H794" t="n">
-        <v>1</v>
-      </c>
-      <c r="I794" t="n">
-        <v>44.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I794" t="inlineStr"/>
       <c r="J794" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K794" t="inlineStr">
         <is>
@@ -27296,13 +26810,11 @@
         <v>-10165143.1334164</v>
       </c>
       <c r="H795" t="n">
-        <v>1</v>
-      </c>
-      <c r="I795" t="n">
-        <v>44.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I795" t="inlineStr"/>
       <c r="J795" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K795" t="inlineStr">
         <is>
@@ -27337,13 +26849,11 @@
         <v>-10162319.3945164</v>
       </c>
       <c r="H796" t="n">
-        <v>1</v>
-      </c>
-      <c r="I796" t="n">
+        <v>0</v>
+      </c>
+      <c r="I796" t="inlineStr"/>
+      <c r="J796" t="n">
         <v>45</v>
-      </c>
-      <c r="J796" t="n">
-        <v>47</v>
       </c>
       <c r="K796" t="inlineStr">
         <is>
@@ -27378,13 +26888,11 @@
         <v>-10162319.3945164</v>
       </c>
       <c r="H797" t="n">
-        <v>1</v>
-      </c>
-      <c r="I797" t="n">
-        <v>45.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I797" t="inlineStr"/>
       <c r="J797" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K797" t="inlineStr">
         <is>
@@ -27419,13 +26927,11 @@
         <v>-10162654.9093164</v>
       </c>
       <c r="H798" t="n">
-        <v>1</v>
-      </c>
-      <c r="I798" t="n">
-        <v>45.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I798" t="inlineStr"/>
       <c r="J798" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K798" t="inlineStr">
         <is>
@@ -27460,13 +26966,11 @@
         <v>-10162654.9093164</v>
       </c>
       <c r="H799" t="n">
-        <v>1</v>
-      </c>
-      <c r="I799" t="n">
-        <v>44.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I799" t="inlineStr"/>
       <c r="J799" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K799" t="inlineStr">
         <is>
@@ -27501,13 +27005,11 @@
         <v>-10162640.6394164</v>
       </c>
       <c r="H800" t="n">
-        <v>1</v>
-      </c>
-      <c r="I800" t="n">
-        <v>44.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I800" t="inlineStr"/>
       <c r="J800" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K800" t="inlineStr">
         <is>
@@ -27542,13 +27044,11 @@
         <v>-10207236.7517164</v>
       </c>
       <c r="H801" t="n">
-        <v>1</v>
-      </c>
-      <c r="I801" t="n">
-        <v>45.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I801" t="inlineStr"/>
       <c r="J801" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K801" t="inlineStr">
         <is>
@@ -27587,7 +27087,7 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K802" t="inlineStr">
         <is>
@@ -27622,13 +27122,11 @@
         <v>-10208006.6323164</v>
       </c>
       <c r="H803" t="n">
-        <v>1</v>
-      </c>
-      <c r="I803" t="n">
-        <v>44.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I803" t="inlineStr"/>
       <c r="J803" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K803" t="inlineStr">
         <is>
@@ -27663,13 +27161,11 @@
         <v>-10208006.6323164</v>
       </c>
       <c r="H804" t="n">
-        <v>1</v>
-      </c>
-      <c r="I804" t="n">
-        <v>44.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I804" t="inlineStr"/>
       <c r="J804" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K804" t="inlineStr">
         <is>
@@ -27708,7 +27204,7 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K805" t="inlineStr">
         <is>
@@ -27747,7 +27243,7 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K806" t="inlineStr">
         <is>
@@ -27786,7 +27282,7 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K807" t="inlineStr">
         <is>
@@ -27825,7 +27321,7 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K808" t="inlineStr">
         <is>
@@ -27864,7 +27360,7 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K809" t="inlineStr">
         <is>
@@ -27903,7 +27399,7 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K810" t="inlineStr">
         <is>
@@ -27938,13 +27434,11 @@
         <v>-10012292.52249184</v>
       </c>
       <c r="H811" t="n">
-        <v>1</v>
-      </c>
-      <c r="I811" t="n">
-        <v>45.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I811" t="inlineStr"/>
       <c r="J811" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K811" t="inlineStr">
         <is>
@@ -27983,7 +27477,7 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K812" t="inlineStr">
         <is>
@@ -28022,7 +27516,7 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K813" t="inlineStr">
         <is>
@@ -28061,7 +27555,7 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K814" t="inlineStr">
         <is>
@@ -28100,7 +27594,7 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K815" t="inlineStr">
         <is>
@@ -28139,7 +27633,7 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K816" t="inlineStr">
         <is>
@@ -28178,7 +27672,7 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K817" t="inlineStr">
         <is>
@@ -28217,7 +27711,7 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K818" t="inlineStr">
         <is>
@@ -28256,7 +27750,7 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K819" t="inlineStr">
         <is>
@@ -28295,7 +27789,7 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K820" t="inlineStr">
         <is>
@@ -28334,7 +27828,7 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K821" t="inlineStr">
         <is>
@@ -28373,7 +27867,7 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K822" t="inlineStr">
         <is>
@@ -28412,7 +27906,7 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K823" t="inlineStr">
         <is>
@@ -28451,7 +27945,7 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K824" t="inlineStr">
         <is>
@@ -28490,7 +27984,7 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K825" t="inlineStr">
         <is>
@@ -28529,7 +28023,7 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K826" t="inlineStr">
         <is>
@@ -28568,7 +28062,7 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K827" t="inlineStr">
         <is>
@@ -28607,7 +28101,7 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K828" t="inlineStr">
         <is>
@@ -28646,7 +28140,7 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K829" t="inlineStr">
         <is>
@@ -28685,7 +28179,7 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K830" t="inlineStr">
         <is>
@@ -28724,7 +28218,7 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K831" t="inlineStr">
         <is>
@@ -28763,7 +28257,7 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K832" t="inlineStr">
         <is>
@@ -28802,7 +28296,7 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K833" t="inlineStr">
         <is>
@@ -28841,7 +28335,7 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K834" t="inlineStr">
         <is>
@@ -28880,7 +28374,7 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K835" t="inlineStr">
         <is>
@@ -28919,7 +28413,7 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K836" t="inlineStr">
         <is>
@@ -28958,7 +28452,7 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K837" t="inlineStr">
         <is>
@@ -28997,7 +28491,7 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K838" t="inlineStr">
         <is>
@@ -29036,7 +28530,7 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K839" t="inlineStr">
         <is>
@@ -29075,7 +28569,7 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K840" t="inlineStr">
         <is>
@@ -29088,6 +28582,6 @@
       <c r="M840" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest TRV.xlsx
+++ b/BackTest/2019-10-31 BackTest TRV.xlsx
@@ -8371,7 +8371,7 @@
         <v>23565507.64161851</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>23144848.9623114</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>22674173.78221856</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>22798163.23521856</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>22798163.23521856</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>23867615.55091856</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>24230965.41051856</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>23677783.2847793</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>23312642.26038031</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>22973675.9603803</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>24044225.9524803</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>24513692.51548221</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>23851434.18549683</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>24222532.74269683</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>23964256.1337493</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>24596017.8832225</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>25836615.02703196</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>25235228.82518626</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>25904672.27457479</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>25904672.27457479</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>25005755.79277479</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>24653411.29627479</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>24848864.42187479</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>24511472.66477479</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>24643205.09957479</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>24594534.13902173</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>24986523.23178763</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>24832507.15848763</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>24915479.48088763</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>24994806.44988763</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>25287039.39628763</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>25752369.64438763</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>25752369.64438763</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>26079923.96408763</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>26079923.96408763</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>26260780.46598763</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>26260780.46598763</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>25814887.29518763</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>26261648.68048763</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>25742810.74058762</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -24046,10 +24046,14 @@
         <v>-9748565.230478687</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I717" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="J717" t="n">
+        <v>47.2</v>
+      </c>
       <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
@@ -24079,11 +24083,19 @@
         <v>-9679759.036078688</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
-      </c>
-      <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I718" t="n">
+        <v>47</v>
+      </c>
+      <c r="J718" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24112,11 +24124,19 @@
         <v>-9679806.547578687</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
-      </c>
-      <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I719" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="J719" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24145,11 +24165,19 @@
         <v>-9679796.059078686</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
-      </c>
-      <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I720" t="n">
+        <v>47</v>
+      </c>
+      <c r="J720" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24178,11 +24206,19 @@
         <v>-9703369.015078686</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
-      </c>
-      <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I721" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="J721" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24211,11 +24247,19 @@
         <v>-9703369.015078686</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
-      </c>
-      <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I722" t="n">
+        <v>47</v>
+      </c>
+      <c r="J722" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24244,11 +24288,19 @@
         <v>-9703369.015078686</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
-      </c>
-      <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I723" t="n">
+        <v>47</v>
+      </c>
+      <c r="J723" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24277,11 +24329,19 @@
         <v>-9704493.527878687</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
-      </c>
-      <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I724" t="n">
+        <v>47</v>
+      </c>
+      <c r="J724" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24310,11 +24370,19 @@
         <v>-9720747.586278686</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
-      </c>
-      <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I725" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="J725" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24343,11 +24411,19 @@
         <v>-9720747.586278686</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
-      </c>
-      <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I726" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="J726" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24376,11 +24452,19 @@
         <v>-9727136.976878686</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
-      </c>
-      <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I727" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="J727" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24409,11 +24493,19 @@
         <v>-9737904.339678686</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
-      </c>
-      <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I728" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="J728" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24442,11 +24534,19 @@
         <v>-9737892.339678686</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
-      </c>
-      <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I729" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="J729" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -24475,11 +24575,19 @@
         <v>-9723664.013578687</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
-      </c>
-      <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I730" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="J730" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -24508,11 +24616,19 @@
         <v>-9727353.584978687</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
-      </c>
-      <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I731" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="J731" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -24541,11 +24657,19 @@
         <v>-9726989.474978687</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
-      </c>
-      <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I732" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="J732" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -24574,11 +24698,19 @@
         <v>-9729709.776778687</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
-      </c>
-      <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I733" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="J733" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -24607,11 +24739,19 @@
         <v>-9714291.639778687</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
-      </c>
-      <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I734" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="J734" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -24640,11 +24780,19 @@
         <v>-9718317.481978687</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I735" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="J735" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -24673,11 +24821,19 @@
         <v>-9718317.481978687</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
-      </c>
-      <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I736" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="J736" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -24706,11 +24862,19 @@
         <v>-9774729.744078686</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I737" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="J737" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -24739,11 +24903,19 @@
         <v>-9774729.744078686</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I738" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="J738" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -24772,11 +24944,19 @@
         <v>-9816770.267478686</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="J739" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -24805,11 +24985,19 @@
         <v>-9816770.267478686</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="J740" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -24838,11 +25026,19 @@
         <v>-9816770.267478686</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I741" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="J741" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -24871,11 +25067,19 @@
         <v>-9816770.267478686</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
-      </c>
-      <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I742" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="J742" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -24904,11 +25108,19 @@
         <v>-9816770.267478686</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
-      </c>
-      <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I743" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="J743" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -24937,11 +25149,19 @@
         <v>-9800479.385578686</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I744" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="J744" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -24970,11 +25190,19 @@
         <v>-9800479.385578686</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
-      </c>
-      <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I745" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="J745" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25003,11 +25231,19 @@
         <v>-9784941.783355283</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
-      </c>
-      <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I746" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="J746" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25036,11 +25272,19 @@
         <v>-9809246.654555283</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
-      </c>
-      <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I747" t="n">
+        <v>47</v>
+      </c>
+      <c r="J747" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25069,11 +25313,19 @@
         <v>-9903305.730555283</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I748" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="J748" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25102,11 +25354,19 @@
         <v>-9925049.057455283</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I749" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="J749" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25138,8 +25398,14 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="J750" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25168,11 +25434,19 @@
         <v>-10014684.84315528</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I751" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="J751" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25201,11 +25475,19 @@
         <v>-10014684.84315528</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
-      </c>
-      <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I752" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="J752" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25234,11 +25516,19 @@
         <v>-10076295.71515528</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
-      </c>
-      <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I753" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="J753" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25267,11 +25557,19 @@
         <v>-10076295.71515528</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="J754" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25300,11 +25598,19 @@
         <v>-10166243.53415528</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
-      </c>
-      <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I755" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="J755" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25333,11 +25639,19 @@
         <v>-10193132.69785528</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
-      </c>
-      <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I756" t="n">
+        <v>45</v>
+      </c>
+      <c r="J756" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25366,11 +25680,19 @@
         <v>-10193132.69785528</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
-      </c>
-      <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I757" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="J757" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25399,11 +25721,19 @@
         <v>-10161209.42535528</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
-      </c>
-      <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I758" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="J758" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25432,11 +25762,19 @@
         <v>-10161759.42535528</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
-      </c>
-      <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I759" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="J759" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -25465,11 +25803,19 @@
         <v>-10160381.77935528</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
-      </c>
-      <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I760" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="J760" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25498,11 +25844,19 @@
         <v>-10234835.77255528</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
-      </c>
-      <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I761" t="n">
+        <v>46</v>
+      </c>
+      <c r="J761" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -25531,11 +25885,19 @@
         <v>-10212041.59875528</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
-      </c>
-      <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I762" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="J762" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -25564,11 +25926,19 @@
         <v>-10255797.27625528</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
-      </c>
-      <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I763" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="J763" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -25597,11 +25967,19 @@
         <v>-10260602.39765528</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
-      </c>
-      <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I764" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="J764" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -25630,11 +26008,19 @@
         <v>-10272077.35925528</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
-      </c>
-      <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I765" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="J765" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -25669,9 +26055,13 @@
         <v>45</v>
       </c>
       <c r="J766" t="n">
-        <v>45</v>
-      </c>
-      <c r="K766" t="inlineStr"/>
+        <v>47.2</v>
+      </c>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -25706,11 +26096,11 @@
         <v>45</v>
       </c>
       <c r="J767" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K767" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L767" t="n">
@@ -25747,7 +26137,7 @@
         <v>44.8</v>
       </c>
       <c r="J768" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K768" t="inlineStr">
         <is>
@@ -25788,7 +26178,7 @@
         <v>44.1</v>
       </c>
       <c r="J769" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K769" t="inlineStr">
         <is>
@@ -25829,7 +26219,7 @@
         <v>44.3</v>
       </c>
       <c r="J770" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K770" t="inlineStr">
         <is>
@@ -25870,7 +26260,7 @@
         <v>44.4</v>
       </c>
       <c r="J771" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K771" t="inlineStr">
         <is>
@@ -25911,7 +26301,7 @@
         <v>44.8</v>
       </c>
       <c r="J772" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K772" t="inlineStr">
         <is>
@@ -25952,7 +26342,7 @@
         <v>44.8</v>
       </c>
       <c r="J773" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K773" t="inlineStr">
         <is>
@@ -25993,7 +26383,7 @@
         <v>44.6</v>
       </c>
       <c r="J774" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K774" t="inlineStr">
         <is>
@@ -26034,7 +26424,7 @@
         <v>45</v>
       </c>
       <c r="J775" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K775" t="inlineStr">
         <is>
@@ -26069,11 +26459,13 @@
         <v>-10326547.38375528</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
-      </c>
-      <c r="I776" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I776" t="n">
+        <v>46.7</v>
+      </c>
       <c r="J776" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K776" t="inlineStr">
         <is>
@@ -26108,11 +26500,13 @@
         <v>-10167953.05715528</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
-      </c>
-      <c r="I777" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I777" t="n">
+        <v>44.6</v>
+      </c>
       <c r="J777" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K777" t="inlineStr">
         <is>
@@ -26147,11 +26541,13 @@
         <v>-10162433.00235528</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
-      </c>
-      <c r="I778" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I778" t="n">
+        <v>44.7</v>
+      </c>
       <c r="J778" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K778" t="inlineStr">
         <is>
@@ -26186,11 +26582,13 @@
         <v>-10164172.40755528</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
-      </c>
-      <c r="I779" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I779" t="n">
+        <v>45.5</v>
+      </c>
       <c r="J779" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K779" t="inlineStr">
         <is>
@@ -26225,11 +26623,13 @@
         <v>-10066978.1221164</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
-      </c>
-      <c r="I780" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I780" t="n">
+        <v>45.4</v>
+      </c>
       <c r="J780" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K780" t="inlineStr">
         <is>
@@ -26264,11 +26664,13 @@
         <v>-10082607.7320164</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
-      </c>
-      <c r="I781" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I781" t="n">
+        <v>46.3</v>
+      </c>
       <c r="J781" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K781" t="inlineStr">
         <is>
@@ -26303,11 +26705,13 @@
         <v>-10082607.7320164</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
-      </c>
-      <c r="I782" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I782" t="n">
+        <v>45.4</v>
+      </c>
       <c r="J782" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K782" t="inlineStr">
         <is>
@@ -26342,11 +26746,13 @@
         <v>-10080393.2419164</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
-      </c>
-      <c r="I783" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I783" t="n">
+        <v>45.4</v>
+      </c>
       <c r="J783" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K783" t="inlineStr">
         <is>
@@ -26381,11 +26787,13 @@
         <v>-10080393.2419164</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
-      </c>
-      <c r="I784" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I784" t="n">
+        <v>45.9</v>
+      </c>
       <c r="J784" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K784" t="inlineStr">
         <is>
@@ -26420,11 +26828,13 @@
         <v>-10093111.8970164</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
-      </c>
-      <c r="I785" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I785" t="n">
+        <v>45.9</v>
+      </c>
       <c r="J785" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K785" t="inlineStr">
         <is>
@@ -26459,11 +26869,13 @@
         <v>-10108496.6124164</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
-      </c>
-      <c r="I786" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I786" t="n">
+        <v>45.4</v>
+      </c>
       <c r="J786" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K786" t="inlineStr">
         <is>
@@ -26498,11 +26910,13 @@
         <v>-10108376.6124164</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
-      </c>
-      <c r="I787" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I787" t="n">
+        <v>45.2</v>
+      </c>
       <c r="J787" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K787" t="inlineStr">
         <is>
@@ -26537,11 +26951,13 @@
         <v>-10108376.6124164</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
-      </c>
-      <c r="I788" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I788" t="n">
+        <v>45.8</v>
+      </c>
       <c r="J788" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K788" t="inlineStr">
         <is>
@@ -26576,11 +26992,13 @@
         <v>-10179601.9085164</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
-      </c>
-      <c r="I789" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I789" t="n">
+        <v>45.8</v>
+      </c>
       <c r="J789" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K789" t="inlineStr">
         <is>
@@ -26615,11 +27033,13 @@
         <v>-10179601.9085164</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
-      </c>
-      <c r="I790" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I790" t="n">
+        <v>44.1</v>
+      </c>
       <c r="J790" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K790" t="inlineStr">
         <is>
@@ -26654,11 +27074,13 @@
         <v>-10179601.9085164</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
-      </c>
-      <c r="I791" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I791" t="n">
+        <v>44.1</v>
+      </c>
       <c r="J791" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K791" t="inlineStr">
         <is>
@@ -26693,11 +27115,13 @@
         <v>-10178635.9119164</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
-      </c>
-      <c r="I792" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I792" t="n">
+        <v>44.1</v>
+      </c>
       <c r="J792" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K792" t="inlineStr">
         <is>
@@ -26732,11 +27156,13 @@
         <v>-10178635.9119164</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
-      </c>
-      <c r="I793" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I793" t="n">
+        <v>44.3</v>
+      </c>
       <c r="J793" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K793" t="inlineStr">
         <is>
@@ -26771,11 +27197,13 @@
         <v>-10178635.9119164</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
-      </c>
-      <c r="I794" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I794" t="n">
+        <v>44.3</v>
+      </c>
       <c r="J794" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K794" t="inlineStr">
         <is>
@@ -26810,11 +27238,13 @@
         <v>-10165143.1334164</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
-      </c>
-      <c r="I795" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I795" t="n">
+        <v>44.3</v>
+      </c>
       <c r="J795" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K795" t="inlineStr">
         <is>
@@ -26849,11 +27279,13 @@
         <v>-10162319.3945164</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
-      </c>
-      <c r="I796" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I796" t="n">
+        <v>45</v>
+      </c>
       <c r="J796" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K796" t="inlineStr">
         <is>
@@ -26888,11 +27320,13 @@
         <v>-10162319.3945164</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
-      </c>
-      <c r="I797" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I797" t="n">
+        <v>45.2</v>
+      </c>
       <c r="J797" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K797" t="inlineStr">
         <is>
@@ -26927,11 +27361,13 @@
         <v>-10162654.9093164</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
-      </c>
-      <c r="I798" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I798" t="n">
+        <v>45.2</v>
+      </c>
       <c r="J798" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K798" t="inlineStr">
         <is>
@@ -26966,11 +27402,13 @@
         <v>-10162654.9093164</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
-      </c>
-      <c r="I799" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I799" t="n">
+        <v>44.6</v>
+      </c>
       <c r="J799" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K799" t="inlineStr">
         <is>
@@ -27005,11 +27443,13 @@
         <v>-10162640.6394164</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
-      </c>
-      <c r="I800" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I800" t="n">
+        <v>44.6</v>
+      </c>
       <c r="J800" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K800" t="inlineStr">
         <is>
@@ -27044,11 +27484,13 @@
         <v>-10207236.7517164</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
-      </c>
-      <c r="I801" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I801" t="n">
+        <v>45.2</v>
+      </c>
       <c r="J801" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K801" t="inlineStr">
         <is>
@@ -27083,11 +27525,13 @@
         <v>-10208006.6323164</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
-      </c>
-      <c r="I802" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I802" t="n">
+        <v>45</v>
+      </c>
       <c r="J802" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K802" t="inlineStr">
         <is>
@@ -27122,11 +27566,13 @@
         <v>-10208006.6323164</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
-      </c>
-      <c r="I803" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I803" t="n">
+        <v>44.9</v>
+      </c>
       <c r="J803" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K803" t="inlineStr">
         <is>
@@ -27161,11 +27607,13 @@
         <v>-10208006.6323164</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
-      </c>
-      <c r="I804" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I804" t="n">
+        <v>44.9</v>
+      </c>
       <c r="J804" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K804" t="inlineStr">
         <is>
@@ -27200,11 +27648,13 @@
         <v>-10128187.3310164</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
-      </c>
-      <c r="I805" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I805" t="n">
+        <v>44.9</v>
+      </c>
       <c r="J805" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K805" t="inlineStr">
         <is>
@@ -27239,11 +27689,13 @@
         <v>-10128006.64899184</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
-      </c>
-      <c r="I806" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I806" t="n">
+        <v>45.4</v>
+      </c>
       <c r="J806" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K806" t="inlineStr">
         <is>
@@ -27278,11 +27730,13 @@
         <v>-10131066.06349184</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
-      </c>
-      <c r="I807" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I807" t="n">
+        <v>45.6</v>
+      </c>
       <c r="J807" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K807" t="inlineStr">
         <is>
@@ -27317,11 +27771,13 @@
         <v>-10005540.02839184</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
-      </c>
-      <c r="I808" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I808" t="n">
+        <v>45.3</v>
+      </c>
       <c r="J808" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K808" t="inlineStr">
         <is>
@@ -27356,11 +27812,13 @@
         <v>-10048212.63279184</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
-      </c>
-      <c r="I809" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I809" t="n">
+        <v>45.4</v>
+      </c>
       <c r="J809" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K809" t="inlineStr">
         <is>
@@ -27395,11 +27853,13 @@
         <v>-10012292.52249184</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
-      </c>
-      <c r="I810" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I810" t="n">
+        <v>44.8</v>
+      </c>
       <c r="J810" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K810" t="inlineStr">
         <is>
@@ -27434,11 +27894,13 @@
         <v>-10012292.52249184</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
-      </c>
-      <c r="I811" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I811" t="n">
+        <v>45.3</v>
+      </c>
       <c r="J811" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K811" t="inlineStr">
         <is>
@@ -27473,11 +27935,13 @@
         <v>-9881687.784791835</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
-      </c>
-      <c r="I812" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I812" t="n">
+        <v>45.3</v>
+      </c>
       <c r="J812" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K812" t="inlineStr">
         <is>
@@ -27512,11 +27976,13 @@
         <v>-9881687.784791835</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
-      </c>
-      <c r="I813" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I813" t="n">
+        <v>45.4</v>
+      </c>
       <c r="J813" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K813" t="inlineStr">
         <is>
@@ -27551,11 +28017,13 @@
         <v>-9816079.357591834</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
-      </c>
-      <c r="I814" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I814" t="n">
+        <v>45.4</v>
+      </c>
       <c r="J814" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K814" t="inlineStr">
         <is>
@@ -27590,11 +28058,13 @@
         <v>-9816079.357591834</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
-      </c>
-      <c r="I815" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I815" t="n">
+        <v>45.7</v>
+      </c>
       <c r="J815" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K815" t="inlineStr">
         <is>
@@ -27629,11 +28099,13 @@
         <v>-9815788.793691834</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
-      </c>
-      <c r="I816" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I816" t="n">
+        <v>45.7</v>
+      </c>
       <c r="J816" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K816" t="inlineStr">
         <is>
@@ -27668,11 +28140,13 @@
         <v>-9815788.793691834</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
-      </c>
-      <c r="I817" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I817" t="n">
+        <v>46.1</v>
+      </c>
       <c r="J817" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K817" t="inlineStr">
         <is>
@@ -27707,11 +28181,13 @@
         <v>-9793079.357591834</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
-      </c>
-      <c r="I818" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I818" t="n">
+        <v>46.1</v>
+      </c>
       <c r="J818" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K818" t="inlineStr">
         <is>
@@ -27746,11 +28222,13 @@
         <v>-9794565.300991833</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
-      </c>
-      <c r="I819" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I819" t="n">
+        <v>46.2</v>
+      </c>
       <c r="J819" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K819" t="inlineStr">
         <is>
@@ -27785,11 +28263,13 @@
         <v>-9762824.296991833</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
-      </c>
-      <c r="I820" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I820" t="n">
+        <v>46.1</v>
+      </c>
       <c r="J820" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K820" t="inlineStr">
         <is>
@@ -27824,11 +28304,13 @@
         <v>-9763874.296991833</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
-      </c>
-      <c r="I821" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I821" t="n">
+        <v>46.2</v>
+      </c>
       <c r="J821" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K821" t="inlineStr">
         <is>
@@ -27863,11 +28345,13 @@
         <v>-9761767.984591832</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
-      </c>
-      <c r="I822" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I822" t="n">
+        <v>46</v>
+      </c>
       <c r="J822" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K822" t="inlineStr">
         <is>
@@ -27902,11 +28386,13 @@
         <v>-9761767.984591832</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
-      </c>
-      <c r="I823" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I823" t="n">
+        <v>46.4</v>
+      </c>
       <c r="J823" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K823" t="inlineStr">
         <is>
@@ -27941,11 +28427,13 @@
         <v>-9761767.984591832</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
-      </c>
-      <c r="I824" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I824" t="n">
+        <v>46.4</v>
+      </c>
       <c r="J824" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K824" t="inlineStr">
         <is>
@@ -27980,11 +28468,13 @@
         <v>-9779777.312091833</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
-      </c>
-      <c r="I825" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I825" t="n">
+        <v>46.4</v>
+      </c>
       <c r="J825" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K825" t="inlineStr">
         <is>
@@ -28019,11 +28509,13 @@
         <v>-9724596.740091832</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
-      </c>
-      <c r="I826" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I826" t="n">
+        <v>46.2</v>
+      </c>
       <c r="J826" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K826" t="inlineStr">
         <is>
@@ -28058,11 +28550,13 @@
         <v>-9635204.717791833</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
-      </c>
-      <c r="I827" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I827" t="n">
+        <v>46.6</v>
+      </c>
       <c r="J827" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K827" t="inlineStr">
         <is>
@@ -28097,11 +28591,13 @@
         <v>-9615146.620991834</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
-      </c>
-      <c r="I828" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I828" t="n">
+        <v>46.7</v>
+      </c>
       <c r="J828" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K828" t="inlineStr">
         <is>
@@ -28136,11 +28632,13 @@
         <v>-9615146.620991834</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
-      </c>
-      <c r="I829" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I829" t="n">
+        <v>46.8</v>
+      </c>
       <c r="J829" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K829" t="inlineStr">
         <is>
@@ -28175,11 +28673,13 @@
         <v>-9615496.620991834</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
-      </c>
-      <c r="I830" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I830" t="n">
+        <v>46.8</v>
+      </c>
       <c r="J830" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K830" t="inlineStr">
         <is>
@@ -28214,11 +28714,13 @@
         <v>-9629043.434391834</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
-      </c>
-      <c r="I831" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I831" t="n">
+        <v>46.7</v>
+      </c>
       <c r="J831" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K831" t="inlineStr">
         <is>
@@ -28253,11 +28755,13 @@
         <v>-9643077.892491834</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
-      </c>
-      <c r="I832" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I832" t="n">
+        <v>46.6</v>
+      </c>
       <c r="J832" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K832" t="inlineStr">
         <is>
@@ -28292,11 +28796,13 @@
         <v>-9643077.892491834</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
-      </c>
-      <c r="I833" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I833" t="n">
+        <v>46.4</v>
+      </c>
       <c r="J833" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K833" t="inlineStr">
         <is>
@@ -28331,11 +28837,13 @@
         <v>-9643077.892491834</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
-      </c>
-      <c r="I834" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I834" t="n">
+        <v>46.4</v>
+      </c>
       <c r="J834" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K834" t="inlineStr">
         <is>
@@ -28370,11 +28878,13 @@
         <v>-9643077.892491834</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
-      </c>
-      <c r="I835" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I835" t="n">
+        <v>46.4</v>
+      </c>
       <c r="J835" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K835" t="inlineStr">
         <is>
@@ -28409,11 +28919,13 @@
         <v>-9642869.916191835</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
-      </c>
-      <c r="I836" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I836" t="n">
+        <v>46.4</v>
+      </c>
       <c r="J836" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K836" t="inlineStr">
         <is>
@@ -28448,11 +28960,13 @@
         <v>-9642869.916191835</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
-      </c>
-      <c r="I837" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I837" t="n">
+        <v>46.6</v>
+      </c>
       <c r="J837" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K837" t="inlineStr">
         <is>
@@ -28487,11 +29001,13 @@
         <v>-9642869.916191835</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
-      </c>
-      <c r="I838" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I838" t="n">
+        <v>46.6</v>
+      </c>
       <c r="J838" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K838" t="inlineStr">
         <is>
@@ -28526,11 +29042,13 @@
         <v>-9643989.768591834</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
-      </c>
-      <c r="I839" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I839" t="n">
+        <v>46.6</v>
+      </c>
       <c r="J839" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K839" t="inlineStr">
         <is>
@@ -28565,11 +29083,13 @@
         <v>-9640293.466891835</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
-      </c>
-      <c r="I840" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I840" t="n">
+        <v>46.3</v>
+      </c>
       <c r="J840" t="n">
-        <v>45</v>
+        <v>47.2</v>
       </c>
       <c r="K840" t="inlineStr">
         <is>
